--- a/yearly_metric.xlsx
+++ b/yearly_metric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyThon\ALPHA FACTORY\BACKTEST TRADING STRAT\Son_MARKET_REGIME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A97297-1FBC-456E-B93F-850530D6F16E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CCF47-C815-4D52-A418-670B1E29986A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <sheet name="2023" sheetId="5" r:id="rId5"/>
     <sheet name="2024" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="88">
   <si>
     <t>Annual Return</t>
   </si>
@@ -141,12 +144,6 @@
     <t>VFMVFA VN Equity</t>
   </si>
   <si>
-    <t>HLGVIET MK Equity</t>
-  </si>
-  <si>
-    <t>HAVNEAF IT Equity</t>
-  </si>
-  <si>
     <t>49311186 JP Equity</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>VCBFMGF VN Equity</t>
   </si>
   <si>
-    <t>FUCTVGF3 VN Equity</t>
-  </si>
-  <si>
     <t>FUEKIV30 VN Equity</t>
   </si>
   <si>
@@ -295,13 +289,16 @@
   </si>
   <si>
     <t>NAM.TH.PS</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +312,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -369,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -381,6 +386,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,6 +403,858 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Code"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Code</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Fund name</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Type</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v xml:space="preserve">VNM US Equity </v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Vaneck Vietnam ETF Class USD INC (US)</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>AFCVICI KY Equity</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>AFC - Vietnam Fund Class CI (CSX)</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>LUMENUS LE Equity</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>AQUIS UCITS - Lumen Vietnam Fund Class USD-I (Liechtenstein)</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>XFVT GY Equity</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Xtrackers FTSE Vietnam Swap UCITS ETF Class 1C (Xetra)</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>GAVNBCU LX Equity</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Galileo - Vietnam Fund Class BC USD ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>LCVIETU SP Equity</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>LionGlobal Investment Funds III - LionGlobal Vietnam Fund Class A USD ACC (Singapore)</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FOVCPVA LX Equity</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Forum One - VinaCapital Vietnam Fund Class A USD ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>GAVTNIU LX Equity</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Galileo - Vietnam Fund Class I USD ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>AFCVIET KY Equity</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>AFC - Vietnam Fund (CSX)</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>VIETNAM ID Equity</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Dragon Capital Developing Markets Strategies plc - Vietnam Equity UCITS Fund Class A USD ACC (Dublin)</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>E1VFVN30 VN Equity</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>DCVFMVN30 ETF Fund (Vietnam)</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>XVTD LN Equity</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Xtrackers FTSE Vietnam Swap UCITS ETF Class 1C (London)</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>KVIETNE TB Equity</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>K Vietnam Equity Fund Class K-VIETNAM (Bangkok)</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>00885 TT Equity</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Fubon FTSE Vietnam ETF (Taiwan Stock Exchange)</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>3087 HK Equity</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Xtrackers FTSE Vietnam Swap UCITS ETF Class 1C (Hong Kong)</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>SSICOAD VN Equity</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>SSI Sustainable Competitive Advantage Fund (Vietnam)</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>XFVT GR Equity</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Xtrackers FTSE Vietnam Swap UCITS ETF Class 1C (Germany)</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>GAVT SW Equity</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Galileo - Vietnam Fund Class I USD ACC (Switzerland)</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>LCVIETS SP Equity</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>LionGlobal Investment Funds III - LionGlobal Vietnam Fund Class A SGD ACC (Singapore)</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>LUMENCH LE Equity</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>AQUIS UCITS - Lumen Vietnam Fund Class CHF R (Liechtenstein)</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>VNAM US Equity</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Global X MSCI Vietnam ETF Class USD INC (U.S.)</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>VTNPHXA KY Equity</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Vietnam Phoenix Fund Ltd - Class A Class A (CSX)</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>FUEKIV30 VN Equity</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>FUEKIV30 VN Equity</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>FUESSVFL VN Equity</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>SSIAM VNFIN LEAD ETF (Vietnam)</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>CPVNEQA TB Equity</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Principal Vietnam Equity Fund Class PRINCIPAL VNEQ-A (Bangkok)</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>EISVSIU ID Equity</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Strategic Vietnam Prosperity Fund Class SI USD (Dublin)</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>KIMVGIU LX Equity</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>KIM Investment Funds - KIM Vietnam Growth Fund Class I USD ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>VIETEUR ID Equity</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Dragon Capital Developing Markets Strategies plc - Vietnam Equity UCITS Fund Class B EUR ACC (Dublin)</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>9A311108 JP Equity</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>CAM Vietnam Fund (Japan)</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>GALVINU LX Equity</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Galileo - Vietnam Fund Class N USD ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>GAVBNHI LX Equity</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Galileo - Vietnam Fund Class I EUR ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>LUMCHFI LE Equity</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>AQUIS UCITS - Lumen Vietnam Fund Class CHF I (Liechtenstein)</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>LUMENEI LE Equity</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>AQUIS UCITS - Lumen Vietnam Fund Class I2 EUR ACC (Liechtenstein)</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>VND SP Equity</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>CGS Fullgoal Vietnam 30 Sector Cap ETF Class USD INC (Singapore)</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>CTBCVET TT Equity</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>CTBC Vietnam Equity Fund Class TWD ACC (Taiwan Stock Exchange)</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>XFVT GT Equity</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Xtrackers FTSE Vietnam Swap UCITS ETF Class 1C (Xetra ETF)</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>XFVT SP Equity</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Xtrackers FTSE Vietnam Swap UCITS ETF Class 1C (Singapore)</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>TCMVN NA Equity</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>TCM Vietnam High Dividend Equity (Euronext Amsterdam)</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>2804 HK Equity</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Premia Vietnam ETF Class HKD INC (Hong Kong)</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>VCVOF US Equity</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>VinaCapital Vietnam Opportunity Fund Ltd (U.S.)</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Closed End fund</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>FUESSV50 VN Equity</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>SSIAM VNX50 ETF (Vietnam)</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>THVMEFA CH Equity</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Tianhong Vietnamese Market Equity Launched QDII Fund Class A (China)</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>AB311171 JP Equity</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Vietnam Lotus Fund/Fivestar (Japan)</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>IOFVTEQ LX Equity</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Eastspring Investments - Vietnam Equity Fund Class J USD ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>SGVIEOP HK Equity</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Amundi Harvest Funds - Amundi Vietnam Opportunities Fund Class USD ACC (Hong Kong)</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>VFMVF1 VN Equity</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>DC Dynamic Securities Fund (Vietnam)</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>FORMVIN LX Equity</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Forum One - VinaCapital Vietnam Fund Class H USD ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>FOVIEDE LX Equity</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>Forum One - VinaCapital Vietnam Fund Class D EUR ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>GALVBCE LX Equity</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>Galileo - Vietnam Fund Class BC EUR ACC (Luxembourg)</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>GAVT SE Equity</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>Galileo - Vietnam Fund Class I USD ACC (SIX)</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>GELIONV SP Equity</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>Great Eastern Life GreatLink Lion Vietnam Fund (Singapore)</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>YDVNLDR KY Equity</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>Yuanta Diamond Funds SPC - Yuanta Vietnam Leader Fund Segregated Portfolio (CSX)</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>0431216C JP Equity</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>Vietnam Equity Fund/Daiwa (Japan)</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>VFMVFA VN Equity</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>Vietnam Active Fund (Vietnam)</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>SSIVLGF VN Equity</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>Vietnam Long Term Growth Fund Class VND ACC (Vietnam)</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>HLGVIET MK Equity</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>Hong Leong Vietnam Fund (Bursa Malaysia)</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>HAVNEAF IT Equity</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>Halman-Aldubi Vietnam and East Asia Mutual Fund (Tel Aviv)</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>49311186 JP Equity</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>Tokio Marine Vietnam Equity Fund (Japan)</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>DCVE SE Equity</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>Dragon Capital Developing Markets Strategies plc - Vietnam Equity UCITS Fund Class A USD ACC (SIX)</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>DVTNSM JP Equity</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>Daiwa Vietnam Equity Mother Fund (Japan)</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>ASPVIET TB Equity</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>Asset Plus Vietnam Growth Fund Class ASP-VIET-A (Bangkok)</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>1AR0081 KS Equity</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>Mirae Asset Vietnam Securities Investment Company 1 - Equity Balanced Class S (South Korea)</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>HLVIETS MK Equity</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Hong Leong Vietnam Strategic Fund (Bursa Malaysia)</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>47311156 JP Equity</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>DIAM Vietnam Equity Fund (Japan)</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>ASPVRMF TB Equity</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>Asset Plus Vietnam Growth RMF Fund Class ASP-VIETRMF (Bangkok)</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>VCBFTBF VN Equity</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>VCBF Tactical Balanced Fund (Vietnam)</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>VCBFMGF VN Equity</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>VCBF Midcap Growth Fund Class none (Vietnam)</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Open ended Fund</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>2629612Z LN Equity</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>Vietnam Lotus Fund Limited (London)</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Closed End fund</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>FUCTVGF5 VN Equity</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>FUCTVGF5 VN Equity</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Closed End fund</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>VG6 GR Equity</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>Dragon Capital - Vietnam Growth Fund Ltd (Germany)</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>Closed End fund</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>VNF LN Equity</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>PXP Vietnam Fund Ltd (London)</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Closed End fund</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>FUCTVGF3 VN Equity</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>THIET VIET GROWTH FUND 3</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Closed End fund</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>VNM US Equity</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>VanEck Vietnam ETF Class USD INC (U.S.)</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>FUESSV30 VN Equity</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>SSIAM VN30 ETF (Vietnam)</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>FUEKIVFS VN Equity</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>KIM Growth VNFINSELECT ETF (Vietnam)</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>ETF</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:C61"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,17 +1553,21 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,8 +1577,12 @@
       <c r="C2" s="4">
         <v>-0.11291673225248031</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -726,8 +1592,12 @@
       <c r="C3" s="4">
         <v>-6.2004191982170831E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +1607,12 @@
       <c r="C4" s="4">
         <v>-7.9151634415656036E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -748,8 +1622,12 @@
       <c r="C5" s="4">
         <v>-0.1158777120315591</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,8 +1637,12 @@
       <c r="C6" s="4">
         <v>-7.9573669230302777E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -770,8 +1652,12 @@
       <c r="C7" s="4">
         <v>-8.9947089947089817E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -781,8 +1667,12 @@
       <c r="C8" s="4">
         <v>-7.7441077441077283E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,8 +1682,12 @@
       <c r="C9" s="4">
         <v>-7.9219987812309489E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -803,8 +1697,12 @@
       <c r="C10" s="4">
         <v>-6.3173627032934151E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -814,8 +1712,12 @@
       <c r="C11" s="4">
         <v>-7.4695761644984787E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -825,8 +1727,12 @@
       <c r="C12" s="4">
         <v>-9.6463022508039051E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -836,8 +1742,12 @@
       <c r="C13" s="4">
         <v>-0.13147178592204789</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -847,8 +1757,12 @@
       <c r="C14" s="4">
         <v>-0.14501420520702471</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -858,8 +1772,12 @@
       <c r="C15" s="4">
         <v>-0.1464311994113309</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -869,8 +1787,12 @@
       <c r="C16" s="4">
         <v>-7.4469023638693871E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -880,8 +1802,12 @@
       <c r="C17" s="4">
         <v>-0.168116842759477</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -891,8 +1817,12 @@
       <c r="C18" s="4">
         <v>-9.4437257438551039E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -902,8 +1832,12 @@
       <c r="C19" s="4">
         <v>-8.7852711626976207E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -913,8 +1847,12 @@
       <c r="C20" s="4">
         <v>-5.8387535924973297E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -924,8 +1862,12 @@
       <c r="C21" s="4">
         <v>-0.15664989292232351</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -935,8 +1877,12 @@
       <c r="C22" s="4">
         <v>-8.956388720524186E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -946,8 +1892,12 @@
       <c r="C23" s="4">
         <v>-8.4243017390650141E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -957,8 +1907,12 @@
       <c r="C24" s="4">
         <v>-0.10196259914138089</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -968,8 +1922,12 @@
       <c r="C25" s="4">
         <v>-0.1158777120315591</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -979,8 +1937,12 @@
       <c r="C26" s="4">
         <v>-0.1247072599531638</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -990,8 +1952,12 @@
       <c r="C27" s="4">
         <v>-7.9310929239582689E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1001,8 +1967,12 @@
       <c r="C28" s="4">
         <v>-8.9893465356800442E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1012,8 +1982,12 @@
       <c r="C29" s="4">
         <v>-8.8888888888889447E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1023,8 +1997,12 @@
       <c r="C30" s="4">
         <v>-9.1342526088681292E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1034,8 +2012,12 @@
       <c r="C31" s="4">
         <v>-7.5055734456278944E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1045,8 +2027,12 @@
       <c r="C32" s="4">
         <v>-8.0804353841896451E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1056,8 +2042,12 @@
       <c r="C33" s="4">
         <v>-6.7634602613003789E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1067,8 +2057,12 @@
       <c r="C34" s="4">
         <v>-9.1041514930808365E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1078,8 +2072,12 @@
       <c r="C35" s="4">
         <v>-9.3447905477980694E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1089,280 +2087,309 @@
       <c r="C36" s="4">
         <v>-9.8129010607334172E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4">
+        <v>-7.8946288594541753E-3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>-0.1252232695849223</v>
+      </c>
+      <c r="D37" t="str">
+        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2.506666393005549E-2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-9.4017198566378565E-2</v>
+      </c>
+      <c r="D38" t="str">
+        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2.478349625231931E-2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>-0.1052102605821387</v>
+      </c>
+      <c r="D39" t="str">
+        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4">
         <v>0</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4">
-        <v>-7.8946288594541753E-3</v>
-      </c>
-      <c r="C40" s="4">
-        <v>-0.1252232695849223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>2.506666393005549E-2</v>
+        <v>-4.8109653294900034E-3</v>
       </c>
       <c r="C41" s="4">
-        <v>-9.4017198566378565E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.13382594417077201</v>
+      </c>
+      <c r="D41" t="str">
+        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4">
-        <v>2.478349625231931E-2</v>
+        <v>-3.1786315402673029E-2</v>
       </c>
       <c r="C42" s="4">
-        <v>-0.1052102605821387</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1176949787684687</v>
+      </c>
+      <c r="D42" t="str">
+        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4">
-        <v>0</v>
+        <v>4.8352242554086169E-2</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-5.6676694733502279E-2</v>
+      </c>
+      <c r="D43" t="str">
+        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>-4.8109653294900034E-3</v>
+        <v>4.6372515349834817E-2</v>
       </c>
       <c r="C44" s="4">
-        <v>-0.13382594417077201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-7.4469023638693968E-2</v>
+      </c>
+      <c r="D44" t="str">
+        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>-3.1786315402673029E-2</v>
+        <v>8.2835341444636473E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>-0.1176949787684687</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-4.4788975021533527E-2</v>
+      </c>
+      <c r="D45" t="str">
+        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>4.8352242554086169E-2</v>
+        <v>0.1063687113678078</v>
       </c>
       <c r="C46" s="4">
-        <v>-5.6676694733502279E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.14338716717590591</v>
+      </c>
+      <c r="D46" t="str">
+        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>0</v>
+        <v>3.4303476734631043E-2</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-7.2668509528711678E-2</v>
+      </c>
+      <c r="D47" t="str">
+        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>0</v>
+        <v>8.7078917666218919E-2</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.3096024387146306E-2</v>
+      </c>
+      <c r="D48" t="str">
+        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>4.6372515349834817E-2</v>
+        <v>0.1022556757106285</v>
       </c>
       <c r="C49" s="4">
-        <v>-7.4469023638693968E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.7634602613003747E-2</v>
+      </c>
+      <c r="D49" t="str">
+        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>8.2835341444636473E-2</v>
+        <v>1.290406727040605E-2</v>
       </c>
       <c r="C50" s="4">
-        <v>-4.4788975021533527E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-5.5205022562291581E-2</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>0.1063687113678078</v>
+        <v>8.4305159424680837E-2</v>
       </c>
       <c r="C51" s="4">
-        <v>-0.14338716717590591</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-7.6342518041712173E-2</v>
+      </c>
+      <c r="D51" t="str">
+        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>3.4303476734631043E-2</v>
+        <v>2.367491671489938E-2</v>
       </c>
       <c r="C52" s="4">
-        <v>-7.2668509528711678E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-7.91048659901116E-2</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>8.7078917666218919E-2</v>
+        <v>3.676616069172188E-2</v>
       </c>
       <c r="C53" s="4">
-        <v>-8.3096024387146306E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-9.4441360716834025E-2</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>0.1022556757106285</v>
+        <v>7.7269030669119831E-2</v>
       </c>
       <c r="C54" s="4">
-        <v>-6.7634602613003747E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>-7.1986808597828481E-2</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B55" s="4">
-        <v>1.290406727040605E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C55" s="4">
-        <v>-5.5205022562291581E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B56" s="4">
-        <v>8.4305159424680837E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C56" s="4">
-        <v>-7.6342518041712173E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="4">
-        <v>2.367491671489938E-2</v>
-      </c>
-      <c r="C57" s="4">
-        <v>-7.91048659901116E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4">
-        <v>3.676616069172188E-2</v>
-      </c>
-      <c r="C58" s="4">
-        <v>-9.4441360716834025E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="4">
-        <v>7.7269030669119831E-2</v>
-      </c>
-      <c r="C59" s="4">
-        <v>-7.1986808597828481E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C60" s="4">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="C61" s="4">
         <v>-0.18</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
       </c>
     </row>
   </sheetData>
@@ -1372,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:C67"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D37" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,17 +2410,21 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1403,8 +2434,12 @@
       <c r="C2" s="4">
         <v>-0.40344483835403022</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +2449,12 @@
       <c r="C3" s="4">
         <v>-0.22650147383935151</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +2464,12 @@
       <c r="C4" s="4">
         <v>-0.36380575288226402</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1436,8 +2479,12 @@
       <c r="C5" s="4">
         <v>-0.31672060409924457</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1447,8 +2494,12 @@
       <c r="C6" s="4">
         <v>-0.29468223086900108</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1458,8 +2509,12 @@
       <c r="C7" s="4">
         <v>-0.34896810506566622</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1469,8 +2524,12 @@
       <c r="C8" s="4">
         <v>-0.31769722814498941</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1480,8 +2539,12 @@
       <c r="C9" s="4">
         <v>-0.29453976123687098</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1491,8 +2554,12 @@
       <c r="C10" s="4">
         <v>-0.22746706757504451</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1502,8 +2569,12 @@
       <c r="C11" s="4">
         <v>-0.36965152183502398</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1513,8 +2584,12 @@
       <c r="C12" s="4">
         <v>-0.36075949367088589</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1524,8 +2599,12 @@
       <c r="C13" s="4">
         <v>-0.33928571428571402</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1535,8 +2614,12 @@
       <c r="C14" s="4">
         <v>-0.28832322221527262</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1546,8 +2629,12 @@
       <c r="C15" s="4">
         <v>-0.33083956774729872</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1557,8 +2644,12 @@
       <c r="C16" s="4">
         <v>-0.32185846640980298</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,8 +2659,12 @@
       <c r="C17" s="4">
         <v>-0.32204980151569801</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1579,8 +2674,12 @@
       <c r="C18" s="4">
         <v>-0.31250000000000022</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,8 +2689,12 @@
       <c r="C19" s="4">
         <v>-0.36484442523768362</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,8 +2704,12 @@
       <c r="C20" s="4">
         <v>-0.19009009009009009</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1612,8 +2719,12 @@
       <c r="C21" s="4">
         <v>-0.30074714522711071</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1623,8 +2734,12 @@
       <c r="C22" s="4">
         <v>-0.33908045025794992</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +2749,12 @@
       <c r="C23" s="4">
         <v>-0.36703119888960578</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1645,10 +2764,14 @@
       <c r="C24" s="4">
         <v>-0.37941193801190248</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4">
         <v>0.24246660717610269</v>
@@ -1656,8 +2779,12 @@
       <c r="C25" s="4">
         <v>-0.36379966187658558</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1667,8 +2794,12 @@
       <c r="C26" s="4">
         <v>-0.31672060409924457</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1678,8 +2809,12 @@
       <c r="C27" s="4">
         <v>-0.33710407239819018</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1689,10 +2824,14 @@
       <c r="C28" s="4">
         <v>-0.30281776291644569</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="4">
         <v>0.15035323100451459</v>
@@ -1700,8 +2839,12 @@
       <c r="C29" s="4">
         <v>-0.34938985228002561</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1711,8 +2854,12 @@
       <c r="C30" s="4">
         <v>-0.44383589691091019</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1722,8 +2869,12 @@
       <c r="C31" s="4">
         <v>-0.32567049808429099</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1733,8 +2884,12 @@
       <c r="C32" s="4">
         <v>-0.35802587831560362</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1744,8 +2899,12 @@
       <c r="C33" s="4">
         <v>-0.2626359286646372</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1755,8 +2914,12 @@
       <c r="C34" s="4">
         <v>-0.33970315398886841</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1766,8 +2929,12 @@
       <c r="C35" s="4">
         <v>-0.29329343256607321</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1777,8 +2944,12 @@
       <c r="C36" s="4">
         <v>-0.3183229813664597</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1788,10 +2959,14 @@
       <c r="C37" s="4">
         <v>-0.31221198156681979</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="4">
         <v>0.20885918520864519</v>
@@ -1799,8 +2974,12 @@
       <c r="C38" s="4">
         <v>-0.21714883599267601</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,313 +2989,339 @@
       <c r="C39" s="4">
         <v>-0.36124601026221159</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>0</v>
+        <v>0.1287771880160456</v>
       </c>
       <c r="C40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.36414997240412311</v>
+      </c>
+      <c r="D40" t="str">
+        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>0</v>
+        <v>0.15914635207485769</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.33315390826252422</v>
+      </c>
+      <c r="D41" t="str">
+        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>0</v>
+        <v>9.0749059796088272E-2</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.27409199613400081</v>
+      </c>
+      <c r="D42" t="str">
+        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4">
-        <v>0.1287771880160456</v>
+        <v>0.16996558647830021</v>
       </c>
       <c r="C43" s="4">
-        <v>-0.36414997240412311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.35161464910698242</v>
+      </c>
+      <c r="D43" t="str">
+        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
-        <v>0.15914635207485769</v>
+        <v>0.13771191151812309</v>
       </c>
       <c r="C44" s="4">
-        <v>-0.33315390826252422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.33469414558866978</v>
+      </c>
+      <c r="D44" t="str">
+        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>9.0749059796088272E-2</v>
+        <v>0.1571017800752883</v>
       </c>
       <c r="C45" s="4">
-        <v>-0.27409199613400081</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.20933844715969491</v>
+      </c>
+      <c r="D45" t="str">
+        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>0.18132313980888989</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.32185846640980309</v>
+      </c>
+      <c r="D46" t="str">
+        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>0.16996558647830021</v>
+        <v>0.14229374910532749</v>
       </c>
       <c r="C47" s="4">
-        <v>-0.35161464910698242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.2088934850051708</v>
+      </c>
+      <c r="D47" t="str">
+        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>0.13771191151812309</v>
+        <v>0.232500112165694</v>
       </c>
       <c r="C48" s="4">
-        <v>-0.33469414558866978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.28070293921584372</v>
+      </c>
+      <c r="D48" t="str">
+        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>0.1571017800752883</v>
+        <v>0.17723829931941321</v>
       </c>
       <c r="C49" s="4">
-        <v>-0.20933844715969491</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.30519332434953877</v>
+      </c>
+      <c r="D49" t="str">
+        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>0</v>
+        <v>0.17020296543110419</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.31668114596260261</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B51" s="4">
-        <v>0</v>
+        <v>0.1745723485953774</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.17841425078588929</v>
+      </c>
+      <c r="D51" t="str">
+        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B52" s="4">
-        <v>0.18132313980888989</v>
+        <v>0.18192063450520629</v>
       </c>
       <c r="C52" s="4">
-        <v>-0.32185846640980309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.28380099704954731</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4">
-        <v>0.14229374910532749</v>
+        <v>0.28789703572239561</v>
       </c>
       <c r="C53" s="4">
-        <v>-0.2088934850051708</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.42603335897371108</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4">
-        <v>0.232500112165694</v>
+        <v>0.1390528532048935</v>
       </c>
       <c r="C54" s="4">
-        <v>-0.28070293921584372</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.22096781917440861</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4">
-        <v>0.17723829931941321</v>
+        <v>0.21261863202519879</v>
       </c>
       <c r="C55" s="4">
-        <v>-0.30519332434953877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.44203891451139798</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B56" s="4">
-        <v>0.17020296543110419</v>
+        <v>0.2073912160773215</v>
       </c>
       <c r="C56" s="4">
-        <v>-0.31668114596260261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.29719441914057459</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>0.1745723485953774</v>
+        <v>0.1509609469401888</v>
       </c>
       <c r="C57" s="4">
-        <v>-0.17841425078588929</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.30782232438645141</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>0.18192063450520629</v>
+        <v>0.1639693874152279</v>
       </c>
       <c r="C58" s="4">
-        <v>-0.28380099704954731</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.35270935960591132</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>0.28789703572239561</v>
+        <v>0.16036277459855641</v>
       </c>
       <c r="C59" s="4">
-        <v>-0.42603335897371108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>-0.33511185524378151</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B60" s="4">
-        <v>0.1390528532048935</v>
+        <v>0.23</v>
       </c>
       <c r="C60" s="4">
-        <v>-0.22096781917440861</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B61" s="4">
-        <v>0.21261863202519879</v>
+        <v>0.15</v>
       </c>
       <c r="C61" s="4">
-        <v>-0.44203891451139798</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0.2073912160773215</v>
-      </c>
-      <c r="C62" s="4">
-        <v>-0.29719441914057459</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0.1509609469401888</v>
-      </c>
-      <c r="C63" s="4">
-        <v>-0.30782232438645141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.1639693874152279</v>
-      </c>
-      <c r="C64" s="4">
-        <v>-0.35270935960591132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0.16036277459855641</v>
-      </c>
-      <c r="C65" s="4">
-        <v>-0.33511185524378151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="C66" s="4">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="C67" s="4">
         <v>-0.18</v>
+      </c>
+      <c r="D61" t="str">
+        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
       </c>
     </row>
   </sheetData>
@@ -2126,10 +3331,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:C73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,17 +3342,21 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2157,8 +3366,12 @@
       <c r="C2" s="4">
         <v>-0.10339533812655111</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2168,8 +3381,12 @@
       <c r="C3" s="4">
         <v>-1.851229264873144E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2179,8 +3396,12 @@
       <c r="C4" s="4">
         <v>-0.1048651373834132</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2190,8 +3411,12 @@
       <c r="C5" s="4">
         <v>-0.13118046971569841</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2201,8 +3426,12 @@
       <c r="C6" s="4">
         <v>-7.3158425832492352E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2212,8 +3441,12 @@
       <c r="C7" s="4">
         <v>-0.1330472103004289</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2223,8 +3456,12 @@
       <c r="C8" s="4">
         <v>-0.13857064920894741</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2234,8 +3471,12 @@
       <c r="C9" s="4">
         <v>-7.5188323917137492E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2245,8 +3486,12 @@
       <c r="C10" s="4">
         <v>-1.8921368187410081E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2256,8 +3501,12 @@
       <c r="C11" s="4">
         <v>-0.12646954043462769</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2267,8 +3516,12 @@
       <c r="C12" s="4">
         <v>-0.13787878787878771</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2278,8 +3531,12 @@
       <c r="C13" s="4">
         <v>-0.1350184173758415</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2289,8 +3546,12 @@
       <c r="C14" s="4">
         <v>-0.117948204010389</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2300,8 +3561,12 @@
       <c r="C15" s="4">
         <v>-0.13201320132013189</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2311,8 +3576,12 @@
       <c r="C16" s="4">
         <v>-0.10662204987859911</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2322,10 +3591,14 @@
       <c r="C17" s="4">
         <v>-0.12748447204968971</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4">
         <v>0.40532060564464772</v>
@@ -2333,8 +3606,12 @@
       <c r="C18" s="4">
         <v>-0.1190681622088009</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2344,8 +3621,12 @@
       <c r="C19" s="4">
         <v>-0.13240043057050621</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2355,8 +3636,12 @@
       <c r="C20" s="4">
         <v>-0.1029552715654951</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2366,10 +3651,14 @@
       <c r="C21" s="4">
         <v>-2.6427160726041551E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="4">
         <v>0.54152200200682254</v>
@@ -2377,8 +3666,12 @@
       <c r="C22" s="4">
         <v>-0.17360235393022261</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2388,8 +3681,12 @@
       <c r="C23" s="4">
         <v>-0.1357670633579631</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2399,8 +3696,12 @@
       <c r="C24" s="4">
         <v>-0.14127276866390029</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2410,8 +3711,12 @@
       <c r="C25" s="4">
         <v>-0.12440627287309421</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2421,10 +3726,14 @@
       <c r="C26" s="4">
         <v>-0.14659880176024581</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="4">
         <v>0.4143475486523065</v>
@@ -2432,10 +3741,14 @@
       <c r="C27" s="4">
         <v>-0.1036008070774484</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4">
         <v>0.34169337466579958</v>
@@ -2443,8 +3756,12 @@
       <c r="C28" s="4">
         <v>-0.129431162407255</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2454,8 +3771,12 @@
       <c r="C29" s="4">
         <v>-0.13118046971569841</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -2465,8 +3786,12 @@
       <c r="C30" s="4">
         <v>-0.1258598726114652</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2476,10 +3801,14 @@
       <c r="C31" s="4">
         <v>-0.1057454675797537</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="4">
         <v>0.20519579529695159</v>
@@ -2487,8 +3816,12 @@
       <c r="C32" s="4">
         <v>-0.14476756527276599</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2498,8 +3831,12 @@
       <c r="C33" s="4">
         <v>-0.15747456300547849</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2509,10 +3846,14 @@
       <c r="C34" s="4">
         <v>-0.13352272727272721</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="4">
         <v>0.35550634195775838</v>
@@ -2520,8 +3861,12 @@
       <c r="C35" s="4">
         <v>-0.1349678647940967</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -2531,8 +3876,12 @@
       <c r="C36" s="4">
         <v>-0.1401072893657308</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2542,8 +3891,12 @@
       <c r="C37" s="4">
         <v>-0.1235486752009527</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -2553,8 +3906,12 @@
       <c r="C38" s="4">
         <v>-0.1341845878136198</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -2564,8 +3921,12 @@
       <c r="C39" s="4">
         <v>-0.1199725260519777</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -2575,10 +3936,14 @@
       <c r="C40" s="4">
         <v>-0.1222444889779561</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="4">
         <v>0.40532060564464772</v>
@@ -2586,8 +3951,12 @@
       <c r="C41" s="4">
         <v>-0.1190681622088009</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2597,10 +3966,14 @@
       <c r="C42" s="4">
         <v>-0.13148479427549209</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="4">
         <v>0.22005381205529001</v>
@@ -2608,8 +3981,12 @@
       <c r="C43" s="4">
         <v>-0.10533289168598881</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2619,76 +3996,104 @@
       <c r="C44" s="4">
         <v>-0.15783178339098219</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4">
-        <v>0</v>
+        <v>0.456468584328097</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1458937338360593</v>
+      </c>
+      <c r="D45" t="str">
+        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>0.4193311153754406</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.12410446036514911</v>
+      </c>
+      <c r="D46" t="str">
+        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4">
-        <v>0</v>
+        <v>2.916861657049305E-2</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.3046641382015482</v>
+      </c>
+      <c r="D47" t="str">
+        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4">
-        <v>0.456468584328097</v>
+        <v>0.42150599391498988</v>
       </c>
       <c r="C48" s="4">
-        <v>-0.1458937338360593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.13331847890671431</v>
+      </c>
+      <c r="D48" t="str">
+        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4">
-        <v>0.4193311153754406</v>
+        <v>0.43690634962110941</v>
       </c>
       <c r="C49" s="4">
-        <v>-0.12410446036514911</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1233371638703747</v>
+      </c>
+      <c r="D49" t="str">
+        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4">
-        <v>2.916861657049305E-2</v>
+        <v>0.29782011358084859</v>
       </c>
       <c r="C50" s="4">
-        <v>-0.3046641382015482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1954458416664048</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -2696,247 +4101,279 @@
       <c r="C51" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4">
-        <v>0.42150599391498988</v>
+        <v>0</v>
       </c>
       <c r="C52" s="4">
-        <v>-0.13331847890671431</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B53" s="4">
-        <v>0.43690634962110941</v>
+        <v>0.41748007871132259</v>
       </c>
       <c r="C53" s="4">
-        <v>-0.1233371638703747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.14628297362110329</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" s="4">
-        <v>0.29782011358084859</v>
+        <v>0.41380682233098331</v>
       </c>
       <c r="C54" s="4">
-        <v>-0.1954458416664048</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.105760144039813</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4">
-        <v>0</v>
+        <v>0.27362885252868369</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-7.5804477719386434E-2</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" s="4">
-        <v>0</v>
+        <v>0.54937555323651921</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.10454057143983519</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4">
-        <v>0.41748007871132259</v>
+        <v>0.32757015412929608</v>
       </c>
       <c r="C57" s="4">
-        <v>-0.14628297362110329</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-9.8925999194510242E-2</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4">
-        <v>0.41380682233098331</v>
+        <v>0.46798631096597981</v>
       </c>
       <c r="C58" s="4">
-        <v>-0.105760144039813</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1096308012891454</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4">
-        <v>0.27362885252868369</v>
+        <v>0.1160559249645839</v>
       </c>
       <c r="C59" s="4">
-        <v>-7.5804477719386434E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-4.8840549969218092E-2</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B60" s="4">
-        <v>0.54937555323651921</v>
+        <v>0.41088081109234331</v>
       </c>
       <c r="C60" s="4">
-        <v>-0.10454057143983519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.26722530915344439</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="4">
-        <v>0.32757015412929608</v>
+        <v>0.4498825758328468</v>
       </c>
       <c r="C61" s="4">
-        <v>-9.8925999194510242E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1199725260519776</v>
+      </c>
+      <c r="D61" t="str">
+        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="4">
-        <v>0.46798631096597981</v>
+        <v>0.36963211876510238</v>
       </c>
       <c r="C62" s="4">
-        <v>-0.1096308012891454</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-5.4405877987855067E-2</v>
+      </c>
+      <c r="D62" t="str">
+        <f>IFERROR(VLOOKUP(A62,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.40431410163903281</v>
+      </c>
+      <c r="C63" s="4">
+        <v>-0.13680020152634889</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IFERROR(VLOOKUP(A63,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="4">
-        <v>0.1160559249645839</v>
-      </c>
-      <c r="C63" s="4">
-        <v>-4.8840549969218092E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B64" s="4">
-        <v>0.41088081109234331</v>
+        <v>0.26478241017512633</v>
       </c>
       <c r="C64" s="4">
-        <v>-0.26722530915344439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.13029733886173189</v>
+      </c>
+      <c r="D64" t="str">
+        <f>IFERROR(VLOOKUP(A64,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" s="4">
-        <v>0.4498825758328468</v>
+        <v>0.35331301178473862</v>
       </c>
       <c r="C65" s="4">
-        <v>-0.1199725260519776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-7.6771741560474061E-2</v>
+      </c>
+      <c r="D65" t="str">
+        <f>IFERROR(VLOOKUP(A65,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4">
-        <v>0.36963211876510238</v>
+        <v>0.35006559995359349</v>
       </c>
       <c r="C66" s="4">
-        <v>-5.4405877987855067E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1240521893571965</v>
+      </c>
+      <c r="D66" t="str">
+        <f>IFERROR(VLOOKUP(A66,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="4">
-        <v>0.40431410163903281</v>
+        <v>0.32263535072532251</v>
       </c>
       <c r="C67" s="4">
-        <v>-0.13680020152634889</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>-0.1425724334282365</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IFERROR(VLOOKUP(A67,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B68" s="4">
-        <v>0.26478241017512633</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="C68" s="4">
-        <v>-0.13029733886173189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D68" t="str">
+        <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B69" s="4">
-        <v>0.35331301178473862</v>
+        <v>0.15</v>
       </c>
       <c r="C69" s="4">
-        <v>-7.6771741560474061E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0.35006559995359349</v>
-      </c>
-      <c r="C70" s="4">
-        <v>-0.1240521893571965</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0.32263535072532251</v>
-      </c>
-      <c r="C71" s="4">
-        <v>-0.1425724334282365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="4">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="C72" s="4">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="C73" s="4">
         <v>-0.18</v>
+      </c>
+      <c r="D69" t="str">
+        <f>IFERROR(VLOOKUP(A69,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
       </c>
     </row>
   </sheetData>
@@ -2946,10 +4383,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:C81"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,17 +4394,21 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2977,8 +4418,12 @@
       <c r="C2" s="4">
         <v>-0.49372798371597798</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2988,8 +4433,12 @@
       <c r="C3" s="4">
         <v>-0.28117023281311571</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2999,8 +4448,12 @@
       <c r="C4" s="4">
         <v>-0.47860916003947268</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3010,8 +4463,12 @@
       <c r="C5" s="4">
         <v>-0.48798693725215819</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3021,8 +4478,12 @@
       <c r="C6" s="4">
         <v>-0.38330176574815161</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3032,8 +4493,12 @@
       <c r="C7" s="4">
         <v>-0.43016759776536317</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3043,8 +4508,12 @@
       <c r="C8" s="4">
         <v>-0.38717948717948691</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3054,8 +4523,12 @@
       <c r="C9" s="4">
         <v>-0.38097233864207869</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3065,8 +4538,12 @@
       <c r="C10" s="4">
         <v>-0.2832661478827902</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3076,8 +4553,12 @@
       <c r="C11" s="4">
         <v>-0.49681840430739072</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -3087,8 +4568,12 @@
       <c r="C12" s="4">
         <v>-0.42205323193916372</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -3098,8 +4583,12 @@
       <c r="C13" s="4">
         <v>-0.53283244133388241</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3109,10 +4598,14 @@
       <c r="C14" s="4">
         <v>-0.37903698605694519</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4">
         <v>-0.43616994684729449</v>
@@ -3120,8 +4613,12 @@
       <c r="C15" s="4">
         <v>-0.44690265486725539</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3131,8 +4628,12 @@
       <c r="C16" s="4">
         <v>-0.50970350404312614</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3142,8 +4643,12 @@
       <c r="C17" s="4">
         <v>-0.44748156075550272</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3153,10 +4658,14 @@
       <c r="C18" s="4">
         <v>-0.49272812573305141</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4">
         <v>-0.25888119957975581</v>
@@ -3164,8 +4673,12 @@
       <c r="C19" s="4">
         <v>-0.40849147635895833</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3175,8 +4688,12 @@
       <c r="C20" s="4">
         <v>-0.42563681183237512</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3186,10 +4703,14 @@
       <c r="C21" s="4">
         <v>-0.50341851602779675</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4">
         <v>-0.53830590273843282</v>
@@ -3197,8 +4718,12 @@
       <c r="C22" s="4">
         <v>-0.52842089695714878</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3208,10 +4733,14 @@
       <c r="C23" s="4">
         <v>-0.33339009024348731</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4">
         <v>-0.35843941685134278</v>
@@ -3219,8 +4748,12 @@
       <c r="C24" s="4">
         <v>-0.53179916317991671</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -3230,8 +4763,12 @@
       <c r="C25" s="4">
         <v>-0.42998881600031369</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -3241,8 +4778,12 @@
       <c r="C26" s="4">
         <v>-0.44885925916459868</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -3252,8 +4793,12 @@
       <c r="C27" s="4">
         <v>-0.46561138249576989</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -3263,10 +4808,14 @@
       <c r="C28" s="4">
         <v>-0.37647451591364389</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="4">
         <v>-0.34568982251222902</v>
@@ -3274,10 +4823,14 @@
       <c r="C29" s="4">
         <v>-0.50222077781388808</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" s="4">
         <v>-0.32985046037425808</v>
@@ -3285,10 +4838,14 @@
       <c r="C30" s="4">
         <v>-0.49483547292312219</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4">
         <v>-0.28343629191945952</v>
@@ -3296,8 +4853,12 @@
       <c r="C31" s="4">
         <v>-0.43180464562239462</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3307,8 +4868,12 @@
       <c r="C32" s="4">
         <v>-0.48798693725215819</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3318,8 +4883,12 @@
       <c r="C33" s="4">
         <v>-0.53222453222453259</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -3329,10 +4898,14 @@
       <c r="C34" s="4">
         <v>-0.48288338435847461</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="4">
         <v>-0.53443874387320534</v>
@@ -3340,8 +4913,12 @@
       <c r="C35" s="4">
         <v>-0.50163322445170344</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -3351,8 +4928,12 @@
       <c r="C36" s="4">
         <v>-0.34999402664118029</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -3362,10 +4943,14 @@
       <c r="C37" s="4">
         <v>-0.535246939636978</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4">
         <v>-0.29401879663522962</v>
@@ -3373,8 +4958,12 @@
       <c r="C38" s="4">
         <v>-0.41191275167785218</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -3384,8 +4973,12 @@
       <c r="C39" s="4">
         <v>-0.43918918918918892</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -3395,8 +4988,12 @@
       <c r="C40" s="4">
         <v>-0.37798279073893359</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -3406,8 +5003,12 @@
       <c r="C41" s="4">
         <v>-0.41202822951825691</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3417,8 +5018,12 @@
       <c r="C42" s="4">
         <v>-0.41360079705732922</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -3428,10 +5033,14 @@
       <c r="C43" s="4">
         <v>-0.36008492569002082</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="4">
         <v>-0.25888119957975581</v>
@@ -3439,8 +5048,12 @@
       <c r="C44" s="4">
         <v>-0.40849147635895833</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -3450,10 +5063,14 @@
       <c r="C45" s="4">
         <v>-0.42525597269624582</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" s="4">
         <v>-0.39696069503655351</v>
@@ -3461,8 +5078,12 @@
       <c r="C46" s="4">
         <v>-0.43266045378206602</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -3472,8 +5093,12 @@
       <c r="C47" s="4">
         <v>-0.32740573524199962</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -3483,10 +5108,14 @@
       <c r="C48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" s="4">
         <v>-0.15355659225870261</v>
@@ -3494,370 +5123,414 @@
       <c r="C49" s="4">
         <v>-0.32634865673570612</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="4">
-        <v>0</v>
+        <v>-0.1132685360014859</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.33518287563972232</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="4">
-        <v>0</v>
+        <v>-0.48810567833844798</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.4979593984171245</v>
+      </c>
+      <c r="D51" t="str">
+        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B52" s="4">
-        <v>-0.1132685360014859</v>
+        <v>-0.27646380304782381</v>
       </c>
       <c r="C52" s="4">
-        <v>-0.33518287563972232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.36326073100507722</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B53" s="4">
-        <v>-0.48810567833844798</v>
+        <v>-0.18663577589687441</v>
       </c>
       <c r="C53" s="4">
-        <v>-0.4979593984171245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.35351274112884029</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" s="4">
-        <v>-0.27646380304782381</v>
+        <v>-0.4942339477290868</v>
       </c>
       <c r="C54" s="4">
-        <v>-0.36326073100507722</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.49436069524432691</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4">
-        <v>0</v>
+        <v>-0.1052533526537057</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.2301169574110489</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B56" s="4">
-        <v>-0.18663577589687441</v>
+        <v>-0.1938577852884367</v>
       </c>
       <c r="C56" s="4">
-        <v>-0.35351274112884029</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.36972126964762642</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B57" s="4">
-        <v>-0.4942339477290868</v>
+        <v>-0.35578505193732968</v>
       </c>
       <c r="C57" s="4">
-        <v>-0.49436069524432691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.43457943925233711</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" s="4">
-        <v>-0.1052533526537057</v>
+        <v>-0.25929414382090848</v>
       </c>
       <c r="C58" s="4">
-        <v>-0.2301169574110489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.44748156075550272</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B59" s="4">
-        <v>-0.1938577852884367</v>
+        <v>-0.1337764823513799</v>
       </c>
       <c r="C59" s="4">
-        <v>-0.36972126964762642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.22588846515226921</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B60" s="4">
-        <v>0</v>
+        <v>-0.24828839217713261</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.39528670326914678</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B61" s="4">
-        <v>0</v>
+        <v>-0.1531594038154685</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.32417738644932081</v>
+      </c>
+      <c r="D61" t="str">
+        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B62" s="4">
-        <v>0.35356664598954252</v>
+        <v>-0.20457781905554959</v>
       </c>
       <c r="C62" s="4">
-        <v>-0.1666666666666668</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.38204583880438969</v>
+      </c>
+      <c r="D62" t="str">
+        <f>IFERROR(VLOOKUP(A62,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>-0.35578505193732968</v>
+        <v>-0.17456505873064559</v>
       </c>
       <c r="C63" s="4">
-        <v>-0.43457943925233711</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.30065528094525579</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IFERROR(VLOOKUP(A63,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>-0.25929414382090848</v>
+        <v>-0.25377223479766858</v>
       </c>
       <c r="C64" s="4">
-        <v>-0.44748156075550272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.34240510022466669</v>
+      </c>
+      <c r="D64" t="str">
+        <f>IFERROR(VLOOKUP(A64,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B65" s="4">
-        <v>-0.1337764823513799</v>
+        <v>-0.4057175821597675</v>
       </c>
       <c r="C65" s="4">
-        <v>-0.22588846515226921</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.41175716395312312</v>
+      </c>
+      <c r="D65" t="str">
+        <f>IFERROR(VLOOKUP(A65,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B66" s="4">
-        <v>-0.24828839217713261</v>
+        <v>-0.21482944834067749</v>
       </c>
       <c r="C66" s="4">
-        <v>-0.39528670326914678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.34651997637187459</v>
+      </c>
+      <c r="D66" t="str">
+        <f>IFERROR(VLOOKUP(A66,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B67" s="4">
-        <v>-0.1531594038154685</v>
+        <v>-0.37261814395230269</v>
       </c>
       <c r="C67" s="4">
-        <v>-0.32417738644932081</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.39118411955339211</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IFERROR(VLOOKUP(A67,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B68" s="4">
-        <v>-0.20457781905554959</v>
+        <v>-0.26331652095384361</v>
       </c>
       <c r="C68" s="4">
-        <v>-0.38204583880438969</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.31495600579164279</v>
+      </c>
+      <c r="D68" t="str">
+        <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B69" s="4">
-        <v>-0.17456505873064559</v>
+        <v>-0.31089986033697747</v>
       </c>
       <c r="C69" s="4">
-        <v>-0.30065528094525579</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.40487382483918882</v>
+      </c>
+      <c r="D69" t="str">
+        <f>IFERROR(VLOOKUP(A69,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B70" s="4">
-        <v>-0.25377223479766858</v>
+        <v>-0.34137797464465991</v>
       </c>
       <c r="C70" s="4">
-        <v>-0.34240510022466669</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.39393457398865378</v>
+      </c>
+      <c r="D70" t="str">
+        <f>IFERROR(VLOOKUP(A70,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B71" s="4">
-        <v>-0.4057175821597675</v>
+        <v>-0.36497209630390659</v>
       </c>
       <c r="C71" s="4">
-        <v>-0.41175716395312312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>-0.40342934899939192</v>
+      </c>
+      <c r="D71" t="str">
+        <f>IFERROR(VLOOKUP(A71,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B72" s="4">
-        <v>-0.21482944834067749</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="C72" s="4">
-        <v>-0.34651997637187459</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>56</v>
+        <v>-0.06</v>
+      </c>
+      <c r="D72" t="str">
+        <f>IFERROR(VLOOKUP(A72,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B73" s="4">
-        <v>-0.37261814395230269</v>
+        <v>-8.2400000000000001E-2</v>
       </c>
       <c r="C73" s="4">
-        <v>-0.39118411955339211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>-0.1153</v>
+      </c>
+      <c r="D73" t="str">
+        <f>IFERROR(VLOOKUP(A73,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B74" s="4">
-        <v>-0.26331652095384361</v>
+        <v>-0.1537</v>
       </c>
       <c r="C74" s="4">
-        <v>-0.31495600579164279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>57</v>
+        <v>-0.2</v>
+      </c>
+      <c r="D74" t="str">
+        <f>IFERROR(VLOOKUP(A74,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B75" s="4">
-        <v>-0.31089986033697747</v>
+        <v>0.15</v>
       </c>
       <c r="C75" s="4">
-        <v>-0.40487382483918882</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="4">
-        <v>-0.34137797464465991</v>
-      </c>
-      <c r="C76" s="4">
-        <v>-0.39393457398865378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="4">
-        <v>-0.36497209630390659</v>
-      </c>
-      <c r="C77" s="4">
-        <v>-0.40342934899939192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="4">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="C78" s="4">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="4">
-        <v>-8.2400000000000001E-2</v>
-      </c>
-      <c r="C79" s="4">
-        <v>-0.1153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="4">
-        <v>-0.1537</v>
-      </c>
-      <c r="C80" s="4">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="C81" s="4">
         <v>-0.18</v>
+      </c>
+      <c r="D75" t="str">
+        <f>IFERROR(VLOOKUP(A75,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:C82"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D43" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3865,17 +5538,21 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3885,8 +5562,12 @@
       <c r="C2" s="4">
         <v>-0.25944781672214551</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +5577,12 @@
       <c r="C3" s="4">
         <v>-0.13832537046022919</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3907,8 +5592,12 @@
       <c r="C4" s="4">
         <v>-0.16024104636033759</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3918,8 +5607,12 @@
       <c r="C5" s="4">
         <v>-0.2356020942408375</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3929,8 +5622,12 @@
       <c r="C6" s="4">
         <v>-0.14738189186306919</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3940,8 +5637,12 @@
       <c r="C7" s="4">
         <v>-0.18698060941828229</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3951,8 +5652,12 @@
       <c r="C8" s="4">
         <v>-0.17671868409953601</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3962,8 +5667,12 @@
       <c r="C9" s="4">
         <v>-0.14733143967708209</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3973,8 +5682,12 @@
       <c r="C10" s="4">
         <v>-0.1394029772036785</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3984,8 +5697,12 @@
       <c r="C11" s="4">
         <v>-0.18068331143232569</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -3995,8 +5712,12 @@
       <c r="C12" s="4">
         <v>-0.16016521340064291</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4006,8 +5727,12 @@
       <c r="C13" s="4">
         <v>-0.26344252163164428</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -4017,10 +5742,14 @@
       <c r="C14" s="4">
         <v>-0.19218409104310369</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4">
         <v>6.6649350727567572E-2</v>
@@ -4028,8 +5757,12 @@
       <c r="C15" s="4">
         <v>-0.21240199572345009</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4039,8 +5772,12 @@
       <c r="C16" s="4">
         <v>-0.2378269617706241</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4050,8 +5787,12 @@
       <c r="C17" s="4">
         <v>-0.21852941983495389</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -4061,10 +5802,14 @@
       <c r="C18" s="4">
         <v>-0.24083150245056631</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4">
         <v>0.1039648705512735</v>
@@ -4072,8 +5817,12 @@
       <c r="C19" s="4">
         <v>-0.17998506348020921</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -4083,8 +5832,12 @@
       <c r="C20" s="4">
         <v>-0.18375634517766451</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -4094,10 +5847,14 @@
       <c r="C21" s="4">
         <v>-0.17093090488580559</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4">
         <v>9.4172660360170662E-2</v>
@@ -4105,8 +5862,12 @@
       <c r="C22" s="4">
         <v>-0.24762513604615499</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -4116,10 +5877,14 @@
       <c r="C23" s="4">
         <v>-0.16553688967482069</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4">
         <v>0.12676358122081821</v>
@@ -4127,10 +5892,14 @@
       <c r="C24" s="4">
         <v>-0.17767106842737071</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4">
         <v>0.26202197098631158</v>
@@ -4138,8 +5907,12 @@
       <c r="C25" s="4">
         <v>-0.15272909364046031</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -4149,8 +5922,12 @@
       <c r="C26" s="4">
         <v>-0.17097236055776879</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -4160,8 +5937,12 @@
       <c r="C27" s="4">
         <v>-0.16833590921706951</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -4171,8 +5952,12 @@
       <c r="C28" s="4">
         <v>-0.16758994949653391</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4182,10 +5967,14 @@
       <c r="C29" s="4">
         <v>-0.16216851423870851</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4">
         <v>0.1124373526472487</v>
@@ -4193,10 +5982,14 @@
       <c r="C30" s="4">
         <v>-0.17052485227667699</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="4">
         <v>0.14069078295997009</v>
@@ -4204,10 +5997,14 @@
       <c r="C31" s="4">
         <v>-0.1671863536316939</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="4">
         <v>0.1151740939157176</v>
@@ -4215,8 +6012,12 @@
       <c r="C32" s="4">
         <v>-0.17491289198606261</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -4226,8 +6027,12 @@
       <c r="C33" s="4">
         <v>-0.2356020942408375</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -4237,8 +6042,12 @@
       <c r="C34" s="4">
         <v>-0.25893958076448881</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -4248,10 +6057,14 @@
       <c r="C35" s="4">
         <v>-0.20352781546811399</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="4">
         <v>1.9718305731797739E-2</v>
@@ -4259,8 +6072,12 @@
       <c r="C36" s="4">
         <v>-0.24915635545556769</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -4270,8 +6087,12 @@
       <c r="C37" s="4">
         <v>-0.14070709769347181</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -4281,10 +6102,14 @@
       <c r="C38" s="4">
         <v>-0.2142142142142141</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="4">
         <v>0.1212761107823899</v>
@@ -4292,8 +6117,12 @@
       <c r="C39" s="4">
         <v>-0.1901815736381974</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -4303,8 +6132,12 @@
       <c r="C40" s="4">
         <v>-0.1935986404192038</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -4314,8 +6147,12 @@
       <c r="C41" s="4">
         <v>-0.20699995084304171</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -4325,8 +6162,12 @@
       <c r="C42" s="4">
         <v>-0.19481568512263239</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -4336,8 +6177,12 @@
       <c r="C43" s="4">
         <v>-0.1991037034790257</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -4347,10 +6192,14 @@
       <c r="C44" s="4">
         <v>-0.16861598440545841</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="4">
         <v>0.1039648705512735</v>
@@ -4358,8 +6207,12 @@
       <c r="C45" s="4">
         <v>-0.17998506348020921</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
@@ -4369,10 +6222,14 @@
       <c r="C46" s="4">
         <v>-0.18396624472573861</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="4">
         <v>0.1025225801290872</v>
@@ -4380,8 +6237,12 @@
       <c r="C47" s="4">
         <v>-0.16190974493132729</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -4391,8 +6252,12 @@
       <c r="C48" s="4">
         <v>-0.15910654274008071</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -4402,10 +6267,14 @@
       <c r="C49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" s="4">
         <v>0.12260486888838081</v>
@@ -4413,357 +6282,399 @@
       <c r="C50" s="4">
         <v>-0.13866017574294989</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="4">
-        <v>0</v>
+        <v>0.22326734168845261</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1548814748168412</v>
+      </c>
+      <c r="D51" t="str">
+        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="4">
-        <v>0</v>
+        <v>7.4059396907767763E-2</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1836521958872526</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B53" s="4">
-        <v>0.22326734168845261</v>
+        <v>0.1088980948122385</v>
       </c>
       <c r="C53" s="4">
-        <v>-0.1548814748168412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1845664298126708</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B54" s="4">
-        <v>7.4059396907767763E-2</v>
+        <v>0.2100108792634483</v>
       </c>
       <c r="C54" s="4">
-        <v>-0.1836521958872526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.15962110142590841</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B55" s="4">
-        <v>0.1088980948122385</v>
+        <v>6.0828871703162819E-2</v>
       </c>
       <c r="C55" s="4">
-        <v>-0.1845664298126708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.18632305568338681</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4">
-        <v>0</v>
+        <v>0.16007771114175651</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.11178540602941869</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B57" s="4">
-        <v>0.2100108792634483</v>
+        <v>0.28414554396583969</v>
       </c>
       <c r="C57" s="4">
-        <v>-0.15962110142590841</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1265899454875834</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B58" s="4">
-        <v>6.0828871703162819E-2</v>
+        <v>0.13109378292231891</v>
       </c>
       <c r="C58" s="4">
-        <v>-0.18632305568338681</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1611650485436891</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="4">
-        <v>0.16007771114175651</v>
+        <v>0.22822734641843079</v>
       </c>
       <c r="C59" s="4">
-        <v>-0.11178540602941869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1740365651871377</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B60" s="4">
-        <v>0.28414554396583969</v>
+        <v>0.1390070922939951</v>
       </c>
       <c r="C60" s="4">
-        <v>-0.1265899454875834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1136040088833212</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B61" s="4">
-        <v>0</v>
+        <v>0.24928702380909579</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.15995964424315429</v>
+      </c>
+      <c r="D61" t="str">
+        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B62" s="4">
-        <v>0</v>
+        <v>0.17122193992054191</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.17320647020235469</v>
+      </c>
+      <c r="D62" t="str">
+        <f>IFERROR(VLOOKUP(A62,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B63" s="4">
-        <v>-0.13596079065494729</v>
+        <v>0.16367506535648041</v>
       </c>
       <c r="C63" s="4">
-        <v>-0.2232142857142857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1467476649382374</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IFERROR(VLOOKUP(A63,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B64" s="4">
-        <v>0.13109378292231891</v>
+        <v>0.13484304361500279</v>
       </c>
       <c r="C64" s="4">
-        <v>-0.1611650485436891</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.12083028338387571</v>
+      </c>
+      <c r="D64" t="str">
+        <f>IFERROR(VLOOKUP(A64,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4">
-        <v>0.22822734641843079</v>
+        <v>0.13110557708422699</v>
       </c>
       <c r="C65" s="4">
-        <v>-0.1740365651871377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.17649426203379001</v>
+      </c>
+      <c r="D65" t="str">
+        <f>IFERROR(VLOOKUP(A65,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B66" s="4">
-        <v>0.1390070922939951</v>
+        <v>0.23231008511161519</v>
       </c>
       <c r="C66" s="4">
-        <v>-0.1136040088833212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.19910370347902559</v>
+      </c>
+      <c r="D66" t="str">
+        <f>IFERROR(VLOOKUP(A66,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B67" s="4">
-        <v>0.24928702380909579</v>
+        <v>7.4674700439135433E-2</v>
       </c>
       <c r="C67" s="4">
-        <v>-0.15995964424315429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1355558168526676</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IFERROR(VLOOKUP(A67,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" s="4">
-        <v>0.17122193992054191</v>
+        <v>0.19454687071426849</v>
       </c>
       <c r="C68" s="4">
-        <v>-0.17320647020235469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.17690677646562031</v>
+      </c>
+      <c r="D68" t="str">
+        <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B69" s="4">
-        <v>0.16367506535648041</v>
+        <v>0.12465018378290681</v>
       </c>
       <c r="C69" s="4">
-        <v>-0.1467476649382374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1229192110749016</v>
+      </c>
+      <c r="D69" t="str">
+        <f>IFERROR(VLOOKUP(A69,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B70" s="4">
-        <v>0.13484304361500279</v>
+        <v>0.18070200835777631</v>
       </c>
       <c r="C70" s="4">
-        <v>-0.12083028338387571</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.13374297921367201</v>
+      </c>
+      <c r="D70" t="str">
+        <f>IFERROR(VLOOKUP(A70,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4">
-        <v>0.13110557708422699</v>
+        <v>0.15020305485583069</v>
       </c>
       <c r="C71" s="4">
-        <v>-0.17649426203379001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1525894152526335</v>
+      </c>
+      <c r="D71" t="str">
+        <f>IFERROR(VLOOKUP(A71,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B72" s="4">
-        <v>0.23231008511161519</v>
+        <v>9.2483408522314042E-2</v>
       </c>
       <c r="C72" s="4">
-        <v>-0.19910370347902559</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>55</v>
+        <v>-0.1744761140104378</v>
+      </c>
+      <c r="D72" t="str">
+        <f>IFERROR(VLOOKUP(A72,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B73" s="4">
-        <v>7.4674700439135433E-2</v>
+        <v>0.187</v>
       </c>
       <c r="C73" s="4">
-        <v>-0.1355558168526676</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>-0.02</v>
+      </c>
+      <c r="D73" t="str">
+        <f>IFERROR(VLOOKUP(A73,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B74" s="4">
-        <v>0.19454687071426849</v>
+        <v>0.21820000000000001</v>
       </c>
       <c r="C74" s="4">
-        <v>-0.17690677646562031</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>-6.7100000000000007E-2</v>
+      </c>
+      <c r="D74" t="str">
+        <f>IFERROR(VLOOKUP(A74,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B75" s="4">
-        <v>0.12465018378290681</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="C75" s="4">
-        <v>-0.1229192110749016</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>-8.2400000000000001E-2</v>
+      </c>
+      <c r="D75" t="str">
+        <f>IFERROR(VLOOKUP(A75,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B76" s="4">
-        <v>0.18070200835777631</v>
+        <v>0.15</v>
       </c>
       <c r="C76" s="4">
-        <v>-0.13374297921367201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="4">
-        <v>0.15020305485583069</v>
-      </c>
-      <c r="C77" s="4">
-        <v>-0.1525894152526335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="4">
-        <v>9.2483408522314042E-2</v>
-      </c>
-      <c r="C78" s="4">
-        <v>-0.1744761140104378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="4">
-        <v>0.187</v>
-      </c>
-      <c r="C79" s="4">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="4">
-        <v>0.21820000000000001</v>
-      </c>
-      <c r="C80" s="4">
-        <v>-6.7100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0.35759999999999997</v>
-      </c>
-      <c r="C81" s="4">
-        <v>-8.2400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="C82" s="4">
         <v>-0.18</v>
+      </c>
+      <c r="D76" t="str">
+        <f>IFERROR(VLOOKUP(A76,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
       </c>
     </row>
   </sheetData>
@@ -4773,10 +6684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,17 +6695,21 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4804,8 +6719,12 @@
       <c r="C2" s="4">
         <v>-0.18057553956834549</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +6734,12 @@
       <c r="C3" s="4">
         <v>-3.804046213611826E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4826,8 +6749,12 @@
       <c r="C4" s="4">
         <v>-9.8870056497175229E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4837,8 +6764,12 @@
       <c r="C5" s="4">
         <v>-0.19209456963428109</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -4848,8 +6779,12 @@
       <c r="C6" s="4">
         <v>-0.12767724300197211</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -4859,8 +6794,12 @@
       <c r="C7" s="4">
         <v>-9.7595473833097399E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4870,8 +6809,12 @@
       <c r="C8" s="4">
         <v>-0.11193737769080191</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4881,8 +6824,12 @@
       <c r="C9" s="4">
         <v>-0.12764641687886469</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4892,8 +6839,12 @@
       <c r="C10" s="4">
         <v>-3.8842204629559833E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4903,8 +6854,12 @@
       <c r="C11" s="4">
         <v>-0.1151477832512313</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -4914,8 +6869,12 @@
       <c r="C12" s="4">
         <v>-8.4182543198936394E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4925,8 +6884,12 @@
       <c r="C13" s="4">
         <v>-0.17903556771545859</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -4936,10 +6899,14 @@
       <c r="C14" s="4">
         <v>-0.1215993262506805</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4">
         <v>2.322385819444427E-3</v>
@@ -4947,8 +6914,12 @@
       <c r="C15" s="4">
         <v>-0.1252918287937759</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4958,8 +6929,12 @@
       <c r="C16" s="4">
         <v>-0.1706401766004417</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4969,8 +6944,12 @@
       <c r="C17" s="4">
         <v>-0.1493354938644692</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -4980,10 +6959,14 @@
       <c r="C18" s="4">
         <v>-0.19027287915351729</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4">
         <v>6.2573967623263047E-2</v>
@@ -4991,8 +6974,12 @@
       <c r="C19" s="4">
         <v>-0.12061403508771899</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -5002,8 +6989,12 @@
       <c r="C20" s="4">
         <v>-0.1017119838872102</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -5013,10 +7004,14 @@
       <c r="C21" s="4">
         <v>-0.1044978259319978</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4">
         <v>-4.2738722401463147E-2</v>
@@ -5024,8 +7019,12 @@
       <c r="C22" s="4">
         <v>-0.16201489611916839</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -5035,10 +7034,14 @@
       <c r="C23" s="4">
         <v>-6.1389783709157798E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4">
         <v>0.19633646869200561</v>
@@ -5046,10 +7049,14 @@
       <c r="C24" s="4">
         <v>-8.4490740740740616E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="str">
+        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4">
         <v>0.17018174115397569</v>
@@ -5057,8 +7064,12 @@
       <c r="C25" s="4">
         <v>-9.4313453536754827E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="str">
+        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -5068,10 +7079,14 @@
       <c r="C26" s="4">
         <v>-0.1296652155380236</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4">
         <v>4.7030919717570382E-2</v>
@@ -5079,8 +7094,12 @@
       <c r="C27" s="4">
         <v>-0.1236268683594454</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -5090,8 +7109,12 @@
       <c r="C28" s="4">
         <v>-0.1078413696625684</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -5101,8 +7124,12 @@
       <c r="C29" s="4">
         <v>-9.9699866476030671E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="str">
+        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -5112,10 +7139,14 @@
       <c r="C30" s="4">
         <v>-0.16254055579066159</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="str">
+        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" s="4">
         <v>8.5526774574108747E-2</v>
@@ -5123,10 +7154,14 @@
       <c r="C31" s="4">
         <v>-0.12700559414766091</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="str">
+        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B32" s="4">
         <v>0.1122855131982699</v>
@@ -5134,10 +7169,14 @@
       <c r="C32" s="4">
         <v>-0.12126888217522661</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="str">
+        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="4">
         <v>6.7116099735199136E-2</v>
@@ -5145,10 +7184,14 @@
       <c r="C33" s="4">
         <v>-0.1043847048361722</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="str">
+        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4">
         <v>9.4798246833276159E-2</v>
@@ -5156,10 +7199,14 @@
       <c r="C34" s="4">
         <v>-0.1007015362756417</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="str">
+        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B35" s="4">
         <v>-8.8798708688729328E-2</v>
@@ -5167,10 +7214,14 @@
       <c r="C35" s="4">
         <v>-0.18403115871470321</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="4">
         <v>0.1143438821890637</v>
@@ -5178,8 +7229,12 @@
       <c r="C36" s="4">
         <v>-0.12903225806451599</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -5189,8 +7244,12 @@
       <c r="C37" s="4">
         <v>-0.19209456963428109</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -5200,8 +7259,12 @@
       <c r="C38" s="4">
         <v>-0.16747070985527071</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -5211,10 +7274,14 @@
       <c r="C39" s="4">
         <v>-0.12689699709396221</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" s="4">
         <v>-7.1421917861149195E-2</v>
@@ -5222,8 +7289,12 @@
       <c r="C40" s="4">
         <v>-0.15731370745170181</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -5233,8 +7304,12 @@
       <c r="C41" s="4">
         <v>-0.16538406613458609</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -5244,10 +7319,14 @@
       <c r="C42" s="4">
         <v>-9.3314093314093197E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4">
         <v>0.1174215503112339</v>
@@ -5255,8 +7334,12 @@
       <c r="C43" s="4">
         <v>-0.12298827736936239</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -5266,8 +7349,12 @@
       <c r="C44" s="4">
         <v>-0.18340121353170991</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -5277,8 +7364,12 @@
       <c r="C45" s="4">
         <v>-0.1347453160189756</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
@@ -5288,8 +7379,12 @@
       <c r="C46" s="4">
         <v>-0.1124412141941003</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
@@ -5299,10 +7394,14 @@
       <c r="C47" s="4">
         <v>-0.1090106019599611</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B48" s="4">
         <v>-0.14746549823158739</v>
@@ -5310,8 +7409,12 @@
       <c r="C48" s="4">
         <v>-0.1724137931034487</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -5321,10 +7424,14 @@
       <c r="C49" s="4">
         <v>-9.8720292504570581E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" s="4">
         <v>6.2573967623263047E-2</v>
@@ -5332,8 +7439,12 @@
       <c r="C50" s="4">
         <v>-0.12061403508771899</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -5343,10 +7454,14 @@
       <c r="C51" s="4">
         <v>-0.10134003350083751</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4">
         <v>3.7179188102452451E-2</v>
@@ -5354,8 +7469,12 @@
       <c r="C52" s="4">
         <v>-0.13658851005767561</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
@@ -5365,401 +7484,459 @@
       <c r="C53" s="4">
         <v>-0.17664698894126679</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B54" s="4">
-        <v>0</v>
+        <v>0.26728723169230961</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-7.6441977588037016E-2</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B55" s="4">
-        <v>0.26728723169230961</v>
+        <v>0.1842619554455911</v>
       </c>
       <c r="C55" s="4">
-        <v>-7.6441977588037016E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.17333686296892351</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B56" s="4">
-        <v>0</v>
+        <v>0.1458802048712218</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.104404065291038</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B57" s="4">
-        <v>0</v>
+        <v>0.1001678010842614</v>
       </c>
       <c r="C57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1457111919696413</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B58" s="4">
-        <v>0.1842619554455911</v>
+        <v>8.7028456160851947E-2</v>
       </c>
       <c r="C58" s="4">
-        <v>-0.17333686296892351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.1112807624400963</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.20315049534577009</v>
+      </c>
+      <c r="C60" s="4">
+        <v>-0.17154670491941601</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="4">
+        <v>8.9848777179408784E-2</v>
+      </c>
+      <c r="C61" s="4">
+        <v>-0.1464756950425464</v>
+      </c>
+      <c r="D61" t="str">
+        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.18005621459453439</v>
+      </c>
+      <c r="C62" s="4">
+        <v>-5.8673803550686909E-2</v>
+      </c>
+      <c r="D62" t="str">
+        <f>IFERROR(VLOOKUP(A62,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.21712317909528681</v>
+      </c>
+      <c r="C63" s="4">
+        <v>-8.9128954803471425E-2</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IFERROR(VLOOKUP(A63,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="4">
+        <v>5.0281044229021611E-2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>-0.1130434782608698</v>
+      </c>
+      <c r="D64" t="str">
+        <f>IFERROR(VLOOKUP(A64,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Closed End fund</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.1901343775486832</v>
+      </c>
+      <c r="C65" s="4">
+        <v>-7.4074074074073903E-2</v>
+      </c>
+      <c r="D65" t="str">
+        <f>IFERROR(VLOOKUP(A65,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>ETF</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.29718212479593659</v>
+      </c>
+      <c r="C66" s="4">
+        <v>-8.3190279815420431E-2</v>
+      </c>
+      <c r="D66" t="str">
+        <f>IFERROR(VLOOKUP(A66,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.21950523787612361</v>
+      </c>
+      <c r="C67" s="4">
+        <v>-7.315347608716187E-2</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IFERROR(VLOOKUP(A67,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.20664464373462171</v>
+      </c>
+      <c r="C68" s="4">
+        <v>-0.10151388778667129</v>
+      </c>
+      <c r="D68" t="str">
+        <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.23398370377660399</v>
+      </c>
+      <c r="C69" s="4">
+        <v>-8.2990356669653792E-2</v>
+      </c>
+      <c r="D69" t="str">
+        <f>IFERROR(VLOOKUP(A69,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.22498555864495171</v>
+      </c>
+      <c r="C70" s="4">
+        <v>-0.10036131287239709</v>
+      </c>
+      <c r="D70" t="str">
+        <f>IFERROR(VLOOKUP(A70,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.1842684007059309</v>
+      </c>
+      <c r="C71" s="4">
+        <v>-7.4767677720646672E-2</v>
+      </c>
+      <c r="D71" t="str">
+        <f>IFERROR(VLOOKUP(A71,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.21763590095925861</v>
+      </c>
+      <c r="C72" s="4">
+        <v>-9.9857273034681074E-2</v>
+      </c>
+      <c r="D72" t="str">
+        <f>IFERROR(VLOOKUP(A72,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.23042247286771031</v>
+      </c>
+      <c r="C73" s="4">
+        <v>-0.1090106019599614</v>
+      </c>
+      <c r="D73" t="str">
+        <f>IFERROR(VLOOKUP(A73,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.14501873618901551</v>
+      </c>
+      <c r="C74" s="4">
+        <v>-8.4957886444129355E-2</v>
+      </c>
+      <c r="D74" t="str">
+        <f>IFERROR(VLOOKUP(A74,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.12063269101548001</v>
+      </c>
+      <c r="C75" s="4">
+        <v>-0.1187890108642469</v>
+      </c>
+      <c r="D75" t="str">
+        <f>IFERROR(VLOOKUP(A75,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.1324111328142388</v>
+      </c>
+      <c r="C76" s="4">
+        <v>-8.6538572437098574E-2</v>
+      </c>
+      <c r="D76" t="str">
+        <f>IFERROR(VLOOKUP(A76,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.16414382158862029</v>
+      </c>
+      <c r="C77" s="4">
+        <v>-5.8421029838465151E-2</v>
+      </c>
+      <c r="D77" t="str">
+        <f>IFERROR(VLOOKUP(A77,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.17812619658940321</v>
+      </c>
+      <c r="C78" s="4">
+        <v>-8.6437181018568982E-2</v>
+      </c>
+      <c r="D78" t="str">
+        <f>IFERROR(VLOOKUP(A78,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0.119894015148787</v>
+      </c>
+      <c r="C79" s="4">
+        <v>-8.9390627664356778E-2</v>
+      </c>
+      <c r="D79" t="str">
+        <f>IFERROR(VLOOKUP(A79,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.1986</v>
+      </c>
+      <c r="C80" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="D80" t="str">
+        <f>IFERROR(VLOOKUP(A80,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="C81" s="4">
+        <v>-9.8699999999999996E-2</v>
+      </c>
+      <c r="D81" t="str">
+        <f>IFERROR(VLOOKUP(A81,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.1502</v>
+      </c>
+      <c r="C82" s="4">
+        <v>-9.7500000000000003E-2</v>
+      </c>
+      <c r="D82" t="str">
+        <f>IFERROR(VLOOKUP(A82,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="4">
-        <v>0.1458802048712218</v>
-      </c>
-      <c r="C59" s="4">
-        <v>-0.104404065291038</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="4">
-        <v>0.1001678010842614</v>
-      </c>
-      <c r="C60" s="4">
-        <v>-0.1457111919696413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="4">
-        <v>8.7028456160851947E-2</v>
-      </c>
-      <c r="C61" s="4">
-        <v>-0.1112807624400963</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0.20315049534577009</v>
-      </c>
-      <c r="C63" s="4">
-        <v>-0.17154670491941601</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="4">
-        <v>8.9848777179408784E-2</v>
-      </c>
-      <c r="C64" s="4">
-        <v>-0.1464756950425464</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0.18005621459453439</v>
-      </c>
-      <c r="C65" s="4">
-        <v>-5.8673803550686909E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0.21712317909528681</v>
-      </c>
-      <c r="C66" s="4">
-        <v>-8.9128954803471425E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="4">
-        <v>5.0281044229021611E-2</v>
-      </c>
-      <c r="C67" s="4">
-        <v>-0.1130434782608698</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="4">
-        <v>0</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0.1074586994983666</v>
-      </c>
-      <c r="C70" s="4">
-        <v>-0.22068965517241379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0.1901343775486832</v>
-      </c>
-      <c r="C71" s="4">
-        <v>-7.4074074074073903E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="4">
-        <v>0.29718212479593659</v>
-      </c>
-      <c r="C72" s="4">
-        <v>-8.3190279815420431E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0.21950523787612361</v>
-      </c>
-      <c r="C73" s="4">
-        <v>-7.315347608716187E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="4">
-        <v>0.20664464373462171</v>
-      </c>
-      <c r="C74" s="4">
-        <v>-0.10151388778667129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="4">
-        <v>0.23398370377660399</v>
-      </c>
-      <c r="C75" s="4">
-        <v>-8.2990356669653792E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="4">
-        <v>0.22498555864495171</v>
-      </c>
-      <c r="C76" s="4">
-        <v>-0.10036131287239709</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="4">
-        <v>0.1842684007059309</v>
-      </c>
-      <c r="C77" s="4">
-        <v>-7.4767677720646672E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="4">
-        <v>0.21763590095925861</v>
-      </c>
-      <c r="C78" s="4">
-        <v>-9.9857273034681074E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="4">
-        <v>0.23042247286771031</v>
-      </c>
-      <c r="C79" s="4">
-        <v>-0.1090106019599614</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="4">
-        <v>0.14501873618901551</v>
-      </c>
-      <c r="C80" s="4">
-        <v>-8.4957886444129355E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0.12063269101548001</v>
-      </c>
-      <c r="C81" s="4">
-        <v>-0.1187890108642469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="4">
-        <v>0.1324111328142388</v>
-      </c>
-      <c r="C82" s="4">
-        <v>-8.6538572437098574E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="B83" s="4">
-        <v>0.16414382158862029</v>
+        <v>0.15</v>
       </c>
       <c r="C83" s="4">
-        <v>-5.8421029838465151E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0.17812619658940321</v>
-      </c>
-      <c r="C84" s="4">
-        <v>-8.6437181018568982E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="4">
-        <v>0.119894015148787</v>
-      </c>
-      <c r="C85" s="4">
-        <v>-8.9390627664356778E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="4">
-        <v>0.1986</v>
-      </c>
-      <c r="C86" s="4">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.17680000000000001</v>
-      </c>
-      <c r="C87" s="4">
-        <v>-9.8699999999999996E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="4">
-        <v>0.1502</v>
-      </c>
-      <c r="C88" s="4">
-        <v>-9.7500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="C89" s="4">
         <v>-0.18</v>
+      </c>
+      <c r="D83" t="str">
+        <f>IFERROR(VLOOKUP(A83,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
+        <v>Open ended Fund</v>
       </c>
     </row>
   </sheetData>

--- a/yearly_metric.xlsx
+++ b/yearly_metric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyThon\ALPHA FACTORY\BACKTEST TRADING STRAT\Son_MARKET_REGIME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CCF47-C815-4D52-A418-670B1E29986A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3779FB-C0F4-49F6-B3BB-BDCE9905A385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="93">
   <si>
     <t>Annual Return</t>
   </si>
@@ -293,6 +293,21 @@
   <si>
     <t>Type</t>
   </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>Open ended Fund</t>
+  </si>
+  <si>
+    <t>Closed End fund</t>
+  </si>
+  <si>
+    <t>VNINDEX</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
 </sst>
 </file>
 
@@ -1249,6 +1264,2763 @@
           <cell r="C76" t="str">
             <v>ETF</v>
           </cell>
+        </row>
+        <row r="77">
+          <cell r="A77"/>
+        </row>
+        <row r="78">
+          <cell r="A78"/>
+        </row>
+        <row r="79">
+          <cell r="A79"/>
+        </row>
+        <row r="80">
+          <cell r="A80"/>
+        </row>
+        <row r="81">
+          <cell r="A81"/>
+        </row>
+        <row r="82">
+          <cell r="A82"/>
+        </row>
+        <row r="83">
+          <cell r="A83"/>
+        </row>
+        <row r="84">
+          <cell r="A84"/>
+        </row>
+        <row r="85">
+          <cell r="A85"/>
+        </row>
+        <row r="86">
+          <cell r="A86"/>
+        </row>
+        <row r="87">
+          <cell r="A87"/>
+        </row>
+        <row r="88">
+          <cell r="A88"/>
+        </row>
+        <row r="89">
+          <cell r="A89"/>
+        </row>
+        <row r="90">
+          <cell r="A90"/>
+        </row>
+        <row r="91">
+          <cell r="A91"/>
+        </row>
+        <row r="92">
+          <cell r="A92"/>
+        </row>
+        <row r="93">
+          <cell r="A93"/>
+        </row>
+        <row r="94">
+          <cell r="A94"/>
+        </row>
+        <row r="95">
+          <cell r="A95"/>
+        </row>
+        <row r="96">
+          <cell r="A96"/>
+        </row>
+        <row r="97">
+          <cell r="A97"/>
+        </row>
+        <row r="98">
+          <cell r="A98"/>
+        </row>
+        <row r="99">
+          <cell r="A99"/>
+        </row>
+        <row r="100">
+          <cell r="A100"/>
+        </row>
+        <row r="101">
+          <cell r="A101"/>
+        </row>
+        <row r="102">
+          <cell r="A102"/>
+        </row>
+        <row r="103">
+          <cell r="A103"/>
+        </row>
+        <row r="104">
+          <cell r="A104"/>
+        </row>
+        <row r="105">
+          <cell r="A105"/>
+        </row>
+        <row r="106">
+          <cell r="A106"/>
+        </row>
+        <row r="107">
+          <cell r="A107"/>
+        </row>
+        <row r="108">
+          <cell r="A108"/>
+        </row>
+        <row r="109">
+          <cell r="A109"/>
+        </row>
+        <row r="110">
+          <cell r="A110"/>
+        </row>
+        <row r="111">
+          <cell r="A111"/>
+        </row>
+        <row r="112">
+          <cell r="A112"/>
+        </row>
+        <row r="113">
+          <cell r="A113"/>
+        </row>
+        <row r="114">
+          <cell r="A114"/>
+        </row>
+        <row r="115">
+          <cell r="A115"/>
+        </row>
+        <row r="116">
+          <cell r="A116"/>
+        </row>
+        <row r="117">
+          <cell r="A117"/>
+        </row>
+        <row r="118">
+          <cell r="A118"/>
+        </row>
+        <row r="119">
+          <cell r="A119"/>
+        </row>
+        <row r="120">
+          <cell r="A120"/>
+        </row>
+        <row r="121">
+          <cell r="A121"/>
+        </row>
+        <row r="122">
+          <cell r="A122"/>
+        </row>
+        <row r="123">
+          <cell r="A123"/>
+        </row>
+        <row r="124">
+          <cell r="A124"/>
+        </row>
+        <row r="125">
+          <cell r="A125"/>
+        </row>
+        <row r="126">
+          <cell r="A126"/>
+        </row>
+        <row r="127">
+          <cell r="A127"/>
+        </row>
+        <row r="128">
+          <cell r="A128"/>
+        </row>
+        <row r="129">
+          <cell r="A129"/>
+        </row>
+        <row r="130">
+          <cell r="A130"/>
+        </row>
+        <row r="131">
+          <cell r="A131"/>
+        </row>
+        <row r="132">
+          <cell r="A132"/>
+        </row>
+        <row r="133">
+          <cell r="A133"/>
+        </row>
+        <row r="134">
+          <cell r="A134"/>
+        </row>
+        <row r="135">
+          <cell r="A135"/>
+        </row>
+        <row r="136">
+          <cell r="A136"/>
+        </row>
+        <row r="137">
+          <cell r="A137"/>
+        </row>
+        <row r="138">
+          <cell r="A138"/>
+        </row>
+        <row r="139">
+          <cell r="A139"/>
+        </row>
+        <row r="140">
+          <cell r="A140"/>
+        </row>
+        <row r="141">
+          <cell r="A141"/>
+        </row>
+        <row r="142">
+          <cell r="A142"/>
+        </row>
+        <row r="143">
+          <cell r="A143"/>
+        </row>
+        <row r="144">
+          <cell r="A144"/>
+        </row>
+        <row r="145">
+          <cell r="A145"/>
+        </row>
+        <row r="146">
+          <cell r="A146"/>
+        </row>
+        <row r="147">
+          <cell r="A147"/>
+        </row>
+        <row r="148">
+          <cell r="A148"/>
+        </row>
+        <row r="149">
+          <cell r="A149"/>
+        </row>
+        <row r="150">
+          <cell r="A150"/>
+        </row>
+        <row r="151">
+          <cell r="A151"/>
+        </row>
+        <row r="152">
+          <cell r="A152"/>
+        </row>
+        <row r="153">
+          <cell r="A153"/>
+        </row>
+        <row r="154">
+          <cell r="A154"/>
+        </row>
+        <row r="155">
+          <cell r="A155"/>
+        </row>
+        <row r="156">
+          <cell r="A156"/>
+        </row>
+        <row r="157">
+          <cell r="A157"/>
+        </row>
+        <row r="158">
+          <cell r="A158"/>
+        </row>
+        <row r="159">
+          <cell r="A159"/>
+        </row>
+        <row r="160">
+          <cell r="A160"/>
+        </row>
+        <row r="161">
+          <cell r="A161"/>
+        </row>
+        <row r="162">
+          <cell r="A162"/>
+        </row>
+        <row r="163">
+          <cell r="A163"/>
+        </row>
+        <row r="164">
+          <cell r="A164"/>
+        </row>
+        <row r="165">
+          <cell r="A165"/>
+        </row>
+        <row r="166">
+          <cell r="A166"/>
+        </row>
+        <row r="167">
+          <cell r="A167"/>
+        </row>
+        <row r="168">
+          <cell r="A168"/>
+        </row>
+        <row r="169">
+          <cell r="A169"/>
+        </row>
+        <row r="170">
+          <cell r="A170"/>
+        </row>
+        <row r="171">
+          <cell r="A171"/>
+        </row>
+        <row r="172">
+          <cell r="A172"/>
+        </row>
+        <row r="173">
+          <cell r="A173"/>
+        </row>
+        <row r="174">
+          <cell r="A174"/>
+        </row>
+        <row r="175">
+          <cell r="A175"/>
+        </row>
+        <row r="176">
+          <cell r="A176"/>
+        </row>
+        <row r="177">
+          <cell r="A177"/>
+        </row>
+        <row r="178">
+          <cell r="A178"/>
+        </row>
+        <row r="179">
+          <cell r="A179"/>
+        </row>
+        <row r="180">
+          <cell r="A180"/>
+        </row>
+        <row r="181">
+          <cell r="A181"/>
+        </row>
+        <row r="182">
+          <cell r="A182"/>
+        </row>
+        <row r="183">
+          <cell r="A183"/>
+        </row>
+        <row r="184">
+          <cell r="A184"/>
+        </row>
+        <row r="185">
+          <cell r="A185"/>
+        </row>
+        <row r="186">
+          <cell r="A186"/>
+        </row>
+        <row r="187">
+          <cell r="A187"/>
+        </row>
+        <row r="188">
+          <cell r="A188"/>
+        </row>
+        <row r="189">
+          <cell r="A189"/>
+        </row>
+        <row r="190">
+          <cell r="A190"/>
+        </row>
+        <row r="191">
+          <cell r="A191"/>
+        </row>
+        <row r="192">
+          <cell r="A192"/>
+        </row>
+        <row r="193">
+          <cell r="A193"/>
+        </row>
+        <row r="194">
+          <cell r="A194"/>
+        </row>
+        <row r="195">
+          <cell r="A195"/>
+        </row>
+        <row r="196">
+          <cell r="A196"/>
+        </row>
+        <row r="197">
+          <cell r="A197"/>
+        </row>
+        <row r="198">
+          <cell r="A198"/>
+        </row>
+        <row r="199">
+          <cell r="A199"/>
+        </row>
+        <row r="200">
+          <cell r="A200"/>
+        </row>
+        <row r="201">
+          <cell r="A201"/>
+        </row>
+        <row r="202">
+          <cell r="A202"/>
+        </row>
+        <row r="203">
+          <cell r="A203"/>
+        </row>
+        <row r="204">
+          <cell r="A204"/>
+        </row>
+        <row r="205">
+          <cell r="A205"/>
+        </row>
+        <row r="206">
+          <cell r="A206"/>
+        </row>
+        <row r="207">
+          <cell r="A207"/>
+        </row>
+        <row r="208">
+          <cell r="A208"/>
+        </row>
+        <row r="209">
+          <cell r="A209"/>
+        </row>
+        <row r="210">
+          <cell r="A210"/>
+        </row>
+        <row r="211">
+          <cell r="A211"/>
+        </row>
+        <row r="212">
+          <cell r="A212"/>
+        </row>
+        <row r="213">
+          <cell r="A213"/>
+        </row>
+        <row r="214">
+          <cell r="A214"/>
+        </row>
+        <row r="215">
+          <cell r="A215"/>
+        </row>
+        <row r="216">
+          <cell r="A216"/>
+        </row>
+        <row r="217">
+          <cell r="A217"/>
+        </row>
+        <row r="218">
+          <cell r="A218"/>
+        </row>
+        <row r="219">
+          <cell r="A219"/>
+        </row>
+        <row r="220">
+          <cell r="A220"/>
+        </row>
+        <row r="221">
+          <cell r="A221"/>
+        </row>
+        <row r="222">
+          <cell r="A222"/>
+        </row>
+        <row r="223">
+          <cell r="A223"/>
+        </row>
+        <row r="224">
+          <cell r="A224"/>
+        </row>
+        <row r="225">
+          <cell r="A225"/>
+        </row>
+        <row r="226">
+          <cell r="A226"/>
+        </row>
+        <row r="227">
+          <cell r="A227"/>
+        </row>
+        <row r="228">
+          <cell r="A228"/>
+        </row>
+        <row r="229">
+          <cell r="A229"/>
+        </row>
+        <row r="230">
+          <cell r="A230"/>
+        </row>
+        <row r="231">
+          <cell r="A231"/>
+        </row>
+        <row r="232">
+          <cell r="A232"/>
+        </row>
+        <row r="233">
+          <cell r="A233"/>
+        </row>
+        <row r="234">
+          <cell r="A234"/>
+        </row>
+        <row r="235">
+          <cell r="A235"/>
+        </row>
+        <row r="236">
+          <cell r="A236"/>
+        </row>
+        <row r="237">
+          <cell r="A237"/>
+        </row>
+        <row r="238">
+          <cell r="A238"/>
+        </row>
+        <row r="239">
+          <cell r="A239"/>
+        </row>
+        <row r="240">
+          <cell r="A240"/>
+        </row>
+        <row r="241">
+          <cell r="A241"/>
+        </row>
+        <row r="242">
+          <cell r="A242"/>
+        </row>
+        <row r="243">
+          <cell r="A243"/>
+        </row>
+        <row r="244">
+          <cell r="A244"/>
+        </row>
+        <row r="245">
+          <cell r="A245"/>
+        </row>
+        <row r="246">
+          <cell r="A246"/>
+        </row>
+        <row r="247">
+          <cell r="A247"/>
+        </row>
+        <row r="248">
+          <cell r="A248"/>
+        </row>
+        <row r="249">
+          <cell r="A249"/>
+        </row>
+        <row r="250">
+          <cell r="A250"/>
+        </row>
+        <row r="251">
+          <cell r="A251"/>
+        </row>
+        <row r="252">
+          <cell r="A252"/>
+        </row>
+        <row r="253">
+          <cell r="A253"/>
+        </row>
+        <row r="254">
+          <cell r="A254"/>
+        </row>
+        <row r="255">
+          <cell r="A255"/>
+        </row>
+        <row r="256">
+          <cell r="A256"/>
+        </row>
+        <row r="257">
+          <cell r="A257"/>
+        </row>
+        <row r="258">
+          <cell r="A258"/>
+        </row>
+        <row r="259">
+          <cell r="A259"/>
+        </row>
+        <row r="260">
+          <cell r="A260"/>
+        </row>
+        <row r="261">
+          <cell r="A261"/>
+        </row>
+        <row r="262">
+          <cell r="A262"/>
+        </row>
+        <row r="263">
+          <cell r="A263"/>
+        </row>
+        <row r="264">
+          <cell r="A264"/>
+        </row>
+        <row r="265">
+          <cell r="A265"/>
+        </row>
+        <row r="266">
+          <cell r="A266"/>
+        </row>
+        <row r="267">
+          <cell r="A267"/>
+        </row>
+        <row r="268">
+          <cell r="A268"/>
+        </row>
+        <row r="269">
+          <cell r="A269"/>
+        </row>
+        <row r="270">
+          <cell r="A270"/>
+        </row>
+        <row r="271">
+          <cell r="A271"/>
+        </row>
+        <row r="272">
+          <cell r="A272"/>
+        </row>
+        <row r="273">
+          <cell r="A273"/>
+        </row>
+        <row r="274">
+          <cell r="A274"/>
+        </row>
+        <row r="275">
+          <cell r="A275"/>
+        </row>
+        <row r="276">
+          <cell r="A276"/>
+        </row>
+        <row r="277">
+          <cell r="A277"/>
+        </row>
+        <row r="278">
+          <cell r="A278"/>
+        </row>
+        <row r="279">
+          <cell r="A279"/>
+        </row>
+        <row r="280">
+          <cell r="A280"/>
+        </row>
+        <row r="281">
+          <cell r="A281"/>
+        </row>
+        <row r="282">
+          <cell r="A282"/>
+        </row>
+        <row r="283">
+          <cell r="A283"/>
+        </row>
+        <row r="284">
+          <cell r="A284"/>
+        </row>
+        <row r="285">
+          <cell r="A285"/>
+        </row>
+        <row r="286">
+          <cell r="A286"/>
+        </row>
+        <row r="287">
+          <cell r="A287"/>
+        </row>
+        <row r="288">
+          <cell r="A288"/>
+        </row>
+        <row r="289">
+          <cell r="A289"/>
+        </row>
+        <row r="290">
+          <cell r="A290"/>
+        </row>
+        <row r="291">
+          <cell r="A291"/>
+        </row>
+        <row r="292">
+          <cell r="A292"/>
+        </row>
+        <row r="293">
+          <cell r="A293"/>
+        </row>
+        <row r="294">
+          <cell r="A294"/>
+        </row>
+        <row r="295">
+          <cell r="A295"/>
+        </row>
+        <row r="296">
+          <cell r="A296"/>
+        </row>
+        <row r="297">
+          <cell r="A297"/>
+        </row>
+        <row r="298">
+          <cell r="A298"/>
+        </row>
+        <row r="299">
+          <cell r="A299"/>
+        </row>
+        <row r="300">
+          <cell r="A300"/>
+        </row>
+        <row r="301">
+          <cell r="A301"/>
+        </row>
+        <row r="302">
+          <cell r="A302"/>
+        </row>
+        <row r="303">
+          <cell r="A303"/>
+        </row>
+        <row r="304">
+          <cell r="A304"/>
+        </row>
+        <row r="305">
+          <cell r="A305"/>
+        </row>
+        <row r="306">
+          <cell r="A306"/>
+        </row>
+        <row r="307">
+          <cell r="A307"/>
+        </row>
+        <row r="308">
+          <cell r="A308"/>
+        </row>
+        <row r="309">
+          <cell r="A309"/>
+        </row>
+        <row r="310">
+          <cell r="A310"/>
+        </row>
+        <row r="311">
+          <cell r="A311"/>
+        </row>
+        <row r="312">
+          <cell r="A312"/>
+        </row>
+        <row r="313">
+          <cell r="A313"/>
+        </row>
+        <row r="314">
+          <cell r="A314"/>
+        </row>
+        <row r="315">
+          <cell r="A315"/>
+        </row>
+        <row r="316">
+          <cell r="A316"/>
+        </row>
+        <row r="317">
+          <cell r="A317"/>
+        </row>
+        <row r="318">
+          <cell r="A318"/>
+        </row>
+        <row r="319">
+          <cell r="A319"/>
+        </row>
+        <row r="320">
+          <cell r="A320"/>
+        </row>
+        <row r="321">
+          <cell r="A321"/>
+        </row>
+        <row r="322">
+          <cell r="A322"/>
+        </row>
+        <row r="323">
+          <cell r="A323"/>
+        </row>
+        <row r="324">
+          <cell r="A324"/>
+        </row>
+        <row r="325">
+          <cell r="A325"/>
+        </row>
+        <row r="326">
+          <cell r="A326"/>
+        </row>
+        <row r="327">
+          <cell r="A327"/>
+        </row>
+        <row r="328">
+          <cell r="A328"/>
+        </row>
+        <row r="329">
+          <cell r="A329"/>
+        </row>
+        <row r="330">
+          <cell r="A330"/>
+        </row>
+        <row r="331">
+          <cell r="A331"/>
+        </row>
+        <row r="332">
+          <cell r="A332"/>
+        </row>
+        <row r="333">
+          <cell r="A333"/>
+        </row>
+        <row r="334">
+          <cell r="A334"/>
+        </row>
+        <row r="335">
+          <cell r="A335"/>
+        </row>
+        <row r="336">
+          <cell r="A336"/>
+        </row>
+        <row r="337">
+          <cell r="A337"/>
+        </row>
+        <row r="338">
+          <cell r="A338"/>
+        </row>
+        <row r="339">
+          <cell r="A339"/>
+        </row>
+        <row r="340">
+          <cell r="A340"/>
+        </row>
+        <row r="341">
+          <cell r="A341"/>
+        </row>
+        <row r="342">
+          <cell r="A342"/>
+        </row>
+        <row r="343">
+          <cell r="A343"/>
+        </row>
+        <row r="344">
+          <cell r="A344"/>
+        </row>
+        <row r="345">
+          <cell r="A345"/>
+        </row>
+        <row r="346">
+          <cell r="A346"/>
+        </row>
+        <row r="347">
+          <cell r="A347"/>
+        </row>
+        <row r="348">
+          <cell r="A348"/>
+        </row>
+        <row r="349">
+          <cell r="A349"/>
+        </row>
+        <row r="350">
+          <cell r="A350"/>
+        </row>
+        <row r="351">
+          <cell r="A351"/>
+        </row>
+        <row r="352">
+          <cell r="A352"/>
+        </row>
+        <row r="353">
+          <cell r="A353"/>
+        </row>
+        <row r="354">
+          <cell r="A354"/>
+        </row>
+        <row r="355">
+          <cell r="A355"/>
+        </row>
+        <row r="356">
+          <cell r="A356"/>
+        </row>
+        <row r="357">
+          <cell r="A357"/>
+        </row>
+        <row r="358">
+          <cell r="A358"/>
+        </row>
+        <row r="359">
+          <cell r="A359"/>
+        </row>
+        <row r="360">
+          <cell r="A360"/>
+        </row>
+        <row r="361">
+          <cell r="A361"/>
+        </row>
+        <row r="362">
+          <cell r="A362"/>
+        </row>
+        <row r="363">
+          <cell r="A363"/>
+        </row>
+        <row r="364">
+          <cell r="A364"/>
+        </row>
+        <row r="365">
+          <cell r="A365"/>
+        </row>
+        <row r="366">
+          <cell r="A366"/>
+        </row>
+        <row r="367">
+          <cell r="A367"/>
+        </row>
+        <row r="368">
+          <cell r="A368"/>
+        </row>
+        <row r="369">
+          <cell r="A369"/>
+        </row>
+        <row r="370">
+          <cell r="A370"/>
+        </row>
+        <row r="371">
+          <cell r="A371"/>
+        </row>
+        <row r="372">
+          <cell r="A372"/>
+        </row>
+        <row r="373">
+          <cell r="A373"/>
+        </row>
+        <row r="374">
+          <cell r="A374"/>
+        </row>
+        <row r="375">
+          <cell r="A375"/>
+        </row>
+        <row r="376">
+          <cell r="A376"/>
+        </row>
+        <row r="377">
+          <cell r="A377"/>
+        </row>
+        <row r="378">
+          <cell r="A378"/>
+        </row>
+        <row r="379">
+          <cell r="A379"/>
+        </row>
+        <row r="380">
+          <cell r="A380"/>
+        </row>
+        <row r="381">
+          <cell r="A381"/>
+        </row>
+        <row r="382">
+          <cell r="A382"/>
+        </row>
+        <row r="383">
+          <cell r="A383"/>
+        </row>
+        <row r="384">
+          <cell r="A384"/>
+        </row>
+        <row r="385">
+          <cell r="A385"/>
+        </row>
+        <row r="386">
+          <cell r="A386"/>
+        </row>
+        <row r="387">
+          <cell r="A387"/>
+        </row>
+        <row r="388">
+          <cell r="A388"/>
+        </row>
+        <row r="389">
+          <cell r="A389"/>
+        </row>
+        <row r="390">
+          <cell r="A390"/>
+        </row>
+        <row r="391">
+          <cell r="A391"/>
+        </row>
+        <row r="392">
+          <cell r="A392"/>
+        </row>
+        <row r="393">
+          <cell r="A393"/>
+        </row>
+        <row r="394">
+          <cell r="A394"/>
+        </row>
+        <row r="395">
+          <cell r="A395"/>
+        </row>
+        <row r="396">
+          <cell r="A396"/>
+        </row>
+        <row r="397">
+          <cell r="A397"/>
+        </row>
+        <row r="398">
+          <cell r="A398"/>
+        </row>
+        <row r="399">
+          <cell r="A399"/>
+        </row>
+        <row r="400">
+          <cell r="A400"/>
+        </row>
+        <row r="401">
+          <cell r="A401"/>
+        </row>
+        <row r="402">
+          <cell r="A402"/>
+        </row>
+        <row r="403">
+          <cell r="A403"/>
+        </row>
+        <row r="404">
+          <cell r="A404"/>
+        </row>
+        <row r="405">
+          <cell r="A405"/>
+        </row>
+        <row r="406">
+          <cell r="A406"/>
+        </row>
+        <row r="407">
+          <cell r="A407"/>
+        </row>
+        <row r="408">
+          <cell r="A408"/>
+        </row>
+        <row r="409">
+          <cell r="A409"/>
+        </row>
+        <row r="410">
+          <cell r="A410"/>
+        </row>
+        <row r="411">
+          <cell r="A411"/>
+        </row>
+        <row r="412">
+          <cell r="A412"/>
+        </row>
+        <row r="413">
+          <cell r="A413"/>
+        </row>
+        <row r="414">
+          <cell r="A414"/>
+        </row>
+        <row r="415">
+          <cell r="A415"/>
+        </row>
+        <row r="416">
+          <cell r="A416"/>
+        </row>
+        <row r="417">
+          <cell r="A417"/>
+        </row>
+        <row r="418">
+          <cell r="A418"/>
+        </row>
+        <row r="419">
+          <cell r="A419"/>
+        </row>
+        <row r="420">
+          <cell r="A420"/>
+        </row>
+        <row r="421">
+          <cell r="A421"/>
+        </row>
+        <row r="422">
+          <cell r="A422"/>
+        </row>
+        <row r="423">
+          <cell r="A423"/>
+        </row>
+        <row r="424">
+          <cell r="A424"/>
+        </row>
+        <row r="425">
+          <cell r="A425"/>
+        </row>
+        <row r="426">
+          <cell r="A426"/>
+        </row>
+        <row r="427">
+          <cell r="A427"/>
+        </row>
+        <row r="428">
+          <cell r="A428"/>
+        </row>
+        <row r="429">
+          <cell r="A429"/>
+        </row>
+        <row r="430">
+          <cell r="A430"/>
+        </row>
+        <row r="431">
+          <cell r="A431"/>
+        </row>
+        <row r="432">
+          <cell r="A432"/>
+        </row>
+        <row r="433">
+          <cell r="A433"/>
+        </row>
+        <row r="434">
+          <cell r="A434"/>
+        </row>
+        <row r="435">
+          <cell r="A435"/>
+        </row>
+        <row r="436">
+          <cell r="A436"/>
+        </row>
+        <row r="437">
+          <cell r="A437"/>
+        </row>
+        <row r="438">
+          <cell r="A438"/>
+        </row>
+        <row r="439">
+          <cell r="A439"/>
+        </row>
+        <row r="440">
+          <cell r="A440"/>
+        </row>
+        <row r="441">
+          <cell r="A441"/>
+        </row>
+        <row r="442">
+          <cell r="A442"/>
+        </row>
+        <row r="443">
+          <cell r="A443"/>
+        </row>
+        <row r="444">
+          <cell r="A444"/>
+        </row>
+        <row r="445">
+          <cell r="A445"/>
+        </row>
+        <row r="446">
+          <cell r="A446"/>
+        </row>
+        <row r="447">
+          <cell r="A447"/>
+        </row>
+        <row r="448">
+          <cell r="A448"/>
+        </row>
+        <row r="449">
+          <cell r="A449"/>
+        </row>
+        <row r="450">
+          <cell r="A450"/>
+        </row>
+        <row r="451">
+          <cell r="A451"/>
+        </row>
+        <row r="452">
+          <cell r="A452"/>
+        </row>
+        <row r="453">
+          <cell r="A453"/>
+        </row>
+        <row r="454">
+          <cell r="A454"/>
+        </row>
+        <row r="455">
+          <cell r="A455"/>
+        </row>
+        <row r="456">
+          <cell r="A456"/>
+        </row>
+        <row r="457">
+          <cell r="A457"/>
+        </row>
+        <row r="458">
+          <cell r="A458"/>
+        </row>
+        <row r="459">
+          <cell r="A459"/>
+        </row>
+        <row r="460">
+          <cell r="A460"/>
+        </row>
+        <row r="461">
+          <cell r="A461"/>
+        </row>
+        <row r="462">
+          <cell r="A462"/>
+        </row>
+        <row r="463">
+          <cell r="A463"/>
+        </row>
+        <row r="464">
+          <cell r="A464"/>
+        </row>
+        <row r="465">
+          <cell r="A465"/>
+        </row>
+        <row r="466">
+          <cell r="A466"/>
+        </row>
+        <row r="467">
+          <cell r="A467"/>
+        </row>
+        <row r="468">
+          <cell r="A468"/>
+        </row>
+        <row r="469">
+          <cell r="A469"/>
+        </row>
+        <row r="470">
+          <cell r="A470"/>
+        </row>
+        <row r="471">
+          <cell r="A471"/>
+        </row>
+        <row r="472">
+          <cell r="A472"/>
+        </row>
+        <row r="473">
+          <cell r="A473"/>
+        </row>
+        <row r="474">
+          <cell r="A474"/>
+        </row>
+        <row r="475">
+          <cell r="A475"/>
+        </row>
+        <row r="476">
+          <cell r="A476"/>
+        </row>
+        <row r="477">
+          <cell r="A477"/>
+        </row>
+        <row r="478">
+          <cell r="A478"/>
+        </row>
+        <row r="479">
+          <cell r="A479"/>
+        </row>
+        <row r="480">
+          <cell r="A480"/>
+        </row>
+        <row r="481">
+          <cell r="A481"/>
+        </row>
+        <row r="482">
+          <cell r="A482"/>
+        </row>
+        <row r="483">
+          <cell r="A483"/>
+        </row>
+        <row r="484">
+          <cell r="A484"/>
+        </row>
+        <row r="485">
+          <cell r="A485"/>
+        </row>
+        <row r="486">
+          <cell r="A486"/>
+        </row>
+        <row r="487">
+          <cell r="A487"/>
+        </row>
+        <row r="488">
+          <cell r="A488"/>
+        </row>
+        <row r="489">
+          <cell r="A489"/>
+        </row>
+        <row r="490">
+          <cell r="A490"/>
+        </row>
+        <row r="491">
+          <cell r="A491"/>
+        </row>
+        <row r="492">
+          <cell r="A492"/>
+        </row>
+        <row r="493">
+          <cell r="A493"/>
+        </row>
+        <row r="494">
+          <cell r="A494"/>
+        </row>
+        <row r="495">
+          <cell r="A495"/>
+        </row>
+        <row r="496">
+          <cell r="A496"/>
+        </row>
+        <row r="497">
+          <cell r="A497"/>
+        </row>
+        <row r="498">
+          <cell r="A498"/>
+        </row>
+        <row r="499">
+          <cell r="A499"/>
+        </row>
+        <row r="500">
+          <cell r="A500"/>
+        </row>
+        <row r="501">
+          <cell r="A501"/>
+        </row>
+        <row r="502">
+          <cell r="A502"/>
+        </row>
+        <row r="503">
+          <cell r="A503"/>
+        </row>
+        <row r="504">
+          <cell r="A504"/>
+        </row>
+        <row r="505">
+          <cell r="A505"/>
+        </row>
+        <row r="506">
+          <cell r="A506"/>
+        </row>
+        <row r="507">
+          <cell r="A507"/>
+        </row>
+        <row r="508">
+          <cell r="A508"/>
+        </row>
+        <row r="509">
+          <cell r="A509"/>
+        </row>
+        <row r="510">
+          <cell r="A510"/>
+        </row>
+        <row r="511">
+          <cell r="A511"/>
+        </row>
+        <row r="512">
+          <cell r="A512"/>
+        </row>
+        <row r="513">
+          <cell r="A513"/>
+        </row>
+        <row r="514">
+          <cell r="A514"/>
+        </row>
+        <row r="515">
+          <cell r="A515"/>
+        </row>
+        <row r="516">
+          <cell r="A516"/>
+        </row>
+        <row r="517">
+          <cell r="A517"/>
+        </row>
+        <row r="518">
+          <cell r="A518"/>
+        </row>
+        <row r="519">
+          <cell r="A519"/>
+        </row>
+        <row r="520">
+          <cell r="A520"/>
+        </row>
+        <row r="521">
+          <cell r="A521"/>
+        </row>
+        <row r="522">
+          <cell r="A522"/>
+        </row>
+        <row r="523">
+          <cell r="A523"/>
+        </row>
+        <row r="524">
+          <cell r="A524"/>
+        </row>
+        <row r="525">
+          <cell r="A525"/>
+        </row>
+        <row r="526">
+          <cell r="A526"/>
+        </row>
+        <row r="527">
+          <cell r="A527"/>
+        </row>
+        <row r="528">
+          <cell r="A528"/>
+        </row>
+        <row r="529">
+          <cell r="A529"/>
+        </row>
+        <row r="530">
+          <cell r="A530"/>
+        </row>
+        <row r="531">
+          <cell r="A531"/>
+        </row>
+        <row r="532">
+          <cell r="A532"/>
+        </row>
+        <row r="533">
+          <cell r="A533"/>
+        </row>
+        <row r="534">
+          <cell r="A534"/>
+        </row>
+        <row r="535">
+          <cell r="A535"/>
+        </row>
+        <row r="536">
+          <cell r="A536"/>
+        </row>
+        <row r="537">
+          <cell r="A537"/>
+        </row>
+        <row r="538">
+          <cell r="A538"/>
+        </row>
+        <row r="539">
+          <cell r="A539"/>
+        </row>
+        <row r="540">
+          <cell r="A540"/>
+        </row>
+        <row r="541">
+          <cell r="A541"/>
+        </row>
+        <row r="542">
+          <cell r="A542"/>
+        </row>
+        <row r="543">
+          <cell r="A543"/>
+        </row>
+        <row r="544">
+          <cell r="A544"/>
+        </row>
+        <row r="545">
+          <cell r="A545"/>
+        </row>
+        <row r="546">
+          <cell r="A546"/>
+        </row>
+        <row r="547">
+          <cell r="A547"/>
+        </row>
+        <row r="548">
+          <cell r="A548"/>
+        </row>
+        <row r="549">
+          <cell r="A549"/>
+        </row>
+        <row r="550">
+          <cell r="A550"/>
+        </row>
+        <row r="551">
+          <cell r="A551"/>
+        </row>
+        <row r="552">
+          <cell r="A552"/>
+        </row>
+        <row r="553">
+          <cell r="A553"/>
+        </row>
+        <row r="554">
+          <cell r="A554"/>
+        </row>
+        <row r="555">
+          <cell r="A555"/>
+        </row>
+        <row r="556">
+          <cell r="A556"/>
+        </row>
+        <row r="557">
+          <cell r="A557"/>
+        </row>
+        <row r="558">
+          <cell r="A558"/>
+        </row>
+        <row r="559">
+          <cell r="A559"/>
+        </row>
+        <row r="560">
+          <cell r="A560"/>
+        </row>
+        <row r="561">
+          <cell r="A561"/>
+        </row>
+        <row r="562">
+          <cell r="A562"/>
+        </row>
+        <row r="563">
+          <cell r="A563"/>
+        </row>
+        <row r="564">
+          <cell r="A564"/>
+        </row>
+        <row r="565">
+          <cell r="A565"/>
+        </row>
+        <row r="566">
+          <cell r="A566"/>
+        </row>
+        <row r="567">
+          <cell r="A567"/>
+        </row>
+        <row r="568">
+          <cell r="A568"/>
+        </row>
+        <row r="569">
+          <cell r="A569"/>
+        </row>
+        <row r="570">
+          <cell r="A570"/>
+        </row>
+        <row r="571">
+          <cell r="A571"/>
+        </row>
+        <row r="572">
+          <cell r="A572"/>
+        </row>
+        <row r="573">
+          <cell r="A573"/>
+        </row>
+        <row r="574">
+          <cell r="A574"/>
+        </row>
+        <row r="575">
+          <cell r="A575"/>
+        </row>
+        <row r="576">
+          <cell r="A576"/>
+        </row>
+        <row r="577">
+          <cell r="A577"/>
+        </row>
+        <row r="578">
+          <cell r="A578"/>
+        </row>
+        <row r="579">
+          <cell r="A579"/>
+        </row>
+        <row r="580">
+          <cell r="A580"/>
+        </row>
+        <row r="581">
+          <cell r="A581"/>
+        </row>
+        <row r="582">
+          <cell r="A582"/>
+        </row>
+        <row r="583">
+          <cell r="A583"/>
+        </row>
+        <row r="584">
+          <cell r="A584"/>
+        </row>
+        <row r="585">
+          <cell r="A585"/>
+        </row>
+        <row r="586">
+          <cell r="A586"/>
+        </row>
+        <row r="587">
+          <cell r="A587"/>
+        </row>
+        <row r="588">
+          <cell r="A588"/>
+        </row>
+        <row r="589">
+          <cell r="A589"/>
+        </row>
+        <row r="590">
+          <cell r="A590"/>
+        </row>
+        <row r="591">
+          <cell r="A591"/>
+        </row>
+        <row r="592">
+          <cell r="A592"/>
+        </row>
+        <row r="593">
+          <cell r="A593"/>
+        </row>
+        <row r="594">
+          <cell r="A594"/>
+        </row>
+        <row r="595">
+          <cell r="A595"/>
+        </row>
+        <row r="596">
+          <cell r="A596"/>
+        </row>
+        <row r="597">
+          <cell r="A597"/>
+        </row>
+        <row r="598">
+          <cell r="A598"/>
+        </row>
+        <row r="599">
+          <cell r="A599"/>
+        </row>
+        <row r="600">
+          <cell r="A600"/>
+        </row>
+        <row r="601">
+          <cell r="A601"/>
+        </row>
+        <row r="602">
+          <cell r="A602"/>
+        </row>
+        <row r="603">
+          <cell r="A603"/>
+        </row>
+        <row r="604">
+          <cell r="A604"/>
+        </row>
+        <row r="605">
+          <cell r="A605"/>
+        </row>
+        <row r="606">
+          <cell r="A606"/>
+        </row>
+        <row r="607">
+          <cell r="A607"/>
+        </row>
+        <row r="608">
+          <cell r="A608"/>
+        </row>
+        <row r="609">
+          <cell r="A609"/>
+        </row>
+        <row r="610">
+          <cell r="A610"/>
+        </row>
+        <row r="611">
+          <cell r="A611"/>
+        </row>
+        <row r="612">
+          <cell r="A612"/>
+        </row>
+        <row r="613">
+          <cell r="A613"/>
+        </row>
+        <row r="614">
+          <cell r="A614"/>
+        </row>
+        <row r="615">
+          <cell r="A615"/>
+        </row>
+        <row r="616">
+          <cell r="A616"/>
+        </row>
+        <row r="617">
+          <cell r="A617"/>
+        </row>
+        <row r="618">
+          <cell r="A618"/>
+        </row>
+        <row r="619">
+          <cell r="A619"/>
+        </row>
+        <row r="620">
+          <cell r="A620"/>
+        </row>
+        <row r="621">
+          <cell r="A621"/>
+        </row>
+        <row r="622">
+          <cell r="A622"/>
+        </row>
+        <row r="623">
+          <cell r="A623"/>
+        </row>
+        <row r="624">
+          <cell r="A624"/>
+        </row>
+        <row r="625">
+          <cell r="A625"/>
+        </row>
+        <row r="626">
+          <cell r="A626"/>
+        </row>
+        <row r="627">
+          <cell r="A627"/>
+        </row>
+        <row r="628">
+          <cell r="A628"/>
+        </row>
+        <row r="629">
+          <cell r="A629"/>
+        </row>
+        <row r="630">
+          <cell r="A630"/>
+        </row>
+        <row r="631">
+          <cell r="A631"/>
+        </row>
+        <row r="632">
+          <cell r="A632"/>
+        </row>
+        <row r="633">
+          <cell r="A633"/>
+        </row>
+        <row r="634">
+          <cell r="A634"/>
+        </row>
+        <row r="635">
+          <cell r="A635"/>
+        </row>
+        <row r="636">
+          <cell r="A636"/>
+        </row>
+        <row r="637">
+          <cell r="A637"/>
+        </row>
+        <row r="638">
+          <cell r="A638"/>
+        </row>
+        <row r="639">
+          <cell r="A639"/>
+        </row>
+        <row r="640">
+          <cell r="A640"/>
+        </row>
+        <row r="641">
+          <cell r="A641"/>
+        </row>
+        <row r="642">
+          <cell r="A642"/>
+        </row>
+        <row r="643">
+          <cell r="A643"/>
+        </row>
+        <row r="644">
+          <cell r="A644"/>
+        </row>
+        <row r="645">
+          <cell r="A645"/>
+        </row>
+        <row r="646">
+          <cell r="A646"/>
+        </row>
+        <row r="647">
+          <cell r="A647"/>
+        </row>
+        <row r="648">
+          <cell r="A648"/>
+        </row>
+        <row r="649">
+          <cell r="A649"/>
+        </row>
+        <row r="650">
+          <cell r="A650"/>
+        </row>
+        <row r="651">
+          <cell r="A651"/>
+        </row>
+        <row r="652">
+          <cell r="A652"/>
+        </row>
+        <row r="653">
+          <cell r="A653"/>
+        </row>
+        <row r="654">
+          <cell r="A654"/>
+        </row>
+        <row r="655">
+          <cell r="A655"/>
+        </row>
+        <row r="656">
+          <cell r="A656"/>
+        </row>
+        <row r="657">
+          <cell r="A657"/>
+        </row>
+        <row r="658">
+          <cell r="A658"/>
+        </row>
+        <row r="659">
+          <cell r="A659"/>
+        </row>
+        <row r="660">
+          <cell r="A660"/>
+        </row>
+        <row r="661">
+          <cell r="A661"/>
+        </row>
+        <row r="662">
+          <cell r="A662"/>
+        </row>
+        <row r="663">
+          <cell r="A663"/>
+        </row>
+        <row r="664">
+          <cell r="A664"/>
+        </row>
+        <row r="665">
+          <cell r="A665"/>
+        </row>
+        <row r="666">
+          <cell r="A666"/>
+        </row>
+        <row r="667">
+          <cell r="A667"/>
+        </row>
+        <row r="668">
+          <cell r="A668"/>
+        </row>
+        <row r="669">
+          <cell r="A669"/>
+        </row>
+        <row r="670">
+          <cell r="A670"/>
+        </row>
+        <row r="671">
+          <cell r="A671"/>
+        </row>
+        <row r="672">
+          <cell r="A672"/>
+        </row>
+        <row r="673">
+          <cell r="A673"/>
+        </row>
+        <row r="674">
+          <cell r="A674"/>
+        </row>
+        <row r="675">
+          <cell r="A675"/>
+        </row>
+        <row r="676">
+          <cell r="A676"/>
+        </row>
+        <row r="677">
+          <cell r="A677"/>
+        </row>
+        <row r="678">
+          <cell r="A678"/>
+        </row>
+        <row r="679">
+          <cell r="A679"/>
+        </row>
+        <row r="680">
+          <cell r="A680"/>
+        </row>
+        <row r="681">
+          <cell r="A681"/>
+        </row>
+        <row r="682">
+          <cell r="A682"/>
+        </row>
+        <row r="683">
+          <cell r="A683"/>
+        </row>
+        <row r="684">
+          <cell r="A684"/>
+        </row>
+        <row r="685">
+          <cell r="A685"/>
+        </row>
+        <row r="686">
+          <cell r="A686"/>
+        </row>
+        <row r="687">
+          <cell r="A687"/>
+        </row>
+        <row r="688">
+          <cell r="A688"/>
+        </row>
+        <row r="689">
+          <cell r="A689"/>
+        </row>
+        <row r="690">
+          <cell r="A690"/>
+        </row>
+        <row r="691">
+          <cell r="A691"/>
+        </row>
+        <row r="692">
+          <cell r="A692"/>
+        </row>
+        <row r="693">
+          <cell r="A693"/>
+        </row>
+        <row r="694">
+          <cell r="A694"/>
+        </row>
+        <row r="695">
+          <cell r="A695"/>
+        </row>
+        <row r="696">
+          <cell r="A696"/>
+        </row>
+        <row r="697">
+          <cell r="A697"/>
+        </row>
+        <row r="698">
+          <cell r="A698"/>
+        </row>
+        <row r="699">
+          <cell r="A699"/>
+        </row>
+        <row r="700">
+          <cell r="A700"/>
+        </row>
+        <row r="701">
+          <cell r="A701"/>
+        </row>
+        <row r="702">
+          <cell r="A702"/>
+        </row>
+        <row r="703">
+          <cell r="A703"/>
+        </row>
+        <row r="704">
+          <cell r="A704"/>
+        </row>
+        <row r="705">
+          <cell r="A705"/>
+        </row>
+        <row r="706">
+          <cell r="A706"/>
+        </row>
+        <row r="707">
+          <cell r="A707"/>
+        </row>
+        <row r="708">
+          <cell r="A708"/>
+        </row>
+        <row r="709">
+          <cell r="A709"/>
+        </row>
+        <row r="710">
+          <cell r="A710"/>
+        </row>
+        <row r="711">
+          <cell r="A711"/>
+        </row>
+        <row r="712">
+          <cell r="A712"/>
+        </row>
+        <row r="713">
+          <cell r="A713"/>
+        </row>
+        <row r="714">
+          <cell r="A714"/>
+        </row>
+        <row r="715">
+          <cell r="A715"/>
+        </row>
+        <row r="716">
+          <cell r="A716"/>
+        </row>
+        <row r="717">
+          <cell r="A717"/>
+        </row>
+        <row r="718">
+          <cell r="A718"/>
+        </row>
+        <row r="719">
+          <cell r="A719"/>
+        </row>
+        <row r="720">
+          <cell r="A720"/>
+        </row>
+        <row r="721">
+          <cell r="A721"/>
+        </row>
+        <row r="722">
+          <cell r="A722"/>
+        </row>
+        <row r="723">
+          <cell r="A723"/>
+        </row>
+        <row r="724">
+          <cell r="A724"/>
+        </row>
+        <row r="725">
+          <cell r="A725"/>
+        </row>
+        <row r="726">
+          <cell r="A726"/>
+        </row>
+        <row r="727">
+          <cell r="A727"/>
+        </row>
+        <row r="728">
+          <cell r="A728"/>
+        </row>
+        <row r="729">
+          <cell r="A729"/>
+        </row>
+        <row r="730">
+          <cell r="A730"/>
+        </row>
+        <row r="731">
+          <cell r="A731"/>
+        </row>
+        <row r="732">
+          <cell r="A732"/>
+        </row>
+        <row r="733">
+          <cell r="A733"/>
+        </row>
+        <row r="734">
+          <cell r="A734"/>
+        </row>
+        <row r="735">
+          <cell r="A735"/>
+        </row>
+        <row r="736">
+          <cell r="A736"/>
+        </row>
+        <row r="737">
+          <cell r="A737"/>
+        </row>
+        <row r="738">
+          <cell r="A738"/>
+        </row>
+        <row r="739">
+          <cell r="A739"/>
+        </row>
+        <row r="740">
+          <cell r="A740"/>
+        </row>
+        <row r="741">
+          <cell r="A741"/>
+        </row>
+        <row r="742">
+          <cell r="A742"/>
+        </row>
+        <row r="743">
+          <cell r="A743"/>
+        </row>
+        <row r="744">
+          <cell r="A744"/>
+        </row>
+        <row r="745">
+          <cell r="A745"/>
+        </row>
+        <row r="746">
+          <cell r="A746"/>
+        </row>
+        <row r="747">
+          <cell r="A747"/>
+        </row>
+        <row r="748">
+          <cell r="A748"/>
+        </row>
+        <row r="749">
+          <cell r="A749"/>
+        </row>
+        <row r="750">
+          <cell r="A750"/>
+        </row>
+        <row r="751">
+          <cell r="A751"/>
+        </row>
+        <row r="752">
+          <cell r="A752"/>
+        </row>
+        <row r="753">
+          <cell r="A753"/>
+        </row>
+        <row r="754">
+          <cell r="A754"/>
+        </row>
+        <row r="755">
+          <cell r="A755"/>
+        </row>
+        <row r="756">
+          <cell r="A756"/>
+        </row>
+        <row r="757">
+          <cell r="A757"/>
+        </row>
+        <row r="758">
+          <cell r="A758"/>
+        </row>
+        <row r="759">
+          <cell r="A759"/>
+        </row>
+        <row r="760">
+          <cell r="A760"/>
+        </row>
+        <row r="761">
+          <cell r="A761"/>
+        </row>
+        <row r="762">
+          <cell r="A762"/>
+        </row>
+        <row r="763">
+          <cell r="A763"/>
+        </row>
+        <row r="764">
+          <cell r="A764"/>
+        </row>
+        <row r="765">
+          <cell r="A765"/>
+        </row>
+        <row r="766">
+          <cell r="A766"/>
+        </row>
+        <row r="767">
+          <cell r="A767"/>
+        </row>
+        <row r="768">
+          <cell r="A768"/>
+        </row>
+        <row r="769">
+          <cell r="A769"/>
+        </row>
+        <row r="770">
+          <cell r="A770"/>
+        </row>
+        <row r="771">
+          <cell r="A771"/>
+        </row>
+        <row r="772">
+          <cell r="A772"/>
+        </row>
+        <row r="773">
+          <cell r="A773"/>
+        </row>
+        <row r="774">
+          <cell r="A774"/>
+        </row>
+        <row r="775">
+          <cell r="A775"/>
+        </row>
+        <row r="776">
+          <cell r="A776"/>
+        </row>
+        <row r="777">
+          <cell r="A777"/>
+        </row>
+        <row r="778">
+          <cell r="A778"/>
+        </row>
+        <row r="779">
+          <cell r="A779"/>
+        </row>
+        <row r="780">
+          <cell r="A780"/>
+        </row>
+        <row r="781">
+          <cell r="A781"/>
+        </row>
+        <row r="782">
+          <cell r="A782"/>
+        </row>
+        <row r="783">
+          <cell r="A783"/>
+        </row>
+        <row r="784">
+          <cell r="A784"/>
+        </row>
+        <row r="785">
+          <cell r="A785"/>
+        </row>
+        <row r="786">
+          <cell r="A786"/>
+        </row>
+        <row r="787">
+          <cell r="A787"/>
+        </row>
+        <row r="788">
+          <cell r="A788"/>
+        </row>
+        <row r="789">
+          <cell r="A789"/>
+        </row>
+        <row r="790">
+          <cell r="A790"/>
+        </row>
+        <row r="791">
+          <cell r="A791"/>
+        </row>
+        <row r="792">
+          <cell r="A792"/>
+        </row>
+        <row r="793">
+          <cell r="A793"/>
+        </row>
+        <row r="794">
+          <cell r="A794"/>
+        </row>
+        <row r="795">
+          <cell r="A795"/>
+        </row>
+        <row r="796">
+          <cell r="A796"/>
+        </row>
+        <row r="797">
+          <cell r="A797"/>
+        </row>
+        <row r="798">
+          <cell r="A798"/>
+        </row>
+        <row r="799">
+          <cell r="A799"/>
+        </row>
+        <row r="800">
+          <cell r="A800"/>
+        </row>
+        <row r="801">
+          <cell r="A801"/>
+        </row>
+        <row r="802">
+          <cell r="A802"/>
+        </row>
+        <row r="803">
+          <cell r="A803"/>
+        </row>
+        <row r="804">
+          <cell r="A804"/>
+        </row>
+        <row r="805">
+          <cell r="A805"/>
+        </row>
+        <row r="806">
+          <cell r="A806"/>
+        </row>
+        <row r="807">
+          <cell r="A807"/>
+        </row>
+        <row r="808">
+          <cell r="A808"/>
+        </row>
+        <row r="809">
+          <cell r="A809"/>
+        </row>
+        <row r="810">
+          <cell r="A810"/>
+        </row>
+        <row r="811">
+          <cell r="A811"/>
+        </row>
+        <row r="812">
+          <cell r="A812"/>
+        </row>
+        <row r="813">
+          <cell r="A813"/>
+        </row>
+        <row r="814">
+          <cell r="A814"/>
+        </row>
+        <row r="815">
+          <cell r="A815"/>
+        </row>
+        <row r="816">
+          <cell r="A816"/>
+        </row>
+        <row r="817">
+          <cell r="A817"/>
+        </row>
+        <row r="818">
+          <cell r="A818"/>
+        </row>
+        <row r="819">
+          <cell r="A819"/>
+        </row>
+        <row r="820">
+          <cell r="A820"/>
+        </row>
+        <row r="821">
+          <cell r="A821"/>
+        </row>
+        <row r="822">
+          <cell r="A822"/>
+        </row>
+        <row r="823">
+          <cell r="A823"/>
+        </row>
+        <row r="824">
+          <cell r="A824"/>
+        </row>
+        <row r="825">
+          <cell r="A825"/>
+        </row>
+        <row r="826">
+          <cell r="A826"/>
+        </row>
+        <row r="827">
+          <cell r="A827"/>
+        </row>
+        <row r="828">
+          <cell r="A828"/>
+        </row>
+        <row r="829">
+          <cell r="A829"/>
+        </row>
+        <row r="830">
+          <cell r="A830"/>
+        </row>
+        <row r="831">
+          <cell r="A831"/>
+        </row>
+        <row r="832">
+          <cell r="A832"/>
+        </row>
+        <row r="833">
+          <cell r="A833"/>
+        </row>
+        <row r="834">
+          <cell r="A834"/>
+        </row>
+        <row r="835">
+          <cell r="A835"/>
+        </row>
+        <row r="836">
+          <cell r="A836"/>
+        </row>
+        <row r="837">
+          <cell r="A837"/>
+        </row>
+        <row r="838">
+          <cell r="A838"/>
+        </row>
+        <row r="839">
+          <cell r="A839"/>
+        </row>
+        <row r="840">
+          <cell r="A840"/>
+        </row>
+        <row r="841">
+          <cell r="A841"/>
+        </row>
+        <row r="842">
+          <cell r="A842"/>
+        </row>
+        <row r="843">
+          <cell r="A843"/>
+        </row>
+        <row r="844">
+          <cell r="A844"/>
+        </row>
+        <row r="845">
+          <cell r="A845"/>
+        </row>
+        <row r="846">
+          <cell r="A846"/>
+        </row>
+        <row r="847">
+          <cell r="A847"/>
+        </row>
+        <row r="848">
+          <cell r="A848"/>
+        </row>
+        <row r="849">
+          <cell r="A849"/>
+        </row>
+        <row r="850">
+          <cell r="A850"/>
+        </row>
+        <row r="851">
+          <cell r="A851"/>
+        </row>
+        <row r="852">
+          <cell r="A852"/>
+        </row>
+        <row r="853">
+          <cell r="A853"/>
+        </row>
+        <row r="854">
+          <cell r="A854"/>
+        </row>
+        <row r="855">
+          <cell r="A855"/>
+        </row>
+        <row r="856">
+          <cell r="A856"/>
+        </row>
+        <row r="857">
+          <cell r="A857"/>
+        </row>
+        <row r="858">
+          <cell r="A858"/>
+        </row>
+        <row r="859">
+          <cell r="A859"/>
+        </row>
+        <row r="860">
+          <cell r="A860"/>
+        </row>
+        <row r="861">
+          <cell r="A861"/>
+        </row>
+        <row r="862">
+          <cell r="A862"/>
+        </row>
+        <row r="863">
+          <cell r="A863"/>
+        </row>
+        <row r="864">
+          <cell r="A864"/>
+        </row>
+        <row r="865">
+          <cell r="A865"/>
+        </row>
+        <row r="866">
+          <cell r="A866"/>
+        </row>
+        <row r="867">
+          <cell r="A867"/>
+        </row>
+        <row r="868">
+          <cell r="A868"/>
+        </row>
+        <row r="869">
+          <cell r="A869"/>
+        </row>
+        <row r="870">
+          <cell r="A870"/>
+        </row>
+        <row r="871">
+          <cell r="A871"/>
+        </row>
+        <row r="872">
+          <cell r="A872"/>
+        </row>
+        <row r="873">
+          <cell r="A873"/>
+        </row>
+        <row r="874">
+          <cell r="A874"/>
+        </row>
+        <row r="875">
+          <cell r="A875"/>
+        </row>
+        <row r="876">
+          <cell r="A876"/>
+        </row>
+        <row r="877">
+          <cell r="A877"/>
+        </row>
+        <row r="878">
+          <cell r="A878"/>
+        </row>
+        <row r="879">
+          <cell r="A879"/>
+        </row>
+        <row r="880">
+          <cell r="A880"/>
+        </row>
+        <row r="881">
+          <cell r="A881"/>
+        </row>
+        <row r="882">
+          <cell r="A882"/>
+        </row>
+        <row r="883">
+          <cell r="A883"/>
+        </row>
+        <row r="884">
+          <cell r="A884"/>
+        </row>
+        <row r="885">
+          <cell r="A885"/>
+        </row>
+        <row r="886">
+          <cell r="A886"/>
+        </row>
+        <row r="887">
+          <cell r="A887"/>
+        </row>
+        <row r="888">
+          <cell r="A888"/>
+        </row>
+        <row r="889">
+          <cell r="A889"/>
+        </row>
+        <row r="890">
+          <cell r="A890"/>
+        </row>
+        <row r="891">
+          <cell r="A891"/>
+        </row>
+        <row r="892">
+          <cell r="A892"/>
+        </row>
+        <row r="893">
+          <cell r="A893"/>
+        </row>
+        <row r="894">
+          <cell r="A894"/>
+        </row>
+        <row r="895">
+          <cell r="A895"/>
+        </row>
+        <row r="896">
+          <cell r="A896"/>
+        </row>
+        <row r="897">
+          <cell r="A897"/>
+        </row>
+        <row r="898">
+          <cell r="A898"/>
+        </row>
+        <row r="899">
+          <cell r="A899"/>
+        </row>
+        <row r="900">
+          <cell r="A900"/>
+        </row>
+        <row r="901">
+          <cell r="A901"/>
+        </row>
+        <row r="902">
+          <cell r="A902"/>
+        </row>
+        <row r="903">
+          <cell r="A903"/>
+        </row>
+        <row r="904">
+          <cell r="A904"/>
+        </row>
+        <row r="905">
+          <cell r="A905"/>
+        </row>
+        <row r="906">
+          <cell r="A906"/>
+        </row>
+        <row r="907">
+          <cell r="A907"/>
+        </row>
+        <row r="908">
+          <cell r="A908"/>
+        </row>
+        <row r="909">
+          <cell r="A909"/>
+        </row>
+        <row r="910">
+          <cell r="A910"/>
+        </row>
+        <row r="911">
+          <cell r="A911"/>
+        </row>
+        <row r="912">
+          <cell r="A912"/>
+        </row>
+        <row r="913">
+          <cell r="A913"/>
+        </row>
+        <row r="914">
+          <cell r="A914"/>
+        </row>
+        <row r="915">
+          <cell r="A915"/>
+        </row>
+        <row r="916">
+          <cell r="A916"/>
+        </row>
+        <row r="917">
+          <cell r="A917"/>
+        </row>
+        <row r="918">
+          <cell r="A918"/>
+        </row>
+        <row r="919">
+          <cell r="A919"/>
+        </row>
+        <row r="920">
+          <cell r="A920"/>
+        </row>
+        <row r="921">
+          <cell r="A921"/>
+        </row>
+        <row r="922">
+          <cell r="A922"/>
+        </row>
+        <row r="923">
+          <cell r="A923"/>
+        </row>
+        <row r="924">
+          <cell r="A924"/>
+        </row>
+        <row r="925">
+          <cell r="A925"/>
+        </row>
+        <row r="926">
+          <cell r="A926"/>
+        </row>
+        <row r="927">
+          <cell r="A927"/>
+        </row>
+        <row r="928">
+          <cell r="A928"/>
+        </row>
+        <row r="929">
+          <cell r="A929"/>
+        </row>
+        <row r="930">
+          <cell r="A930"/>
+        </row>
+        <row r="931">
+          <cell r="A931"/>
+        </row>
+        <row r="932">
+          <cell r="A932"/>
+        </row>
+        <row r="933">
+          <cell r="A933"/>
+        </row>
+        <row r="934">
+          <cell r="A934"/>
+        </row>
+        <row r="935">
+          <cell r="A935"/>
+        </row>
+        <row r="936">
+          <cell r="A936"/>
+        </row>
+        <row r="937">
+          <cell r="A937"/>
+        </row>
+        <row r="938">
+          <cell r="A938"/>
+        </row>
+        <row r="939">
+          <cell r="A939"/>
+        </row>
+        <row r="940">
+          <cell r="A940"/>
+        </row>
+        <row r="941">
+          <cell r="A941"/>
+        </row>
+        <row r="942">
+          <cell r="A942"/>
+        </row>
+        <row r="943">
+          <cell r="A943"/>
+        </row>
+        <row r="944">
+          <cell r="A944"/>
+        </row>
+        <row r="945">
+          <cell r="A945"/>
+        </row>
+        <row r="946">
+          <cell r="A946"/>
+        </row>
+        <row r="947">
+          <cell r="A947"/>
+        </row>
+        <row r="948">
+          <cell r="A948"/>
+        </row>
+        <row r="949">
+          <cell r="A949"/>
+        </row>
+        <row r="950">
+          <cell r="A950"/>
+        </row>
+        <row r="951">
+          <cell r="A951"/>
+        </row>
+        <row r="952">
+          <cell r="A952"/>
+        </row>
+        <row r="953">
+          <cell r="A953"/>
+        </row>
+        <row r="954">
+          <cell r="A954"/>
+        </row>
+        <row r="955">
+          <cell r="A955"/>
+        </row>
+        <row r="956">
+          <cell r="A956"/>
+        </row>
+        <row r="957">
+          <cell r="A957"/>
+        </row>
+        <row r="958">
+          <cell r="A958"/>
+        </row>
+        <row r="959">
+          <cell r="A959"/>
+        </row>
+        <row r="960">
+          <cell r="A960"/>
+        </row>
+        <row r="961">
+          <cell r="A961"/>
+        </row>
+        <row r="962">
+          <cell r="A962"/>
+        </row>
+        <row r="963">
+          <cell r="A963"/>
+        </row>
+        <row r="964">
+          <cell r="A964"/>
+        </row>
+        <row r="965">
+          <cell r="A965"/>
+        </row>
+        <row r="966">
+          <cell r="A966"/>
+        </row>
+        <row r="967">
+          <cell r="A967"/>
+        </row>
+        <row r="968">
+          <cell r="A968"/>
+        </row>
+        <row r="969">
+          <cell r="A969"/>
+        </row>
+        <row r="970">
+          <cell r="A970"/>
+        </row>
+        <row r="971">
+          <cell r="A971"/>
+        </row>
+        <row r="972">
+          <cell r="A972"/>
+        </row>
+        <row r="973">
+          <cell r="A973"/>
+        </row>
+        <row r="974">
+          <cell r="A974"/>
+        </row>
+        <row r="975">
+          <cell r="A975"/>
+        </row>
+        <row r="976">
+          <cell r="A976"/>
+        </row>
+        <row r="977">
+          <cell r="A977"/>
+        </row>
+        <row r="978">
+          <cell r="A978"/>
+        </row>
+        <row r="979">
+          <cell r="A979"/>
+        </row>
+        <row r="980">
+          <cell r="A980"/>
+        </row>
+        <row r="981">
+          <cell r="A981"/>
+        </row>
+        <row r="982">
+          <cell r="A982"/>
+        </row>
+        <row r="983">
+          <cell r="A983"/>
+        </row>
+        <row r="984">
+          <cell r="A984"/>
+        </row>
+        <row r="985">
+          <cell r="A985"/>
+        </row>
+        <row r="986">
+          <cell r="A986"/>
+        </row>
+        <row r="987">
+          <cell r="A987"/>
+        </row>
+        <row r="988">
+          <cell r="A988"/>
+        </row>
+        <row r="989">
+          <cell r="A989"/>
+        </row>
+        <row r="990">
+          <cell r="A990"/>
+        </row>
+        <row r="991">
+          <cell r="A991"/>
+        </row>
+        <row r="992">
+          <cell r="A992"/>
+        </row>
+        <row r="993">
+          <cell r="A993"/>
+        </row>
+        <row r="994">
+          <cell r="A994"/>
+        </row>
+        <row r="995">
+          <cell r="A995"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -1545,7 +4317,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:E62"/>
+      <selection activeCell="D54" sqref="D54:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,9 +4349,8 @@
       <c r="C2" s="4">
         <v>-0.11291673225248031</v>
       </c>
-      <c r="D2" t="str">
-        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,9 +4363,8 @@
       <c r="C3" s="4">
         <v>-6.2004191982170831E-2</v>
       </c>
-      <c r="D3" t="str">
-        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,9 +4377,8 @@
       <c r="C4" s="4">
         <v>-7.9151634415656036E-2</v>
       </c>
-      <c r="D4" t="str">
-        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,9 +4391,8 @@
       <c r="C5" s="4">
         <v>-0.1158777120315591</v>
       </c>
-      <c r="D5" t="str">
-        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,9 +4405,8 @@
       <c r="C6" s="4">
         <v>-7.9573669230302777E-2</v>
       </c>
-      <c r="D6" t="str">
-        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,9 +4419,8 @@
       <c r="C7" s="4">
         <v>-8.9947089947089817E-2</v>
       </c>
-      <c r="D7" t="str">
-        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,9 +4433,8 @@
       <c r="C8" s="4">
         <v>-7.7441077441077283E-2</v>
       </c>
-      <c r="D8" t="str">
-        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,9 +4447,8 @@
       <c r="C9" s="4">
         <v>-7.9219987812309489E-2</v>
       </c>
-      <c r="D9" t="str">
-        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,9 +4461,8 @@
       <c r="C10" s="4">
         <v>-6.3173627032934151E-2</v>
       </c>
-      <c r="D10" t="str">
-        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,9 +4475,8 @@
       <c r="C11" s="4">
         <v>-7.4695761644984787E-2</v>
       </c>
-      <c r="D11" t="str">
-        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,9 +4489,8 @@
       <c r="C12" s="4">
         <v>-9.6463022508039051E-2</v>
       </c>
-      <c r="D12" t="str">
-        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,9 +4503,8 @@
       <c r="C13" s="4">
         <v>-0.13147178592204789</v>
       </c>
-      <c r="D13" t="str">
-        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,9 +4517,8 @@
       <c r="C14" s="4">
         <v>-0.14501420520702471</v>
       </c>
-      <c r="D14" t="str">
-        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,9 +4531,8 @@
       <c r="C15" s="4">
         <v>-0.1464311994113309</v>
       </c>
-      <c r="D15" t="str">
-        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,9 +4545,8 @@
       <c r="C16" s="4">
         <v>-7.4469023638693871E-2</v>
       </c>
-      <c r="D16" t="str">
-        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,9 +4559,8 @@
       <c r="C17" s="4">
         <v>-0.168116842759477</v>
       </c>
-      <c r="D17" t="str">
-        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,9 +4573,8 @@
       <c r="C18" s="4">
         <v>-9.4437257438551039E-2</v>
       </c>
-      <c r="D18" t="str">
-        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,9 +4587,8 @@
       <c r="C19" s="4">
         <v>-8.7852711626976207E-2</v>
       </c>
-      <c r="D19" t="str">
-        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,9 +4601,8 @@
       <c r="C20" s="4">
         <v>-5.8387535924973297E-2</v>
       </c>
-      <c r="D20" t="str">
-        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,9 +4615,8 @@
       <c r="C21" s="4">
         <v>-0.15664989292232351</v>
       </c>
-      <c r="D21" t="str">
-        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,9 +4629,8 @@
       <c r="C22" s="4">
         <v>-8.956388720524186E-2</v>
       </c>
-      <c r="D22" t="str">
-        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,9 +4643,8 @@
       <c r="C23" s="4">
         <v>-8.4243017390650141E-2</v>
       </c>
-      <c r="D23" t="str">
-        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,9 +4657,8 @@
       <c r="C24" s="4">
         <v>-0.10196259914138089</v>
       </c>
-      <c r="D24" t="str">
-        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1922,9 +4671,8 @@
       <c r="C25" s="4">
         <v>-0.1158777120315591</v>
       </c>
-      <c r="D25" t="str">
-        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,9 +4685,8 @@
       <c r="C26" s="4">
         <v>-0.1247072599531638</v>
       </c>
-      <c r="D26" t="str">
-        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,9 +4699,8 @@
       <c r="C27" s="4">
         <v>-7.9310929239582689E-2</v>
       </c>
-      <c r="D27" t="str">
-        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,9 +4713,8 @@
       <c r="C28" s="4">
         <v>-8.9893465356800442E-2</v>
       </c>
-      <c r="D28" t="str">
-        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Closed End fund</v>
+      <c r="D28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1982,9 +4727,8 @@
       <c r="C29" s="4">
         <v>-8.8888888888889447E-2</v>
       </c>
-      <c r="D29" t="str">
-        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,9 +4741,8 @@
       <c r="C30" s="4">
         <v>-9.1342526088681292E-2</v>
       </c>
-      <c r="D30" t="str">
-        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2012,9 +4755,8 @@
       <c r="C31" s="4">
         <v>-7.5055734456278944E-2</v>
       </c>
-      <c r="D31" t="str">
-        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,9 +4769,8 @@
       <c r="C32" s="4">
         <v>-8.0804353841896451E-2</v>
       </c>
-      <c r="D32" t="str">
-        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,9 +4783,8 @@
       <c r="C33" s="4">
         <v>-6.7634602613003789E-2</v>
       </c>
-      <c r="D33" t="str">
-        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D33" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2057,9 +4797,8 @@
       <c r="C34" s="4">
         <v>-9.1041514930808365E-2</v>
       </c>
-      <c r="D34" t="str">
-        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,9 +4811,8 @@
       <c r="C35" s="4">
         <v>-9.3447905477980694E-2</v>
       </c>
-      <c r="D35" t="str">
-        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,9 +4825,8 @@
       <c r="C36" s="4">
         <v>-9.8129010607334172E-2</v>
       </c>
-      <c r="D36" t="str">
-        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D36" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2102,9 +4839,8 @@
       <c r="C37" s="4">
         <v>-0.1252232695849223</v>
       </c>
-      <c r="D37" t="str">
-        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D37" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,9 +4853,8 @@
       <c r="C38" s="4">
         <v>-9.4017198566378565E-2</v>
       </c>
-      <c r="D38" t="str">
-        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D38" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,9 +4867,8 @@
       <c r="C39" s="4">
         <v>-0.1052102605821387</v>
       </c>
-      <c r="D39" t="str">
-        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,9 +4881,8 @@
       <c r="C40" s="4">
         <v>0</v>
       </c>
-      <c r="D40" t="str">
-        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2162,9 +4895,8 @@
       <c r="C41" s="4">
         <v>-0.13382594417077201</v>
       </c>
-      <c r="D41" t="str">
-        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,9 +4909,8 @@
       <c r="C42" s="4">
         <v>-0.1176949787684687</v>
       </c>
-      <c r="D42" t="str">
-        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,9 +4923,8 @@
       <c r="C43" s="4">
         <v>-5.6676694733502279E-2</v>
       </c>
-      <c r="D43" t="str">
-        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2207,9 +4937,8 @@
       <c r="C44" s="4">
         <v>-7.4469023638693968E-2</v>
       </c>
-      <c r="D44" t="str">
-        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,9 +4951,8 @@
       <c r="C45" s="4">
         <v>-4.4788975021533527E-2</v>
       </c>
-      <c r="D45" t="str">
-        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,9 +4965,8 @@
       <c r="C46" s="4">
         <v>-0.14338716717590591</v>
       </c>
-      <c r="D46" t="str">
-        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,9 +4979,8 @@
       <c r="C47" s="4">
         <v>-7.2668509528711678E-2</v>
       </c>
-      <c r="D47" t="str">
-        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D47" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,9 +4993,8 @@
       <c r="C48" s="4">
         <v>-8.3096024387146306E-2</v>
       </c>
-      <c r="D48" t="str">
-        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,9 +5007,8 @@
       <c r="C49" s="4">
         <v>-6.7634602613003747E-2</v>
       </c>
-      <c r="D49" t="str">
-        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D49" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2297,9 +5021,8 @@
       <c r="C50" s="4">
         <v>-5.5205022562291581E-2</v>
       </c>
-      <c r="D50" t="str">
-        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2312,9 +5035,8 @@
       <c r="C51" s="4">
         <v>-7.6342518041712173E-2</v>
       </c>
-      <c r="D51" t="str">
-        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,9 +5049,8 @@
       <c r="C52" s="4">
         <v>-7.91048659901116E-2</v>
       </c>
-      <c r="D52" t="str">
-        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,9 +5063,8 @@
       <c r="C53" s="4">
         <v>-9.4441360716834025E-2</v>
       </c>
-      <c r="D53" t="str">
-        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D53" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,9 +5077,8 @@
       <c r="C54" s="4">
         <v>-7.1986808597828481E-2</v>
       </c>
-      <c r="D54" t="str">
-        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,9 +5091,8 @@
       <c r="C55" s="4">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D55" t="str">
-        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D55" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,9 +5105,8 @@
       <c r="C56" s="4">
         <v>-0.18</v>
       </c>
-      <c r="D56" t="str">
-        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D56" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2402,7 +5119,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D37" sqref="D1:D1048576"/>
+      <selection activeCell="D59" sqref="D59:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,9 +5151,8 @@
       <c r="C2" s="4">
         <v>-0.40344483835403022</v>
       </c>
-      <c r="D2" t="str">
-        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,9 +5165,8 @@
       <c r="C3" s="4">
         <v>-0.22650147383935151</v>
       </c>
-      <c r="D3" t="str">
-        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,9 +5179,8 @@
       <c r="C4" s="4">
         <v>-0.36380575288226402</v>
       </c>
-      <c r="D4" t="str">
-        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2479,9 +5193,8 @@
       <c r="C5" s="4">
         <v>-0.31672060409924457</v>
       </c>
-      <c r="D5" t="str">
-        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,9 +5207,8 @@
       <c r="C6" s="4">
         <v>-0.29468223086900108</v>
       </c>
-      <c r="D6" t="str">
-        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2509,9 +5221,8 @@
       <c r="C7" s="4">
         <v>-0.34896810506566622</v>
       </c>
-      <c r="D7" t="str">
-        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,9 +5235,8 @@
       <c r="C8" s="4">
         <v>-0.31769722814498941</v>
       </c>
-      <c r="D8" t="str">
-        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,9 +5249,8 @@
       <c r="C9" s="4">
         <v>-0.29453976123687098</v>
       </c>
-      <c r="D9" t="str">
-        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2554,9 +5263,8 @@
       <c r="C10" s="4">
         <v>-0.22746706757504451</v>
       </c>
-      <c r="D10" t="str">
-        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,9 +5277,8 @@
       <c r="C11" s="4">
         <v>-0.36965152183502398</v>
       </c>
-      <c r="D11" t="str">
-        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,9 +5291,8 @@
       <c r="C12" s="4">
         <v>-0.36075949367088589</v>
       </c>
-      <c r="D12" t="str">
-        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,9 +5305,8 @@
       <c r="C13" s="4">
         <v>-0.33928571428571402</v>
       </c>
-      <c r="D13" t="str">
-        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2614,9 +5319,8 @@
       <c r="C14" s="4">
         <v>-0.28832322221527262</v>
       </c>
-      <c r="D14" t="str">
-        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,9 +5333,8 @@
       <c r="C15" s="4">
         <v>-0.33083956774729872</v>
       </c>
-      <c r="D15" t="str">
-        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,9 +5347,8 @@
       <c r="C16" s="4">
         <v>-0.32185846640980298</v>
       </c>
-      <c r="D16" t="str">
-        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,9 +5361,8 @@
       <c r="C17" s="4">
         <v>-0.32204980151569801</v>
       </c>
-      <c r="D17" t="str">
-        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2674,9 +5375,8 @@
       <c r="C18" s="4">
         <v>-0.31250000000000022</v>
       </c>
-      <c r="D18" t="str">
-        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,9 +5389,8 @@
       <c r="C19" s="4">
         <v>-0.36484442523768362</v>
       </c>
-      <c r="D19" t="str">
-        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,9 +5403,8 @@
       <c r="C20" s="4">
         <v>-0.19009009009009009</v>
       </c>
-      <c r="D20" t="str">
-        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,9 +5417,8 @@
       <c r="C21" s="4">
         <v>-0.30074714522711071</v>
       </c>
-      <c r="D21" t="str">
-        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,9 +5431,8 @@
       <c r="C22" s="4">
         <v>-0.33908045025794992</v>
       </c>
-      <c r="D22" t="str">
-        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,9 +5445,8 @@
       <c r="C23" s="4">
         <v>-0.36703119888960578</v>
       </c>
-      <c r="D23" t="str">
-        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,9 +5459,8 @@
       <c r="C24" s="4">
         <v>-0.37941193801190248</v>
       </c>
-      <c r="D24" t="str">
-        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,9 +5473,8 @@
       <c r="C25" s="4">
         <v>-0.36379966187658558</v>
       </c>
-      <c r="D25" t="str">
-        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2794,9 +5487,8 @@
       <c r="C26" s="4">
         <v>-0.31672060409924457</v>
       </c>
-      <c r="D26" t="str">
-        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,9 +5501,8 @@
       <c r="C27" s="4">
         <v>-0.33710407239819018</v>
       </c>
-      <c r="D27" t="str">
-        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2824,9 +5515,8 @@
       <c r="C28" s="4">
         <v>-0.30281776291644569</v>
       </c>
-      <c r="D28" t="str">
-        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,9 +5529,8 @@
       <c r="C29" s="4">
         <v>-0.34938985228002561</v>
       </c>
-      <c r="D29" t="str">
-        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,9 +5543,8 @@
       <c r="C30" s="4">
         <v>-0.44383589691091019</v>
       </c>
-      <c r="D30" t="str">
-        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Closed End fund</v>
+      <c r="D30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,9 +5557,8 @@
       <c r="C31" s="4">
         <v>-0.32567049808429099</v>
       </c>
-      <c r="D31" t="str">
-        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,9 +5571,8 @@
       <c r="C32" s="4">
         <v>-0.35802587831560362</v>
       </c>
-      <c r="D32" t="str">
-        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2899,9 +5585,8 @@
       <c r="C33" s="4">
         <v>-0.2626359286646372</v>
       </c>
-      <c r="D33" t="str">
-        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D33" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,9 +5599,8 @@
       <c r="C34" s="4">
         <v>-0.33970315398886841</v>
       </c>
-      <c r="D34" t="str">
-        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,9 +5613,8 @@
       <c r="C35" s="4">
         <v>-0.29329343256607321</v>
       </c>
-      <c r="D35" t="str">
-        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,9 +5627,8 @@
       <c r="C36" s="4">
         <v>-0.3183229813664597</v>
       </c>
-      <c r="D36" t="str">
-        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D36" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,9 +5641,8 @@
       <c r="C37" s="4">
         <v>-0.31221198156681979</v>
       </c>
-      <c r="D37" t="str">
-        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D37" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2974,9 +5655,8 @@
       <c r="C38" s="4">
         <v>-0.21714883599267601</v>
       </c>
-      <c r="D38" t="str">
-        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D38" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,9 +5669,8 @@
       <c r="C39" s="4">
         <v>-0.36124601026221159</v>
       </c>
-      <c r="D39" t="str">
-        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,9 +5683,8 @@
       <c r="C40" s="4">
         <v>-0.36414997240412311</v>
       </c>
-      <c r="D40" t="str">
-        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,9 +5697,8 @@
       <c r="C41" s="4">
         <v>-0.33315390826252422</v>
       </c>
-      <c r="D41" t="str">
-        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,9 +5711,8 @@
       <c r="C42" s="4">
         <v>-0.27409199613400081</v>
       </c>
-      <c r="D42" t="str">
-        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,9 +5725,8 @@
       <c r="C43" s="4">
         <v>-0.35161464910698242</v>
       </c>
-      <c r="D43" t="str">
-        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,9 +5739,8 @@
       <c r="C44" s="4">
         <v>-0.33469414558866978</v>
       </c>
-      <c r="D44" t="str">
-        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,9 +5753,8 @@
       <c r="C45" s="4">
         <v>-0.20933844715969491</v>
       </c>
-      <c r="D45" t="str">
-        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3094,9 +5767,8 @@
       <c r="C46" s="4">
         <v>-0.32185846640980309</v>
       </c>
-      <c r="D46" t="str">
-        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3109,9 +5781,8 @@
       <c r="C47" s="4">
         <v>-0.2088934850051708</v>
       </c>
-      <c r="D47" t="str">
-        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D47" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,9 +5795,8 @@
       <c r="C48" s="4">
         <v>-0.28070293921584372</v>
       </c>
-      <c r="D48" t="str">
-        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3139,9 +5809,8 @@
       <c r="C49" s="4">
         <v>-0.30519332434953877</v>
       </c>
-      <c r="D49" t="str">
-        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D49" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,9 +5823,8 @@
       <c r="C50" s="4">
         <v>-0.31668114596260261</v>
       </c>
-      <c r="D50" t="str">
-        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3169,9 +5837,8 @@
       <c r="C51" s="4">
         <v>-0.17841425078588929</v>
       </c>
-      <c r="D51" t="str">
-        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3184,9 +5851,8 @@
       <c r="C52" s="4">
         <v>-0.28380099704954731</v>
       </c>
-      <c r="D52" t="str">
-        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,9 +5865,8 @@
       <c r="C53" s="4">
         <v>-0.42603335897371108</v>
       </c>
-      <c r="D53" t="str">
-        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D53" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3214,9 +5879,8 @@
       <c r="C54" s="4">
         <v>-0.22096781917440861</v>
       </c>
-      <c r="D54" t="str">
-        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,9 +5893,8 @@
       <c r="C55" s="4">
         <v>-0.44203891451139798</v>
       </c>
-      <c r="D55" t="str">
-        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,9 +5907,8 @@
       <c r="C56" s="4">
         <v>-0.29719441914057459</v>
       </c>
-      <c r="D56" t="str">
-        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,9 +5921,8 @@
       <c r="C57" s="4">
         <v>-0.30782232438645141</v>
       </c>
-      <c r="D57" t="str">
-        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D57" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,9 +5935,8 @@
       <c r="C58" s="4">
         <v>-0.35270935960591132</v>
       </c>
-      <c r="D58" t="str">
-        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,9 +5949,8 @@
       <c r="C59" s="4">
         <v>-0.33511185524378151</v>
       </c>
-      <c r="D59" t="str">
-        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D59" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3304,9 +5963,8 @@
       <c r="C60" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="D60" t="str">
-        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D60" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,9 +5977,8 @@
       <c r="C61" s="4">
         <v>-0.18</v>
       </c>
-      <c r="D61" t="str">
-        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D61" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3333,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4341,9 +6998,8 @@
       <c r="C67" s="4">
         <v>-0.1425724334282365</v>
       </c>
-      <c r="D67" t="str">
-        <f>IFERROR(VLOOKUP(A67,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D67" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,9 +7012,8 @@
       <c r="C68" s="4">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D68" t="str">
-        <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D68" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,9 +7026,8 @@
       <c r="C69" s="4">
         <v>-0.18</v>
       </c>
-      <c r="D69" t="str">
-        <f>IFERROR(VLOOKUP(A69,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D69" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4385,8 +7039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,9 +7072,8 @@
       <c r="C2" s="4">
         <v>-0.49372798371597798</v>
       </c>
-      <c r="D2" t="str">
-        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,9 +7086,8 @@
       <c r="C3" s="4">
         <v>-0.28117023281311571</v>
       </c>
-      <c r="D3" t="str">
-        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4448,9 +7100,8 @@
       <c r="C4" s="4">
         <v>-0.47860916003947268</v>
       </c>
-      <c r="D4" t="str">
-        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4463,9 +7114,8 @@
       <c r="C5" s="4">
         <v>-0.48798693725215819</v>
       </c>
-      <c r="D5" t="str">
-        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4478,9 +7128,8 @@
       <c r="C6" s="4">
         <v>-0.38330176574815161</v>
       </c>
-      <c r="D6" t="str">
-        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,9 +7142,8 @@
       <c r="C7" s="4">
         <v>-0.43016759776536317</v>
       </c>
-      <c r="D7" t="str">
-        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,9 +7156,8 @@
       <c r="C8" s="4">
         <v>-0.38717948717948691</v>
       </c>
-      <c r="D8" t="str">
-        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4523,9 +7170,8 @@
       <c r="C9" s="4">
         <v>-0.38097233864207869</v>
       </c>
-      <c r="D9" t="str">
-        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,9 +7184,8 @@
       <c r="C10" s="4">
         <v>-0.2832661478827902</v>
       </c>
-      <c r="D10" t="str">
-        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4553,9 +7198,8 @@
       <c r="C11" s="4">
         <v>-0.49681840430739072</v>
       </c>
-      <c r="D11" t="str">
-        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4568,9 +7212,8 @@
       <c r="C12" s="4">
         <v>-0.42205323193916372</v>
       </c>
-      <c r="D12" t="str">
-        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,9 +7226,8 @@
       <c r="C13" s="4">
         <v>-0.53283244133388241</v>
       </c>
-      <c r="D13" t="str">
-        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4598,9 +7240,8 @@
       <c r="C14" s="4">
         <v>-0.37903698605694519</v>
       </c>
-      <c r="D14" t="str">
-        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4613,9 +7254,8 @@
       <c r="C15" s="4">
         <v>-0.44690265486725539</v>
       </c>
-      <c r="D15" t="str">
-        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4628,9 +7268,8 @@
       <c r="C16" s="4">
         <v>-0.50970350404312614</v>
       </c>
-      <c r="D16" t="str">
-        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,9 +7282,8 @@
       <c r="C17" s="4">
         <v>-0.44748156075550272</v>
       </c>
-      <c r="D17" t="str">
-        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4658,9 +7296,8 @@
       <c r="C18" s="4">
         <v>-0.49272812573305141</v>
       </c>
-      <c r="D18" t="str">
-        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,9 +7310,8 @@
       <c r="C19" s="4">
         <v>-0.40849147635895833</v>
       </c>
-      <c r="D19" t="str">
-        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,9 +7324,8 @@
       <c r="C20" s="4">
         <v>-0.42563681183237512</v>
       </c>
-      <c r="D20" t="str">
-        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4703,9 +7338,8 @@
       <c r="C21" s="4">
         <v>-0.50341851602779675</v>
       </c>
-      <c r="D21" t="str">
-        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,9 +7352,8 @@
       <c r="C22" s="4">
         <v>-0.52842089695714878</v>
       </c>
-      <c r="D22" t="str">
-        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,9 +7366,8 @@
       <c r="C23" s="4">
         <v>-0.33339009024348731</v>
       </c>
-      <c r="D23" t="str">
-        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,9 +7380,8 @@
       <c r="C24" s="4">
         <v>-0.53179916317991671</v>
       </c>
-      <c r="D24" t="str">
-        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4763,9 +7394,8 @@
       <c r="C25" s="4">
         <v>-0.42998881600031369</v>
       </c>
-      <c r="D25" t="str">
-        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4778,9 +7408,8 @@
       <c r="C26" s="4">
         <v>-0.44885925916459868</v>
       </c>
-      <c r="D26" t="str">
-        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4793,9 +7422,8 @@
       <c r="C27" s="4">
         <v>-0.46561138249576989</v>
       </c>
-      <c r="D27" t="str">
-        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4808,9 +7436,8 @@
       <c r="C28" s="4">
         <v>-0.37647451591364389</v>
       </c>
-      <c r="D28" t="str">
-        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,9 +7450,8 @@
       <c r="C29" s="4">
         <v>-0.50222077781388808</v>
       </c>
-      <c r="D29" t="str">
-        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4838,9 +7464,8 @@
       <c r="C30" s="4">
         <v>-0.49483547292312219</v>
       </c>
-      <c r="D30" t="str">
-        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,9 +7478,8 @@
       <c r="C31" s="4">
         <v>-0.43180464562239462</v>
       </c>
-      <c r="D31" t="str">
-        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4868,9 +7492,8 @@
       <c r="C32" s="4">
         <v>-0.48798693725215819</v>
       </c>
-      <c r="D32" t="str">
-        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D32" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,9 +7506,8 @@
       <c r="C33" s="4">
         <v>-0.53222453222453259</v>
       </c>
-      <c r="D33" t="str">
-        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,9 +7520,8 @@
       <c r="C34" s="4">
         <v>-0.48288338435847461</v>
       </c>
-      <c r="D34" t="str">
-        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,9 +7534,8 @@
       <c r="C35" s="4">
         <v>-0.50163322445170344</v>
       </c>
-      <c r="D35" t="str">
-        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4928,9 +7548,8 @@
       <c r="C36" s="4">
         <v>-0.34999402664118029</v>
       </c>
-      <c r="D36" t="str">
-        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Closed End fund</v>
+      <c r="D36" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4943,9 +7562,8 @@
       <c r="C37" s="4">
         <v>-0.535246939636978</v>
       </c>
-      <c r="D37" t="str">
-        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D37" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,9 +7576,8 @@
       <c r="C38" s="4">
         <v>-0.41191275167785218</v>
       </c>
-      <c r="D38" t="str">
-        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D38" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4973,9 +7590,8 @@
       <c r="C39" s="4">
         <v>-0.43918918918918892</v>
       </c>
-      <c r="D39" t="str">
-        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4988,9 +7604,8 @@
       <c r="C40" s="4">
         <v>-0.37798279073893359</v>
       </c>
-      <c r="D40" t="str">
-        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5003,9 +7618,8 @@
       <c r="C41" s="4">
         <v>-0.41202822951825691</v>
       </c>
-      <c r="D41" t="str">
-        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,9 +7632,8 @@
       <c r="C42" s="4">
         <v>-0.41360079705732922</v>
       </c>
-      <c r="D42" t="str">
-        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,9 +7646,8 @@
       <c r="C43" s="4">
         <v>-0.36008492569002082</v>
       </c>
-      <c r="D43" t="str">
-        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5048,9 +7660,8 @@
       <c r="C44" s="4">
         <v>-0.40849147635895833</v>
       </c>
-      <c r="D44" t="str">
-        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,9 +7674,8 @@
       <c r="C45" s="4">
         <v>-0.42525597269624582</v>
       </c>
-      <c r="D45" t="str">
-        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,9 +7688,8 @@
       <c r="C46" s="4">
         <v>-0.43266045378206602</v>
       </c>
-      <c r="D46" t="str">
-        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5093,9 +7702,8 @@
       <c r="C47" s="4">
         <v>-0.32740573524199962</v>
       </c>
-      <c r="D47" t="str">
-        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D47" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5108,9 +7716,8 @@
       <c r="C48" s="4">
         <v>0</v>
       </c>
-      <c r="D48" t="str">
-        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5123,9 +7730,8 @@
       <c r="C49" s="4">
         <v>-0.32634865673570612</v>
       </c>
-      <c r="D49" t="str">
-        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D49" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5138,9 +7744,8 @@
       <c r="C50" s="4">
         <v>-0.33518287563972232</v>
       </c>
-      <c r="D50" t="str">
-        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5153,9 +7758,8 @@
       <c r="C51" s="4">
         <v>-0.4979593984171245</v>
       </c>
-      <c r="D51" t="str">
-        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5168,9 +7772,8 @@
       <c r="C52" s="4">
         <v>-0.36326073100507722</v>
       </c>
-      <c r="D52" t="str">
-        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -5183,9 +7786,8 @@
       <c r="C53" s="4">
         <v>-0.35351274112884029</v>
       </c>
-      <c r="D53" t="str">
-        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D53" t="s">
+        <v>89</v>
       </c>
       <c r="L53" s="1"/>
     </row>
@@ -5199,9 +7801,8 @@
       <c r="C54" s="4">
         <v>-0.49436069524432691</v>
       </c>
-      <c r="D54" t="str">
-        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5214,9 +7815,8 @@
       <c r="C55" s="4">
         <v>-0.2301169574110489</v>
       </c>
-      <c r="D55" t="str">
-        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -5229,9 +7829,8 @@
       <c r="C56" s="4">
         <v>-0.36972126964762642</v>
       </c>
-      <c r="D56" t="str">
-        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5244,9 +7843,8 @@
       <c r="C57" s="4">
         <v>-0.43457943925233711</v>
       </c>
-      <c r="D57" t="str">
-        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D57" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -5259,9 +7857,8 @@
       <c r="C58" s="4">
         <v>-0.44748156075550272</v>
       </c>
-      <c r="D58" t="str">
-        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5274,9 +7871,8 @@
       <c r="C59" s="4">
         <v>-0.22588846515226921</v>
       </c>
-      <c r="D59" t="str">
-        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D59" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5289,9 +7885,8 @@
       <c r="C60" s="4">
         <v>-0.39528670326914678</v>
       </c>
-      <c r="D60" t="str">
-        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D60" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -5304,9 +7899,8 @@
       <c r="C61" s="4">
         <v>-0.32417738644932081</v>
       </c>
-      <c r="D61" t="str">
-        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D61" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5319,9 +7913,8 @@
       <c r="C62" s="4">
         <v>-0.38204583880438969</v>
       </c>
-      <c r="D62" t="str">
-        <f>IFERROR(VLOOKUP(A62,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D62" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5334,9 +7927,8 @@
       <c r="C63" s="4">
         <v>-0.30065528094525579</v>
       </c>
-      <c r="D63" t="str">
-        <f>IFERROR(VLOOKUP(A63,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D63" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -5349,9 +7941,8 @@
       <c r="C64" s="4">
         <v>-0.34240510022466669</v>
       </c>
-      <c r="D64" t="str">
-        <f>IFERROR(VLOOKUP(A64,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,9 +7955,8 @@
       <c r="C65" s="4">
         <v>-0.41175716395312312</v>
       </c>
-      <c r="D65" t="str">
-        <f>IFERROR(VLOOKUP(A65,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D65" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,9 +7969,8 @@
       <c r="C66" s="4">
         <v>-0.34651997637187459</v>
       </c>
-      <c r="D66" t="str">
-        <f>IFERROR(VLOOKUP(A66,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D66" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -5394,9 +7983,8 @@
       <c r="C67" s="4">
         <v>-0.39118411955339211</v>
       </c>
-      <c r="D67" t="str">
-        <f>IFERROR(VLOOKUP(A67,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D67" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -5409,9 +7997,8 @@
       <c r="C68" s="4">
         <v>-0.31495600579164279</v>
       </c>
-      <c r="D68" t="str">
-        <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D68" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -5424,9 +8011,8 @@
       <c r="C69" s="4">
         <v>-0.40487382483918882</v>
       </c>
-      <c r="D69" t="str">
-        <f>IFERROR(VLOOKUP(A69,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D69" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,9 +8025,8 @@
       <c r="C70" s="4">
         <v>-0.39393457398865378</v>
       </c>
-      <c r="D70" t="str">
-        <f>IFERROR(VLOOKUP(A70,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D70" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -5454,9 +8039,8 @@
       <c r="C71" s="4">
         <v>-0.40342934899939192</v>
       </c>
-      <c r="D71" t="str">
-        <f>IFERROR(VLOOKUP(A71,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D71" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,9 +8053,8 @@
       <c r="C72" s="4">
         <v>-0.06</v>
       </c>
-      <c r="D72" t="str">
-        <f>IFERROR(VLOOKUP(A72,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D72" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,9 +8067,8 @@
       <c r="C73" s="4">
         <v>-0.1153</v>
       </c>
-      <c r="D73" t="str">
-        <f>IFERROR(VLOOKUP(A73,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D73" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,9 +8081,8 @@
       <c r="C74" s="4">
         <v>-0.2</v>
       </c>
-      <c r="D74" t="str">
-        <f>IFERROR(VLOOKUP(A74,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D74" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,9 +8095,8 @@
       <c r="C75" s="4">
         <v>-0.18</v>
       </c>
-      <c r="D75" t="str">
-        <f>IFERROR(VLOOKUP(A75,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D75" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5529,8 +8109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D43" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5562,9 +8142,8 @@
       <c r="C2" s="4">
         <v>-0.25944781672214551</v>
       </c>
-      <c r="D2" t="str">
-        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5577,9 +8156,8 @@
       <c r="C3" s="4">
         <v>-0.13832537046022919</v>
       </c>
-      <c r="D3" t="str">
-        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5592,9 +8170,8 @@
       <c r="C4" s="4">
         <v>-0.16024104636033759</v>
       </c>
-      <c r="D4" t="str">
-        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,9 +8184,8 @@
       <c r="C5" s="4">
         <v>-0.2356020942408375</v>
       </c>
-      <c r="D5" t="str">
-        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5622,9 +8198,8 @@
       <c r="C6" s="4">
         <v>-0.14738189186306919</v>
       </c>
-      <c r="D6" t="str">
-        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5637,9 +8212,8 @@
       <c r="C7" s="4">
         <v>-0.18698060941828229</v>
       </c>
-      <c r="D7" t="str">
-        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5652,9 +8226,8 @@
       <c r="C8" s="4">
         <v>-0.17671868409953601</v>
       </c>
-      <c r="D8" t="str">
-        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,9 +8240,8 @@
       <c r="C9" s="4">
         <v>-0.14733143967708209</v>
       </c>
-      <c r="D9" t="str">
-        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,9 +8254,8 @@
       <c r="C10" s="4">
         <v>-0.1394029772036785</v>
       </c>
-      <c r="D10" t="str">
-        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5697,9 +8268,8 @@
       <c r="C11" s="4">
         <v>-0.18068331143232569</v>
       </c>
-      <c r="D11" t="str">
-        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5712,9 +8282,8 @@
       <c r="C12" s="4">
         <v>-0.16016521340064291</v>
       </c>
-      <c r="D12" t="str">
-        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,9 +8296,8 @@
       <c r="C13" s="4">
         <v>-0.26344252163164428</v>
       </c>
-      <c r="D13" t="str">
-        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,9 +8310,8 @@
       <c r="C14" s="4">
         <v>-0.19218409104310369</v>
       </c>
-      <c r="D14" t="str">
-        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,9 +8324,8 @@
       <c r="C15" s="4">
         <v>-0.21240199572345009</v>
       </c>
-      <c r="D15" t="str">
-        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5772,9 +8338,8 @@
       <c r="C16" s="4">
         <v>-0.2378269617706241</v>
       </c>
-      <c r="D16" t="str">
-        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5787,9 +8352,8 @@
       <c r="C17" s="4">
         <v>-0.21852941983495389</v>
       </c>
-      <c r="D17" t="str">
-        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,9 +8366,8 @@
       <c r="C18" s="4">
         <v>-0.24083150245056631</v>
       </c>
-      <c r="D18" t="str">
-        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5817,9 +8380,8 @@
       <c r="C19" s="4">
         <v>-0.17998506348020921</v>
       </c>
-      <c r="D19" t="str">
-        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5832,9 +8394,8 @@
       <c r="C20" s="4">
         <v>-0.18375634517766451</v>
       </c>
-      <c r="D20" t="str">
-        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5847,9 +8408,8 @@
       <c r="C21" s="4">
         <v>-0.17093090488580559</v>
       </c>
-      <c r="D21" t="str">
-        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5862,9 +8422,8 @@
       <c r="C22" s="4">
         <v>-0.24762513604615499</v>
       </c>
-      <c r="D22" t="str">
-        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5877,9 +8436,8 @@
       <c r="C23" s="4">
         <v>-0.16553688967482069</v>
       </c>
-      <c r="D23" t="str">
-        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,9 +8450,8 @@
       <c r="C24" s="4">
         <v>-0.17767106842737071</v>
       </c>
-      <c r="D24" t="str">
-        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,9 +8464,8 @@
       <c r="C25" s="4">
         <v>-0.15272909364046031</v>
       </c>
-      <c r="D25" t="str">
-        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,9 +8478,8 @@
       <c r="C26" s="4">
         <v>-0.17097236055776879</v>
       </c>
-      <c r="D26" t="str">
-        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5937,9 +8492,8 @@
       <c r="C27" s="4">
         <v>-0.16833590921706951</v>
       </c>
-      <c r="D27" t="str">
-        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5952,9 +8506,8 @@
       <c r="C28" s="4">
         <v>-0.16758994949653391</v>
       </c>
-      <c r="D28" t="str">
-        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5967,9 +8520,8 @@
       <c r="C29" s="4">
         <v>-0.16216851423870851</v>
       </c>
-      <c r="D29" t="str">
-        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5982,9 +8534,8 @@
       <c r="C30" s="4">
         <v>-0.17052485227667699</v>
       </c>
-      <c r="D30" t="str">
-        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5997,9 +8548,8 @@
       <c r="C31" s="4">
         <v>-0.1671863536316939</v>
       </c>
-      <c r="D31" t="str">
-        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,9 +8562,8 @@
       <c r="C32" s="4">
         <v>-0.17491289198606261</v>
       </c>
-      <c r="D32" t="str">
-        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,9 +8576,8 @@
       <c r="C33" s="4">
         <v>-0.2356020942408375</v>
       </c>
-      <c r="D33" t="str">
-        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6042,9 +8590,8 @@
       <c r="C34" s="4">
         <v>-0.25893958076448881</v>
       </c>
-      <c r="D34" t="str">
-        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -6057,9 +8604,8 @@
       <c r="C35" s="4">
         <v>-0.20352781546811399</v>
       </c>
-      <c r="D35" t="str">
-        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6072,9 +8618,8 @@
       <c r="C36" s="4">
         <v>-0.24915635545556769</v>
       </c>
-      <c r="D36" t="str">
-        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D36" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6087,9 +8632,8 @@
       <c r="C37" s="4">
         <v>-0.14070709769347181</v>
       </c>
-      <c r="D37" t="str">
-        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Closed End fund</v>
+      <c r="D37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,9 +8646,8 @@
       <c r="C38" s="4">
         <v>-0.2142142142142141</v>
       </c>
-      <c r="D38" t="str">
-        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D38" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6117,9 +8660,8 @@
       <c r="C39" s="4">
         <v>-0.1901815736381974</v>
       </c>
-      <c r="D39" t="str">
-        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6132,9 +8674,8 @@
       <c r="C40" s="4">
         <v>-0.1935986404192038</v>
       </c>
-      <c r="D40" t="str">
-        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6147,9 +8688,8 @@
       <c r="C41" s="4">
         <v>-0.20699995084304171</v>
       </c>
-      <c r="D41" t="str">
-        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,9 +8702,8 @@
       <c r="C42" s="4">
         <v>-0.19481568512263239</v>
       </c>
-      <c r="D42" t="str">
-        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,9 +8716,8 @@
       <c r="C43" s="4">
         <v>-0.1991037034790257</v>
       </c>
-      <c r="D43" t="str">
-        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6192,9 +8730,8 @@
       <c r="C44" s="4">
         <v>-0.16861598440545841</v>
       </c>
-      <c r="D44" t="str">
-        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6207,9 +8744,8 @@
       <c r="C45" s="4">
         <v>-0.17998506348020921</v>
       </c>
-      <c r="D45" t="str">
-        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,9 +8758,8 @@
       <c r="C46" s="4">
         <v>-0.18396624472573861</v>
       </c>
-      <c r="D46" t="str">
-        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6237,9 +8772,8 @@
       <c r="C47" s="4">
         <v>-0.16190974493132729</v>
       </c>
-      <c r="D47" t="str">
-        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D47" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6252,9 +8786,8 @@
       <c r="C48" s="4">
         <v>-0.15910654274008071</v>
       </c>
-      <c r="D48" t="str">
-        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6267,9 +8800,8 @@
       <c r="C49" s="4">
         <v>0</v>
       </c>
-      <c r="D49" t="str">
-        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D49" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6282,9 +8814,8 @@
       <c r="C50" s="4">
         <v>-0.13866017574294989</v>
       </c>
-      <c r="D50" t="str">
-        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6297,9 +8828,8 @@
       <c r="C51" s="4">
         <v>-0.1548814748168412</v>
       </c>
-      <c r="D51" t="str">
-        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,9 +8842,8 @@
       <c r="C52" s="4">
         <v>-0.1836521958872526</v>
       </c>
-      <c r="D52" t="str">
-        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,9 +8856,8 @@
       <c r="C53" s="4">
         <v>-0.1845664298126708</v>
       </c>
-      <c r="D53" t="str">
-        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D53" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6342,9 +8870,8 @@
       <c r="C54" s="4">
         <v>-0.15962110142590841</v>
       </c>
-      <c r="D54" t="str">
-        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6357,9 +8884,8 @@
       <c r="C55" s="4">
         <v>-0.18632305568338681</v>
       </c>
-      <c r="D55" t="str">
-        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6372,9 +8898,8 @@
       <c r="C56" s="4">
         <v>-0.11178540602941869</v>
       </c>
-      <c r="D56" t="str">
-        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,9 +8912,8 @@
       <c r="C57" s="4">
         <v>-0.1265899454875834</v>
       </c>
-      <c r="D57" t="str">
-        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D57" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6402,9 +8926,8 @@
       <c r="C58" s="4">
         <v>-0.1611650485436891</v>
       </c>
-      <c r="D58" t="str">
-        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D58" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6417,9 +8940,8 @@
       <c r="C59" s="4">
         <v>-0.1740365651871377</v>
       </c>
-      <c r="D59" t="str">
-        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D59" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -6432,9 +8954,8 @@
       <c r="C60" s="4">
         <v>-0.1136040088833212</v>
       </c>
-      <c r="D60" t="str">
-        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D60" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,9 +8968,8 @@
       <c r="C61" s="4">
         <v>-0.15995964424315429</v>
       </c>
-      <c r="D61" t="str">
-        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D61" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6462,9 +8982,8 @@
       <c r="C62" s="4">
         <v>-0.17320647020235469</v>
       </c>
-      <c r="D62" t="str">
-        <f>IFERROR(VLOOKUP(A62,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D62" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6477,9 +8996,8 @@
       <c r="C63" s="4">
         <v>-0.1467476649382374</v>
       </c>
-      <c r="D63" t="str">
-        <f>IFERROR(VLOOKUP(A63,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D63" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,9 +9010,8 @@
       <c r="C64" s="4">
         <v>-0.12083028338387571</v>
       </c>
-      <c r="D64" t="str">
-        <f>IFERROR(VLOOKUP(A64,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D64" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6507,9 +9024,8 @@
       <c r="C65" s="4">
         <v>-0.17649426203379001</v>
       </c>
-      <c r="D65" t="str">
-        <f>IFERROR(VLOOKUP(A65,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D65" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,9 +9038,8 @@
       <c r="C66" s="4">
         <v>-0.19910370347902559</v>
       </c>
-      <c r="D66" t="str">
-        <f>IFERROR(VLOOKUP(A66,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D66" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6537,9 +9052,8 @@
       <c r="C67" s="4">
         <v>-0.1355558168526676</v>
       </c>
-      <c r="D67" t="str">
-        <f>IFERROR(VLOOKUP(A67,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D67" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6552,9 +9066,8 @@
       <c r="C68" s="4">
         <v>-0.17690677646562031</v>
       </c>
-      <c r="D68" t="str">
-        <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D68" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6567,9 +9080,8 @@
       <c r="C69" s="4">
         <v>-0.1229192110749016</v>
       </c>
-      <c r="D69" t="str">
-        <f>IFERROR(VLOOKUP(A69,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D69" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -6582,9 +9094,8 @@
       <c r="C70" s="4">
         <v>-0.13374297921367201</v>
       </c>
-      <c r="D70" t="str">
-        <f>IFERROR(VLOOKUP(A70,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D70" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,9 +9108,8 @@
       <c r="C71" s="4">
         <v>-0.1525894152526335</v>
       </c>
-      <c r="D71" t="str">
-        <f>IFERROR(VLOOKUP(A71,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D71" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -6612,9 +9122,8 @@
       <c r="C72" s="4">
         <v>-0.1744761140104378</v>
       </c>
-      <c r="D72" t="str">
-        <f>IFERROR(VLOOKUP(A72,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D72" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -6627,9 +9136,8 @@
       <c r="C73" s="4">
         <v>-0.02</v>
       </c>
-      <c r="D73" t="str">
-        <f>IFERROR(VLOOKUP(A73,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D73" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6642,9 +9150,8 @@
       <c r="C74" s="4">
         <v>-6.7100000000000007E-2</v>
       </c>
-      <c r="D74" t="str">
-        <f>IFERROR(VLOOKUP(A74,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D74" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,9 +9164,8 @@
       <c r="C75" s="4">
         <v>-8.2400000000000001E-2</v>
       </c>
-      <c r="D75" t="str">
-        <f>IFERROR(VLOOKUP(A75,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D75" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -6672,9 +9178,8 @@
       <c r="C76" s="4">
         <v>-0.18</v>
       </c>
-      <c r="D76" t="str">
-        <f>IFERROR(VLOOKUP(A76,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D76" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6686,8 +9191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6714,14 +9219,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>-7.1530995806587644E-2</v>
+        <v>-8.8253256927823723E-2</v>
       </c>
       <c r="C2" s="4">
-        <v>-0.18057553956834549</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.18057553956834599</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6729,14 +9233,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>7.4066098083553841E-2</v>
+        <v>7.3742665340830904E-2</v>
       </c>
       <c r="C3" s="4">
         <v>-3.804046213611826E-2</v>
       </c>
-      <c r="D3" t="str">
-        <f>IFERROR(VLOOKUP(A3,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6744,14 +9247,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>0.1121622897434915</v>
+        <v>0.11167249808522289</v>
       </c>
       <c r="C4" s="4">
         <v>-9.8870056497175229E-2</v>
       </c>
-      <c r="D4" t="str">
-        <f>IFERROR(VLOOKUP(A4,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6759,14 +9261,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>-4.20641493522508E-2</v>
+        <v>-4.1215412739130028E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>-0.19209456963428109</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.1920945696342812</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,14 +9275,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>7.0388980794536884E-2</v>
+        <v>7.0081605332552005E-2</v>
       </c>
       <c r="C6" s="4">
         <v>-0.12767724300197211</v>
       </c>
-      <c r="D6" t="str">
-        <f>IFERROR(VLOOKUP(A6,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,14 +9289,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>0.1164593155432288</v>
+        <v>0.1108639952601763</v>
       </c>
       <c r="C7" s="4">
-        <v>-9.7595473833097399E-2</v>
-      </c>
-      <c r="D7" t="str">
-        <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-9.7595473833097662E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,14 +9303,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>0.17068343066650199</v>
+        <v>0.1634737064050123</v>
       </c>
       <c r="C8" s="4">
-        <v>-0.11193737769080191</v>
-      </c>
-      <c r="D8" t="str">
-        <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1119373776908025</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6819,14 +9317,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>7.0413280427556624E-2</v>
+        <v>7.0105798853637158E-2</v>
       </c>
       <c r="C9" s="4">
         <v>-0.12764641687886469</v>
       </c>
-      <c r="D9" t="str">
-        <f>IFERROR(VLOOKUP(A9,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6834,14 +9331,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>6.896837592502382E-2</v>
+        <v>6.8667203977752972E-2</v>
       </c>
       <c r="C10" s="4">
         <v>-3.8842204629559833E-2</v>
       </c>
-      <c r="D10" t="str">
-        <f>IFERROR(VLOOKUP(A10,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,14 +9345,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>0.15328051136780729</v>
+        <v>0.14872818363004961</v>
       </c>
       <c r="C11" s="4">
-        <v>-0.1151477832512313</v>
-      </c>
-      <c r="D11" t="str">
-        <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1151477832512314</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6864,14 +9359,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>0.18526604770156219</v>
+        <v>0.19012062154814591</v>
       </c>
       <c r="C12" s="4">
-        <v>-8.4182543198936394E-2</v>
-      </c>
-      <c r="D12" t="str">
-        <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-8.4182543198936644E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6879,14 +9373,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>-8.072779071437837E-2</v>
+        <v>-9.100072654775121E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>-0.17903556771545859</v>
-      </c>
-      <c r="D13" t="str">
-        <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.1790355677154582</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6894,14 +9387,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>0.1542154823971694</v>
+        <v>0.15427100644191619</v>
       </c>
       <c r="C14" s="4">
-        <v>-0.1215993262506805</v>
-      </c>
-      <c r="D14" t="str">
-        <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.12159932625068109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6909,14 +9401,13 @@
         <v>70</v>
       </c>
       <c r="B15" s="4">
-        <v>2.322385819444427E-3</v>
+        <v>-4.9499203503845898E-4</v>
       </c>
       <c r="C15" s="4">
-        <v>-0.1252918287937759</v>
-      </c>
-      <c r="D15" t="str">
-        <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.12529182879377551</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6924,14 +9415,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>-8.4698725775862571E-2</v>
+        <v>-8.3805343466685417E-2</v>
       </c>
       <c r="C16" s="4">
-        <v>-0.1706401766004417</v>
-      </c>
-      <c r="D16" t="str">
-        <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.17064017660044101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6939,14 +9429,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32618944672837807</v>
+        <v>0.32696003279644559</v>
       </c>
       <c r="C17" s="4">
-        <v>-0.1493354938644692</v>
-      </c>
-      <c r="D17" t="str">
-        <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.14933549386446909</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,14 +9443,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>-3.8926758047683849E-2</v>
+        <v>-4.2316615896464883E-2</v>
       </c>
       <c r="C18" s="4">
         <v>-0.19027287915351729</v>
       </c>
-      <c r="D18" t="str">
-        <f>IFERROR(VLOOKUP(A18,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6969,14 +9457,13 @@
         <v>64</v>
       </c>
       <c r="B19" s="4">
-        <v>6.2573967623263047E-2</v>
+        <v>6.230071885634924E-2</v>
       </c>
       <c r="C19" s="4">
         <v>-0.12061403508771899</v>
       </c>
-      <c r="D19" t="str">
-        <f>IFERROR(VLOOKUP(A19,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,14 +9471,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>0.1280713029826539</v>
+        <v>0.1287975965214391</v>
       </c>
       <c r="C20" s="4">
-        <v>-0.1017119838872102</v>
-      </c>
-      <c r="D20" t="str">
-        <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.10171198388721001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6999,14 +9485,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>6.2754057177597342E-2</v>
+        <v>6.2480021993415708E-2</v>
       </c>
       <c r="C21" s="4">
         <v>-0.1044978259319978</v>
       </c>
-      <c r="D21" t="str">
-        <f>IFERROR(VLOOKUP(A21,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7014,14 +9499,13 @@
         <v>71</v>
       </c>
       <c r="B22" s="4">
-        <v>-4.2738722401463147E-2</v>
+        <v>-5.689939575355845E-2</v>
       </c>
       <c r="C22" s="4">
-        <v>-0.16201489611916839</v>
-      </c>
-      <c r="D22" t="str">
-        <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.16201284748139511</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7029,14 +9513,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>0.16291457881619081</v>
+        <v>0.17069683792979701</v>
       </c>
       <c r="C23" s="4">
         <v>-6.1389783709157798E-2</v>
       </c>
-      <c r="D23" t="str">
-        <f>IFERROR(VLOOKUP(A23,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,14 +9527,13 @@
         <v>75</v>
       </c>
       <c r="B24" s="4">
-        <v>0.19633646869200561</v>
+        <v>0.19401185529160381</v>
       </c>
       <c r="C24" s="4">
-        <v>-8.4490740740740616E-2</v>
-      </c>
-      <c r="D24" t="str">
-        <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-8.4490740740740491E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,14 +9541,13 @@
         <v>65</v>
       </c>
       <c r="B25" s="4">
-        <v>0.17018174115397569</v>
+        <v>0.1664563762176339</v>
       </c>
       <c r="C25" s="4">
-        <v>-9.4313453536754827E-2</v>
-      </c>
-      <c r="D25" t="str">
-        <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-9.4313453536754924E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7074,14 +9555,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="4">
-        <v>0.14932899871324251</v>
+        <v>0.14999086126204081</v>
       </c>
       <c r="C26" s="4">
-        <v>-0.1296652155380236</v>
-      </c>
-      <c r="D26" t="str">
-        <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.12966521553802379</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7089,14 +9569,13 @@
         <v>76</v>
       </c>
       <c r="B27" s="4">
-        <v>4.7030919717570382E-2</v>
+        <v>4.3868853270131493E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>-0.1236268683594454</v>
-      </c>
-      <c r="D27" t="str">
-        <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1236268683594452</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,14 +9583,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="4">
-        <v>0.1389028561056363</v>
+        <v>0.13455293872327409</v>
       </c>
       <c r="C28" s="4">
-        <v>-0.1078413696625684</v>
-      </c>
-      <c r="D28" t="str">
-        <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1078413696625677</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,14 +9597,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>0.209709474022584</v>
+        <v>0.21099899605759501</v>
       </c>
       <c r="C29" s="4">
-        <v>-9.9699866476030671E-2</v>
-      </c>
-      <c r="D29" t="str">
-        <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-9.9699866476030727E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7134,14 +9611,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>0.17457073741214521</v>
+        <v>0.1738084197815245</v>
       </c>
       <c r="C30" s="4">
         <v>-0.16254055579066159</v>
       </c>
-      <c r="D30" t="str">
-        <f>IFERROR(VLOOKUP(A30,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7149,14 +9625,13 @@
         <v>77</v>
       </c>
       <c r="B31" s="4">
-        <v>8.5526774574108747E-2</v>
+        <v>8.5153295209156307E-2</v>
       </c>
       <c r="C31" s="4">
         <v>-0.12700559414766091</v>
       </c>
-      <c r="D31" t="str">
-        <f>IFERROR(VLOOKUP(A31,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -7164,14 +9639,13 @@
         <v>78</v>
       </c>
       <c r="B32" s="4">
-        <v>0.1122855131982699</v>
+        <v>0.1117951834463124</v>
       </c>
       <c r="C32" s="4">
         <v>-0.12126888217522661</v>
       </c>
-      <c r="D32" t="str">
-        <f>IFERROR(VLOOKUP(A32,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7179,14 +9653,13 @@
         <v>58</v>
       </c>
       <c r="B33" s="4">
-        <v>6.7116099735199136E-2</v>
+        <v>6.6823016330241944E-2</v>
       </c>
       <c r="C33" s="4">
         <v>-0.1043847048361722</v>
       </c>
-      <c r="D33" t="str">
-        <f>IFERROR(VLOOKUP(A33,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D33" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,14 +9667,13 @@
         <v>72</v>
       </c>
       <c r="B34" s="4">
-        <v>9.4798246833276159E-2</v>
+        <v>9.4384280689899402E-2</v>
       </c>
       <c r="C34" s="4">
         <v>-0.1007015362756417</v>
       </c>
-      <c r="D34" t="str">
-        <f>IFERROR(VLOOKUP(A34,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,14 +9681,13 @@
         <v>79</v>
       </c>
       <c r="B35" s="4">
-        <v>-8.8798708688729328E-2</v>
+        <v>-8.7251366395321883E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>-0.18403115871470321</v>
-      </c>
-      <c r="D35" t="str">
-        <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.18403115871470249</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,14 +9695,13 @@
         <v>66</v>
       </c>
       <c r="B36" s="4">
-        <v>0.1143438821890637</v>
+        <v>0.1086822339126749</v>
       </c>
       <c r="C36" s="4">
         <v>-0.12903225806451599</v>
       </c>
-      <c r="D36" t="str">
-        <f>IFERROR(VLOOKUP(A36,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D36" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7239,14 +9709,13 @@
         <v>25</v>
       </c>
       <c r="B37" s="4">
-        <v>-4.20641493522508E-2</v>
+        <v>-4.1215412739130028E-2</v>
       </c>
       <c r="C37" s="4">
-        <v>-0.19209456963428109</v>
-      </c>
-      <c r="D37" t="str">
-        <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.1920945696342812</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,14 +9723,13 @@
         <v>26</v>
       </c>
       <c r="B38" s="4">
-        <v>-7.7081824423144069E-2</v>
+        <v>-9.8504131682190521E-2</v>
       </c>
       <c r="C38" s="4">
-        <v>-0.16747070985527071</v>
-      </c>
-      <c r="D38" t="str">
-        <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.1674707098552714</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,14 +9737,13 @@
         <v>27</v>
       </c>
       <c r="B39" s="4">
-        <v>0.20175920658638541</v>
+        <v>0.19259485993693179</v>
       </c>
       <c r="C39" s="4">
         <v>-0.12689699709396221</v>
       </c>
-      <c r="D39" t="str">
-        <f>IFERROR(VLOOKUP(A39,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,14 +9751,13 @@
         <v>59</v>
       </c>
       <c r="B40" s="4">
-        <v>-7.1421917861149195E-2</v>
+        <v>-6.8577797447761102E-2</v>
       </c>
       <c r="C40" s="4">
-        <v>-0.15731370745170181</v>
-      </c>
-      <c r="D40" t="str">
-        <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-0.15731370745170131</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -7299,14 +9765,13 @@
         <v>28</v>
       </c>
       <c r="B41" s="4">
-        <v>-1.67993744053626E-2</v>
+        <v>-4.5185584033768628E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>-0.16538406613458609</v>
-      </c>
-      <c r="D41" t="str">
-        <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Closed End fund</v>
+        <v>-0.16538406613458559</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -7314,14 +9779,13 @@
         <v>29</v>
       </c>
       <c r="B42" s="4">
-        <v>0.18372692734201909</v>
+        <v>0.20137506172305311</v>
       </c>
       <c r="C42" s="4">
         <v>-9.3314093314093197E-2</v>
       </c>
-      <c r="D42" t="str">
-        <f>IFERROR(VLOOKUP(A42,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+      <c r="D42" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -7329,14 +9793,13 @@
         <v>67</v>
       </c>
       <c r="B43" s="4">
-        <v>0.1174215503112339</v>
+        <v>0.11065256954619231</v>
       </c>
       <c r="C43" s="4">
-        <v>-0.12298827736936239</v>
-      </c>
-      <c r="D43" t="str">
-        <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1229882773693623</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -7344,14 +9807,13 @@
         <v>30</v>
       </c>
       <c r="B44" s="4">
-        <v>0.15481098506132679</v>
+        <v>0.15413495455887569</v>
       </c>
       <c r="C44" s="4">
         <v>-0.18340121353170991</v>
       </c>
-      <c r="D44" t="str">
-        <f>IFERROR(VLOOKUP(A44,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -7359,14 +9821,13 @@
         <v>31</v>
       </c>
       <c r="B45" s="4">
-        <v>8.1321548341420316E-2</v>
+        <v>7.5886857798389953E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>-0.1347453160189756</v>
-      </c>
-      <c r="D45" t="str">
-        <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1347453160189753</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -7374,14 +9835,13 @@
         <v>32</v>
       </c>
       <c r="B46" s="4">
-        <v>0.1146231778230333</v>
+        <v>0.11119523884192289</v>
       </c>
       <c r="C46" s="4">
         <v>-0.1124412141941003</v>
       </c>
-      <c r="D46" t="str">
-        <f>IFERROR(VLOOKUP(A46,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -7389,14 +9849,13 @@
         <v>33</v>
       </c>
       <c r="B47" s="4">
-        <v>0.2307844091818578</v>
+        <v>0.22136778315519279</v>
       </c>
       <c r="C47" s="4">
-        <v>-0.1090106019599611</v>
-      </c>
-      <c r="D47" t="str">
-        <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1090106019599604</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,14 +9863,13 @@
         <v>80</v>
       </c>
       <c r="B48" s="4">
-        <v>-0.14746549823158739</v>
+        <v>-0.14682154409083811</v>
       </c>
       <c r="C48" s="4">
         <v>-0.1724137931034487</v>
       </c>
-      <c r="D48" t="str">
-        <f>IFERROR(VLOOKUP(A48,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -7419,14 +9877,13 @@
         <v>34</v>
       </c>
       <c r="B49" s="4">
-        <v>0.20978092354267119</v>
+        <v>0.2053016439810855</v>
       </c>
       <c r="C49" s="4">
-        <v>-9.8720292504570581E-2</v>
-      </c>
-      <c r="D49" t="str">
-        <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-9.8720292504570262E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -7434,14 +9891,13 @@
         <v>68</v>
       </c>
       <c r="B50" s="4">
-        <v>6.2573967623263047E-2</v>
+        <v>6.230071885634924E-2</v>
       </c>
       <c r="C50" s="4">
         <v>-0.12061403508771899</v>
       </c>
-      <c r="D50" t="str">
-        <f>IFERROR(VLOOKUP(A50,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -7449,14 +9905,13 @@
         <v>35</v>
       </c>
       <c r="B51" s="4">
-        <v>0.12844004430909919</v>
+        <v>0.12894859415571311</v>
       </c>
       <c r="C51" s="4">
         <v>-0.10134003350083751</v>
       </c>
-      <c r="D51" t="str">
-        <f>IFERROR(VLOOKUP(A51,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -7464,14 +9919,13 @@
         <v>60</v>
       </c>
       <c r="B52" s="4">
-        <v>3.7179188102452451E-2</v>
+        <v>3.7016833569253969E-2</v>
       </c>
       <c r="C52" s="4">
         <v>-0.13658851005767561</v>
       </c>
-      <c r="D52" t="str">
-        <f>IFERROR(VLOOKUP(A52,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,14 +9933,13 @@
         <v>36</v>
       </c>
       <c r="B53" s="4">
-        <v>0.187020349903226</v>
+        <v>0.1862036671525569</v>
       </c>
       <c r="C53" s="4">
         <v>-0.17664698894126679</v>
       </c>
-      <c r="D53" t="str">
-        <f>IFERROR(VLOOKUP(A53,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D53" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -7494,14 +9947,13 @@
         <v>73</v>
       </c>
       <c r="B54" s="4">
-        <v>0.26728723169230961</v>
+        <v>0.26676650949249092</v>
       </c>
       <c r="C54" s="4">
-        <v>-7.6441977588037016E-2</v>
-      </c>
-      <c r="D54" t="str">
-        <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-7.6441977588036059E-2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -7509,14 +9961,13 @@
         <v>38</v>
       </c>
       <c r="B55" s="4">
-        <v>0.1842619554455911</v>
+        <v>0.1834573180855667</v>
       </c>
       <c r="C55" s="4">
         <v>-0.17333686296892351</v>
       </c>
-      <c r="D55" t="str">
-        <f>IFERROR(VLOOKUP(A55,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D55" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -7524,14 +9975,13 @@
         <v>81</v>
       </c>
       <c r="B56" s="4">
-        <v>0.1458802048712218</v>
+        <v>0.145243173408902</v>
       </c>
       <c r="C56" s="4">
         <v>-0.104404065291038</v>
       </c>
-      <c r="D56" t="str">
-        <f>IFERROR(VLOOKUP(A56,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,14 +9989,13 @@
         <v>39</v>
       </c>
       <c r="B57" s="4">
-        <v>0.1001678010842614</v>
+        <v>9.9520161956782816E-2</v>
       </c>
       <c r="C57" s="4">
-        <v>-0.1457111919696413</v>
-      </c>
-      <c r="D57" t="str">
-        <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.145711191969641</v>
+      </c>
+      <c r="D57" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -7554,14 +10003,13 @@
         <v>40</v>
       </c>
       <c r="B58" s="4">
-        <v>8.7028456160851947E-2</v>
+        <v>9.4068920575336265E-2</v>
       </c>
       <c r="C58" s="4">
-        <v>-0.1112807624400963</v>
-      </c>
-      <c r="D58" t="str">
-        <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.11128076244009651</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -7574,9 +10022,8 @@
       <c r="C59" s="4">
         <v>0</v>
       </c>
-      <c r="D59" t="str">
-        <f>IFERROR(VLOOKUP(A59,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D59" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -7584,14 +10031,13 @@
         <v>42</v>
       </c>
       <c r="B60" s="4">
-        <v>0.20315049534577009</v>
+        <v>0.20226337527875801</v>
       </c>
       <c r="C60" s="4">
         <v>-0.17154670491941601</v>
       </c>
-      <c r="D60" t="str">
-        <f>IFERROR(VLOOKUP(A60,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D60" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -7599,14 +10045,13 @@
         <v>43</v>
       </c>
       <c r="B61" s="4">
-        <v>8.9848777179408784E-2</v>
+        <v>8.9191453296704887E-2</v>
       </c>
       <c r="C61" s="4">
-        <v>-0.1464756950425464</v>
-      </c>
-      <c r="D61" t="str">
-        <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.14647569504254729</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,14 +10059,13 @@
         <v>44</v>
       </c>
       <c r="B62" s="4">
-        <v>0.18005621459453439</v>
+        <v>0.18490047341893079</v>
       </c>
       <c r="C62" s="4">
-        <v>-5.8673803550686909E-2</v>
-      </c>
-      <c r="D62" t="str">
-        <f>IFERROR(VLOOKUP(A62,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-5.8673803550686597E-2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -7629,14 +10073,13 @@
         <v>74</v>
       </c>
       <c r="B63" s="4">
-        <v>0.21712317909528681</v>
+        <v>0.22600017415970439</v>
       </c>
       <c r="C63" s="4">
-        <v>-8.9128954803471425E-2</v>
-      </c>
-      <c r="D63" t="str">
-        <f>IFERROR(VLOOKUP(A63,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-8.9128954803471397E-2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -7644,14 +10087,13 @@
         <v>82</v>
       </c>
       <c r="B64" s="4">
-        <v>5.0281044229021611E-2</v>
+        <v>5.0061476350292261E-2</v>
       </c>
       <c r="C64" s="4">
         <v>-0.1130434782608698</v>
       </c>
-      <c r="D64" t="str">
-        <f>IFERROR(VLOOKUP(A64,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Closed End fund</v>
+      <c r="D64" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -7659,14 +10101,13 @@
         <v>69</v>
       </c>
       <c r="B65" s="4">
-        <v>0.1901343775486832</v>
+        <v>0.18063924066635739</v>
       </c>
       <c r="C65" s="4">
-        <v>-7.4074074074073903E-2</v>
-      </c>
-      <c r="D65" t="str">
-        <f>IFERROR(VLOOKUP(A65,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>ETF</v>
+        <v>-7.4074074074073862E-2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -7674,14 +10115,13 @@
         <v>47</v>
       </c>
       <c r="B66" s="4">
-        <v>0.29718212479593659</v>
+        <v>0.29807938039209342</v>
       </c>
       <c r="C66" s="4">
-        <v>-8.3190279815420431E-2</v>
-      </c>
-      <c r="D66" t="str">
-        <f>IFERROR(VLOOKUP(A66,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-8.3190279815420792E-2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -7689,14 +10129,13 @@
         <v>48</v>
       </c>
       <c r="B67" s="4">
-        <v>0.21950523787612361</v>
+        <v>0.21854669971945931</v>
       </c>
       <c r="C67" s="4">
         <v>-7.315347608716187E-2</v>
       </c>
-      <c r="D67" t="str">
-        <f>IFERROR(VLOOKUP(A67,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D67" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -7704,14 +10143,13 @@
         <v>49</v>
       </c>
       <c r="B68" s="4">
-        <v>0.20664464373462171</v>
+        <v>0.20245828642751021</v>
       </c>
       <c r="C68" s="4">
-        <v>-0.10151388778667129</v>
-      </c>
-      <c r="D68" t="str">
-        <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1015138877866712</v>
+      </c>
+      <c r="D68" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -7719,14 +10157,13 @@
         <v>50</v>
       </c>
       <c r="B69" s="4">
-        <v>0.23398370377660399</v>
+        <v>0.23296194087801619</v>
       </c>
       <c r="C69" s="4">
         <v>-8.2990356669653792E-2</v>
       </c>
-      <c r="D69" t="str">
-        <f>IFERROR(VLOOKUP(A69,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D69" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -7734,14 +10171,13 @@
         <v>51</v>
       </c>
       <c r="B70" s="4">
-        <v>0.22498555864495171</v>
+        <v>0.22336591659663441</v>
       </c>
       <c r="C70" s="4">
-        <v>-0.10036131287239709</v>
-      </c>
-      <c r="D70" t="str">
-        <f>IFERROR(VLOOKUP(A70,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1003613128723975</v>
+      </c>
+      <c r="D70" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -7749,14 +10185,13 @@
         <v>61</v>
       </c>
       <c r="B71" s="4">
-        <v>0.1842684007059309</v>
+        <v>0.18855225211416329</v>
       </c>
       <c r="C71" s="4">
-        <v>-7.4767677720646672E-2</v>
-      </c>
-      <c r="D71" t="str">
-        <f>IFERROR(VLOOKUP(A71,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-7.4767677720647158E-2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -7764,14 +10199,13 @@
         <v>62</v>
       </c>
       <c r="B72" s="4">
-        <v>0.21763590095925861</v>
+        <v>0.2145221836962351</v>
       </c>
       <c r="C72" s="4">
-        <v>-9.9857273034681074E-2</v>
-      </c>
-      <c r="D72" t="str">
-        <f>IFERROR(VLOOKUP(A72,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-9.9857273034680713E-2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,14 +10213,13 @@
         <v>52</v>
       </c>
       <c r="B73" s="4">
-        <v>0.23042247286771031</v>
+        <v>0.22100742734896731</v>
       </c>
       <c r="C73" s="4">
-        <v>-0.1090106019599614</v>
-      </c>
-      <c r="D73" t="str">
-        <f>IFERROR(VLOOKUP(A73,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1090106019599604</v>
+      </c>
+      <c r="D73" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -7794,14 +10227,13 @@
         <v>53</v>
       </c>
       <c r="B74" s="4">
-        <v>0.14501873618901551</v>
+        <v>0.14262641220127381</v>
       </c>
       <c r="C74" s="4">
-        <v>-8.4957886444129355E-2</v>
-      </c>
-      <c r="D74" t="str">
-        <f>IFERROR(VLOOKUP(A74,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-8.4957886444129008E-2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -7809,14 +10241,13 @@
         <v>54</v>
       </c>
       <c r="B75" s="4">
-        <v>0.12063269101548001</v>
+        <v>0.11678564692744201</v>
       </c>
       <c r="C75" s="4">
-        <v>-0.1187890108642469</v>
-      </c>
-      <c r="D75" t="str">
-        <f>IFERROR(VLOOKUP(A75,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-0.1187890108642472</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -7824,14 +10255,13 @@
         <v>63</v>
       </c>
       <c r="B76" s="4">
-        <v>0.1324111328142388</v>
+        <v>0.13183291826046481</v>
       </c>
       <c r="C76" s="4">
         <v>-8.6538572437098574E-2</v>
       </c>
-      <c r="D76" t="str">
-        <f>IFERROR(VLOOKUP(A76,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D76" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -7839,14 +10269,13 @@
         <v>55</v>
       </c>
       <c r="B77" s="4">
-        <v>0.16414382158862029</v>
+        <v>0.16342703634150851</v>
       </c>
       <c r="C77" s="4">
         <v>-5.8421029838465151E-2</v>
       </c>
-      <c r="D77" t="str">
-        <f>IFERROR(VLOOKUP(A77,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D77" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -7854,14 +10283,13 @@
         <v>56</v>
       </c>
       <c r="B78" s="4">
-        <v>0.17812619658940321</v>
+        <v>0.18410174995255019</v>
       </c>
       <c r="C78" s="4">
-        <v>-8.6437181018568982E-2</v>
-      </c>
-      <c r="D78" t="str">
-        <f>IFERROR(VLOOKUP(A78,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-8.6437181018568551E-2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -7869,14 +10297,13 @@
         <v>57</v>
       </c>
       <c r="B79" s="4">
-        <v>0.119894015148787</v>
+        <v>0.1211137380982085</v>
       </c>
       <c r="C79" s="4">
-        <v>-8.9390627664356778E-2</v>
-      </c>
-      <c r="D79" t="str">
-        <f>IFERROR(VLOOKUP(A79,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+        <v>-8.9390627664356875E-2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -7884,14 +10311,13 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>0.1986</v>
+        <v>0.22459999999999999</v>
       </c>
       <c r="C80" s="4">
         <v>-0.12</v>
       </c>
-      <c r="D80" t="str">
-        <f>IFERROR(VLOOKUP(A80,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D80" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -7904,9 +10330,8 @@
       <c r="C81" s="4">
         <v>-9.8699999999999996E-2</v>
       </c>
-      <c r="D81" t="str">
-        <f>IFERROR(VLOOKUP(A81,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D81" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -7919,9 +10344,8 @@
       <c r="C82" s="4">
         <v>-9.7500000000000003E-2</v>
       </c>
-      <c r="D82" t="str">
-        <f>IFERROR(VLOOKUP(A82,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D82" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,9 +10358,8 @@
       <c r="C83" s="4">
         <v>-0.18</v>
       </c>
-      <c r="D83" t="str">
-        <f>IFERROR(VLOOKUP(A83,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
-        <v>Open ended Fund</v>
+      <c r="D83" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/yearly_metric.xlsx
+++ b/yearly_metric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyThon\ALPHA FACTORY\BACKTEST TRADING STRAT\Son_MARKET_REGIME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3779FB-C0F4-49F6-B3BB-BDCE9905A385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AD4A4D-3C13-4DFB-A756-EB8FAE42C0A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4317,7 +4317,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:D56"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,7 +5119,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:D61"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,7 +5991,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7039,8 +7039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:D75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8109,8 +8109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9192,7 +9192,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9219,7 +9219,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>-8.8253256927823723E-2</v>
+        <v>-0.11145510835913321</v>
       </c>
       <c r="C2" s="4">
         <v>-0.18057553956834599</v>
@@ -9233,7 +9233,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>7.3742665340830904E-2</v>
+        <v>0.1080213849698837</v>
       </c>
       <c r="C3" s="4">
         <v>-3.804046213611826E-2</v>
@@ -9247,7 +9247,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>0.11167249808522289</v>
+        <v>0.1064854759850451</v>
       </c>
       <c r="C4" s="4">
         <v>-9.8870056497175229E-2</v>
@@ -9261,7 +9261,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>-4.1215412739130028E-2</v>
+        <v>-5.4995970991135963E-2</v>
       </c>
       <c r="C5" s="4">
         <v>-0.1920945696342812</v>
@@ -9275,7 +9275,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>7.0081605332552005E-2</v>
+        <v>6.5626681011295762E-2</v>
       </c>
       <c r="C6" s="4">
         <v>-0.12767724300197211</v>
@@ -9289,7 +9289,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>0.1108639952601763</v>
+        <v>9.8613251155623027E-2</v>
       </c>
       <c r="C7" s="4">
         <v>-9.7595473833097662E-2</v>
@@ -9303,7 +9303,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>0.1634737064050123</v>
+        <v>0.16674197921373629</v>
       </c>
       <c r="C8" s="4">
         <v>-0.1119373776908025</v>
@@ -9317,7 +9317,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>7.0105798853637158E-2</v>
+        <v>6.572144126676438E-2</v>
       </c>
       <c r="C9" s="4">
         <v>-0.12764641687886469</v>
@@ -9331,7 +9331,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>6.8667203977752972E-2</v>
+        <v>0.1024925198965982</v>
       </c>
       <c r="C10" s="4">
         <v>-3.8842204629559833E-2</v>
@@ -9345,7 +9345,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>0.14872818363004961</v>
+        <v>0.15737473535638569</v>
       </c>
       <c r="C11" s="4">
         <v>-0.1151477832512314</v>
@@ -9359,7 +9359,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>0.19012062154814591</v>
+        <v>0.20844055584148211</v>
       </c>
       <c r="C12" s="4">
         <v>-8.4182543198936644E-2</v>
@@ -9373,7 +9373,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>-9.100072654775121E-2</v>
+        <v>-0.1035707779194754</v>
       </c>
       <c r="C13" s="4">
         <v>-0.1790355677154582</v>
@@ -9387,7 +9387,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>0.15427100644191619</v>
+        <v>0.1512388162422578</v>
       </c>
       <c r="C14" s="4">
         <v>-0.12159932625068109</v>
@@ -9401,7 +9401,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="4">
-        <v>-4.9499203503845898E-4</v>
+        <v>-1.020408163265518E-2</v>
       </c>
       <c r="C15" s="4">
         <v>-0.12529182879377551</v>
@@ -9415,7 +9415,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>-8.3805343466685417E-2</v>
+        <v>-9.9429115128448764E-2</v>
       </c>
       <c r="C16" s="4">
         <v>-0.17064017660044101</v>
@@ -9429,7 +9429,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32696003279644559</v>
+        <v>0.33494872563012312</v>
       </c>
       <c r="C17" s="4">
         <v>-0.14933549386446909</v>
@@ -9443,7 +9443,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>-4.2316615896464883E-2</v>
+        <v>-4.953497775980531E-2</v>
       </c>
       <c r="C18" s="4">
         <v>-0.19027287915351729</v>
@@ -9457,7 +9457,7 @@
         <v>64</v>
       </c>
       <c r="B19" s="4">
-        <v>6.230071885634924E-2</v>
+        <v>6.2525375558264429E-2</v>
       </c>
       <c r="C19" s="4">
         <v>-0.12061403508771899</v>
@@ -9471,7 +9471,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>0.1287975965214391</v>
+        <v>0.13551401869158911</v>
       </c>
       <c r="C20" s="4">
         <v>-0.10171198388721001</v>
@@ -9485,7 +9485,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>6.2480021993415708E-2</v>
+        <v>5.3673627223510767E-2</v>
       </c>
       <c r="C21" s="4">
         <v>-0.1044978259319978</v>
@@ -9499,7 +9499,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4">
-        <v>-5.689939575355845E-2</v>
+        <v>-7.7795104835467588E-2</v>
       </c>
       <c r="C22" s="4">
         <v>-0.16201284748139511</v>
@@ -9513,7 +9513,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>0.17069683792979701</v>
+        <v>0.15661252900232039</v>
       </c>
       <c r="C23" s="4">
         <v>-6.1389783709157798E-2</v>
@@ -9527,7 +9527,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="4">
-        <v>0.19401185529160381</v>
+        <v>0.1960000000000004</v>
       </c>
       <c r="C24" s="4">
         <v>-8.4490740740740491E-2</v>
@@ -9541,7 +9541,7 @@
         <v>65</v>
       </c>
       <c r="B25" s="4">
-        <v>0.1664563762176339</v>
+        <v>0.1978319783197833</v>
       </c>
       <c r="C25" s="4">
         <v>-9.4313453536754924E-2</v>
@@ -9555,7 +9555,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4">
-        <v>0.14999086126204081</v>
+        <v>0.15695346795434631</v>
       </c>
       <c r="C26" s="4">
         <v>-0.12966521553802379</v>
@@ -9569,7 +9569,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="4">
-        <v>4.3868853270131493E-2</v>
+        <v>2.507712210170188E-2</v>
       </c>
       <c r="C27" s="4">
         <v>-0.1236268683594452</v>
@@ -9583,7 +9583,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="4">
-        <v>0.13455293872327409</v>
+        <v>0.15339902204943151</v>
       </c>
       <c r="C28" s="4">
         <v>-0.1078413696625677</v>
@@ -9597,7 +9597,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>0.21099899605759501</v>
+        <v>0.2442384769539061</v>
       </c>
       <c r="C29" s="4">
         <v>-9.9699866476030727E-2</v>
@@ -9611,7 +9611,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>0.1738084197815245</v>
+        <v>0.23721954948069121</v>
       </c>
       <c r="C30" s="4">
         <v>-0.16254055579066159</v>
@@ -9625,7 +9625,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="4">
-        <v>8.5153295209156307E-2</v>
+        <v>8.1820050709243919E-2</v>
       </c>
       <c r="C31" s="4">
         <v>-0.12700559414766091</v>
@@ -9639,7 +9639,7 @@
         <v>78</v>
       </c>
       <c r="B32" s="4">
-        <v>0.1117951834463124</v>
+        <v>0.1209915539380626</v>
       </c>
       <c r="C32" s="4">
         <v>-0.12126888217522661</v>
@@ -9653,7 +9653,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="4">
-        <v>6.6823016330241944E-2</v>
+        <v>5.8163720101025218E-2</v>
       </c>
       <c r="C33" s="4">
         <v>-0.1043847048361722</v>
@@ -9667,7 +9667,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="4">
-        <v>9.4384280689899402E-2</v>
+        <v>8.8006986221619732E-2</v>
       </c>
       <c r="C34" s="4">
         <v>-0.1007015362756417</v>
@@ -9681,7 +9681,7 @@
         <v>79</v>
       </c>
       <c r="B35" s="4">
-        <v>-8.7251366395321883E-2</v>
+        <v>-7.7976817702844148E-2</v>
       </c>
       <c r="C35" s="4">
         <v>-0.18403115871470249</v>
@@ -9695,7 +9695,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="4">
-        <v>0.1086822339126749</v>
+        <v>0.11336982017200881</v>
       </c>
       <c r="C36" s="4">
         <v>-0.12903225806451599</v>
@@ -9709,7 +9709,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="4">
-        <v>-4.1215412739130028E-2</v>
+        <v>-5.4995970991135963E-2</v>
       </c>
       <c r="C37" s="4">
         <v>-0.1920945696342812</v>
@@ -9723,7 +9723,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="4">
-        <v>-9.8504131682190521E-2</v>
+        <v>-0.1017942145734156</v>
       </c>
       <c r="C38" s="4">
         <v>-0.1674707098552714</v>
@@ -9737,7 +9737,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="4">
-        <v>0.19259485993693179</v>
+        <v>0.1949567181031244</v>
       </c>
       <c r="C39" s="4">
         <v>-0.12689699709396221</v>
@@ -9751,7 +9751,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="4">
-        <v>-6.8577797447761102E-2</v>
+        <v>-8.941485864562837E-2</v>
       </c>
       <c r="C40" s="4">
         <v>-0.15731370745170131</v>
@@ -9765,7 +9765,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="4">
-        <v>-4.5185584033768628E-2</v>
+        <v>4.2255511588468853E-2</v>
       </c>
       <c r="C41" s="4">
         <v>-0.16538406613458559</v>
@@ -9779,7 +9779,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="4">
-        <v>0.20137506172305311</v>
+        <v>0.2035928143712564</v>
       </c>
       <c r="C42" s="4">
         <v>-9.3314093314093197E-2</v>
@@ -9793,7 +9793,7 @@
         <v>67</v>
       </c>
       <c r="B43" s="4">
-        <v>0.11065256954619231</v>
+        <v>0.12836624775583449</v>
       </c>
       <c r="C43" s="4">
         <v>-0.1229882773693623</v>
@@ -9807,7 +9807,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="4">
-        <v>0.15413495455887569</v>
+        <v>0.2345554195711155</v>
       </c>
       <c r="C44" s="4">
         <v>-0.18340121353170991</v>
@@ -9821,7 +9821,7 @@
         <v>31</v>
       </c>
       <c r="B45" s="4">
-        <v>7.5886857798389953E-2</v>
+        <v>7.2084160807257769E-2</v>
       </c>
       <c r="C45" s="4">
         <v>-0.1347453160189753</v>
@@ -9835,7 +9835,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="4">
-        <v>0.11119523884192289</v>
+        <v>0.1041515517936311</v>
       </c>
       <c r="C46" s="4">
         <v>-0.1124412141941003</v>
@@ -9849,7 +9849,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="4">
-        <v>0.22136778315519279</v>
+        <v>0.23921683734878291</v>
       </c>
       <c r="C47" s="4">
         <v>-0.1090106019599604</v>
@@ -9863,7 +9863,7 @@
         <v>80</v>
       </c>
       <c r="B48" s="4">
-        <v>-0.14682154409083811</v>
+        <v>-0.11759504862953141</v>
       </c>
       <c r="C48" s="4">
         <v>-0.1724137931034487</v>
@@ -9877,7 +9877,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="4">
-        <v>0.2053016439810855</v>
+        <v>0.23151645979492949</v>
       </c>
       <c r="C49" s="4">
         <v>-9.8720292504570262E-2</v>
@@ -9891,7 +9891,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="4">
-        <v>6.230071885634924E-2</v>
+        <v>6.2525375558264429E-2</v>
       </c>
       <c r="C50" s="4">
         <v>-0.12061403508771899</v>
@@ -9905,7 +9905,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="4">
-        <v>0.12894859415571311</v>
+        <v>0.13508260447036119</v>
       </c>
       <c r="C51" s="4">
         <v>-0.10134003350083751</v>
@@ -9919,7 +9919,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="4">
-        <v>3.7016833569253969E-2</v>
+        <v>4.4333149601808897E-2</v>
       </c>
       <c r="C52" s="4">
         <v>-0.13658851005767561</v>
@@ -9933,7 +9933,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="4">
-        <v>0.1862036671525569</v>
+        <v>0.25660226561956878</v>
       </c>
       <c r="C53" s="4">
         <v>-0.17664698894126679</v>
@@ -9947,7 +9947,7 @@
         <v>73</v>
       </c>
       <c r="B54" s="4">
-        <v>0.26676650949249092</v>
+        <v>0.2896855398598932</v>
       </c>
       <c r="C54" s="4">
         <v>-7.6441977588036059E-2</v>
@@ -9961,7 +9961,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="4">
-        <v>0.1834573180855667</v>
+        <v>0.2605398675796502</v>
       </c>
       <c r="C55" s="4">
         <v>-0.17333686296892351</v>
@@ -9975,7 +9975,7 @@
         <v>81</v>
       </c>
       <c r="B56" s="4">
-        <v>0.145243173408902</v>
+        <v>0.1613361762615482</v>
       </c>
       <c r="C56" s="4">
         <v>-0.104404065291038</v>
@@ -9989,7 +9989,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="4">
-        <v>9.9520161956782816E-2</v>
+        <v>0.11354817140878801</v>
       </c>
       <c r="C57" s="4">
         <v>-0.145711191969641</v>
@@ -10003,7 +10003,7 @@
         <v>40</v>
       </c>
       <c r="B58" s="4">
-        <v>9.4068920575336265E-2</v>
+        <v>0.1122944452457038</v>
       </c>
       <c r="C58" s="4">
         <v>-0.11128076244009651</v>
@@ -10031,7 +10031,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="4">
-        <v>0.20226337527875801</v>
+        <v>0.28316197539187637</v>
       </c>
       <c r="C60" s="4">
         <v>-0.17154670491941601</v>
@@ -10045,7 +10045,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="4">
-        <v>8.9191453296704887E-2</v>
+        <v>0.10280569514237679</v>
       </c>
       <c r="C61" s="4">
         <v>-0.14647569504254729</v>
@@ -10059,7 +10059,7 @@
         <v>44</v>
       </c>
       <c r="B62" s="4">
-        <v>0.18490047341893079</v>
+        <v>0.2099832211711701</v>
       </c>
       <c r="C62" s="4">
         <v>-5.8673803550686597E-2</v>
@@ -10073,7 +10073,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="4">
-        <v>0.22600017415970439</v>
+        <v>0.26649041375039179</v>
       </c>
       <c r="C63" s="4">
         <v>-8.9128954803471397E-2</v>
@@ -10087,7 +10087,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="4">
-        <v>5.0061476350292261E-2</v>
+        <v>0.43636363636363562</v>
       </c>
       <c r="C64" s="4">
         <v>-0.1130434782608698</v>
@@ -10101,7 +10101,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="4">
-        <v>0.18063924066635739</v>
+        <v>0.19541875447387369</v>
       </c>
       <c r="C65" s="4">
         <v>-7.4074074074073862E-2</v>
@@ -10115,7 +10115,7 @@
         <v>47</v>
       </c>
       <c r="B66" s="4">
-        <v>0.29807938039209342</v>
+        <v>0.33487677537260557</v>
       </c>
       <c r="C66" s="4">
         <v>-8.3190279815420792E-2</v>
@@ -10129,7 +10129,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="4">
-        <v>0.21854669971945931</v>
+        <v>0.2512421815631023</v>
       </c>
       <c r="C67" s="4">
         <v>-7.315347608716187E-2</v>
@@ -10143,7 +10143,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="4">
-        <v>0.20245828642751021</v>
+        <v>0.2209185561630633</v>
       </c>
       <c r="C68" s="4">
         <v>-0.1015138877866712</v>
@@ -10157,7 +10157,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="4">
-        <v>0.23296194087801619</v>
+        <v>0.27036245229021172</v>
       </c>
       <c r="C69" s="4">
         <v>-8.2990356669653792E-2</v>
@@ -10171,7 +10171,7 @@
         <v>51</v>
       </c>
       <c r="B70" s="4">
-        <v>0.22336591659663441</v>
+        <v>0.24389314105734991</v>
       </c>
       <c r="C70" s="4">
         <v>-0.1003613128723975</v>
@@ -10185,7 +10185,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="4">
-        <v>0.18855225211416329</v>
+        <v>0.21189206832771279</v>
       </c>
       <c r="C71" s="4">
         <v>-7.4767677720647158E-2</v>
@@ -10199,7 +10199,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="4">
-        <v>0.2145221836962351</v>
+        <v>0.22918654464200361</v>
       </c>
       <c r="C72" s="4">
         <v>-9.9857273034680713E-2</v>
@@ -10213,7 +10213,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="4">
-        <v>0.22100742734896731</v>
+        <v>0.23914592902533191</v>
       </c>
       <c r="C73" s="4">
         <v>-0.1090106019599604</v>
@@ -10227,7 +10227,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="4">
-        <v>0.14262641220127381</v>
+        <v>0.14163017671182329</v>
       </c>
       <c r="C74" s="4">
         <v>-8.4957886444129008E-2</v>
@@ -10241,7 +10241,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="4">
-        <v>0.11678564692744201</v>
+        <v>0.1236887844102068</v>
       </c>
       <c r="C75" s="4">
         <v>-0.1187890108642472</v>
@@ -10255,7 +10255,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="4">
-        <v>0.13183291826046481</v>
+        <v>0.1598281700848361</v>
       </c>
       <c r="C76" s="4">
         <v>-8.6538572437098574E-2</v>
@@ -10269,7 +10269,7 @@
         <v>55</v>
       </c>
       <c r="B77" s="4">
-        <v>0.16342703634150851</v>
+        <v>0.18489055269588769</v>
       </c>
       <c r="C77" s="4">
         <v>-5.8421029838465151E-2</v>
@@ -10283,7 +10283,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="4">
-        <v>0.18410174995255019</v>
+        <v>0.20438930024681559</v>
       </c>
       <c r="C78" s="4">
         <v>-8.6437181018568551E-2</v>
@@ -10297,7 +10297,7 @@
         <v>57</v>
       </c>
       <c r="B79" s="4">
-        <v>0.1211137380982085</v>
+        <v>0.1211136973086855</v>
       </c>
       <c r="C79" s="4">
         <v>-8.9390627664356875E-2</v>
